--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC06B8-EB43-452D-AB8A-51E824B77B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79512B-EBB4-479E-9540-0A631636C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -12220,7 +12220,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">INDEX('Medal Count'!F:F,Events!$C14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -13260,11 +13260,11 @@
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">INDEX('Medal Count'!E:E,Events!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">INDEX('Medal Count'!F:F,Events!$C21)</f>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="L21">
         <f>SUM((I21*3)+(J21*2)+(K21*1))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -14346,11 +14346,11 @@
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="J78" cm="1">
         <f t="array" ref="J78">INDEX('Medal Count'!E:E,Events!$C78)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" cm="1">
         <f t="array" ref="K78">INDEX('Medal Count'!F:F,Events!$C78)</f>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX('Medal Count'!E:E,Events!$C80)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16657,31 +16657,31 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
@@ -16689,43 +16689,43 @@
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
@@ -16741,11 +16741,11 @@
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -16852,8 +16852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>141</v>
@@ -16921,11 +16921,12 @@
         <v>0</v>
       </c>
       <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>142</v>
@@ -16960,7 +16961,7 @@
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>143</v>
@@ -16996,7 +16997,7 @@
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>144</v>
@@ -17032,7 +17033,7 @@
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>145</v>
@@ -17068,7 +17069,7 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>146</v>
@@ -17076,20 +17077,20 @@
       <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
-        <v>1</v>
+      <c r="E7" s="14">
+        <v>2</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="12">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I7" s="12">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17104,7 +17105,7 @@
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>147</v>
@@ -17140,7 +17141,7 @@
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>148</v>
@@ -17176,7 +17177,7 @@
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>149</v>
@@ -17212,7 +17213,7 @@
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>150</v>
@@ -17248,7 +17249,7 @@
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>151</v>
@@ -17284,7 +17285,7 @@
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>152</v>
@@ -17320,7 +17321,7 @@
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>153</v>
@@ -17332,16 +17333,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I14" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="18"/>
@@ -17356,7 +17357,7 @@
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>154</v>
@@ -17371,13 +17372,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I15" s="12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
@@ -17392,7 +17393,7 @@
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>155</v>
@@ -17428,7 +17429,7 @@
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>156</v>
@@ -17440,10 +17441,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
@@ -17464,7 +17465,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>157</v>
@@ -17500,7 +17501,7 @@
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>158</v>
@@ -17536,7 +17537,7 @@
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>159</v>
@@ -17572,7 +17573,7 @@
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>160</v>
@@ -17617,19 +17618,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="12">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I22" s="12">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="18"/>
@@ -17644,7 +17645,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>162</v>
@@ -17680,7 +17681,7 @@
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>163</v>
@@ -17716,7 +17717,7 @@
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>164</v>
@@ -17752,7 +17753,7 @@
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>165</v>
@@ -17788,7 +17789,7 @@
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>166</v>
@@ -17824,7 +17825,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>167</v>
@@ -17860,7 +17861,7 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>168</v>
@@ -17896,13 +17897,13 @@
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>169</v>
       </c>
       <c r="D30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="12">
         <v>1</v>
@@ -17911,13 +17912,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I30" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="18"/>
@@ -17932,7 +17933,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>170</v>
@@ -17968,7 +17969,7 @@
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>171</v>
@@ -18004,7 +18005,7 @@
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>172</v>
@@ -18040,7 +18041,7 @@
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>173</v>
@@ -18076,7 +18077,7 @@
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>174</v>
@@ -18112,7 +18113,7 @@
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>175</v>
@@ -18148,7 +18149,7 @@
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>176</v>
@@ -18184,7 +18185,7 @@
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>177</v>
@@ -18220,7 +18221,7 @@
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>178</v>
@@ -18256,7 +18257,7 @@
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>179</v>
@@ -18292,7 +18293,7 @@
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>180</v>
@@ -18328,7 +18329,7 @@
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>139</v>
@@ -18340,16 +18341,16 @@
         <v>2</v>
       </c>
       <c r="F42" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H42" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I42" s="12">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="18"/>
@@ -18364,7 +18365,7 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>181</v>
@@ -18400,7 +18401,7 @@
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>182</v>
@@ -18408,20 +18409,20 @@
       <c r="D44" s="12">
         <v>1</v>
       </c>
-      <c r="E44" s="12">
-        <v>1</v>
+      <c r="E44" s="14">
+        <v>2</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
       </c>
       <c r="G44" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" s="12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="18"/>
@@ -18436,7 +18437,7 @@
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>183</v>
@@ -18472,7 +18473,7 @@
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>184</v>
@@ -18508,7 +18509,7 @@
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>185</v>
@@ -18544,7 +18545,7 @@
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>186</v>
@@ -18580,7 +18581,7 @@
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>187</v>
@@ -18616,7 +18617,7 @@
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>188</v>
@@ -18652,7 +18653,7 @@
     <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>189</v>
@@ -18688,7 +18689,7 @@
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>190</v>
@@ -18724,7 +18725,7 @@
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>191</v>
@@ -18760,7 +18761,7 @@
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>192</v>
@@ -18796,7 +18797,7 @@
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>193</v>
@@ -18832,7 +18833,7 @@
     <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>194</v>
@@ -18868,7 +18869,7 @@
     <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>195</v>
@@ -18904,7 +18905,7 @@
     <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>196</v>
@@ -18940,7 +18941,7 @@
     <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>197</v>
@@ -18976,7 +18977,7 @@
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>198</v>
@@ -19012,7 +19013,7 @@
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>199</v>
@@ -19048,7 +19049,7 @@
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>200</v>
@@ -19084,7 +19085,7 @@
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>201</v>
@@ -19120,7 +19121,7 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>202</v>
@@ -19156,7 +19157,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>203</v>
@@ -19192,7 +19193,7 @@
     <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>204</v>
@@ -19234,7 +19235,7 @@
         <v>140</v>
       </c>
       <c r="D67" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="12">
         <v>1</v>
@@ -19243,13 +19244,13 @@
         <v>2</v>
       </c>
       <c r="G67" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H67" s="12">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
       <c r="I67" s="12">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="18"/>
@@ -19264,7 +19265,7 @@
     <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>205</v>
@@ -19300,7 +19301,7 @@
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>206</v>
@@ -19336,7 +19337,7 @@
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>207</v>
@@ -19372,7 +19373,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>208</v>
@@ -19408,7 +19409,7 @@
     <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>209</v>
@@ -19444,7 +19445,7 @@
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>210</v>
@@ -19480,7 +19481,7 @@
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>211</v>
@@ -19516,7 +19517,7 @@
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>212</v>
@@ -19552,7 +19553,7 @@
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>213</v>
@@ -19588,7 +19589,7 @@
     <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>214</v>
@@ -19624,7 +19625,7 @@
     <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>215</v>
@@ -19660,7 +19661,7 @@
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>216</v>
@@ -19669,19 +19670,19 @@
         <v>0</v>
       </c>
       <c r="E79" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="12">
         <v>0</v>
       </c>
       <c r="G79" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="12">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I79" s="12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="18"/>
@@ -19696,7 +19697,7 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>217</v>
@@ -19732,7 +19733,7 @@
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>218</v>
@@ -19741,19 +19742,19 @@
         <v>0</v>
       </c>
       <c r="E81" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="12">
         <v>0</v>
       </c>
       <c r="G81" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I81" s="12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="18"/>
@@ -19768,7 +19769,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>219</v>
@@ -19804,7 +19805,7 @@
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>137</v>
@@ -19840,7 +19841,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>138</v>
@@ -19876,7 +19877,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>220</v>
@@ -19912,7 +19913,7 @@
     <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>221</v>
@@ -19948,7 +19949,7 @@
     <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>222</v>
@@ -19984,7 +19985,7 @@
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>223</v>
@@ -20020,7 +20021,7 @@
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>224</v>
@@ -20056,13 +20057,13 @@
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>225</v>
       </c>
       <c r="D90" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="12">
         <v>0</v>
@@ -20071,13 +20072,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I90" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="18"/>
@@ -20092,7 +20093,7 @@
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>226</v>
@@ -20128,7 +20129,7 @@
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>227</v>
@@ -20164,7 +20165,7 @@
     <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>228</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79512B-EBB4-479E-9540-0A631636C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675294A0-A3E6-447A-BD5E-C1ED10187D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -819,9 +819,6 @@
     <t>Wagner (Estonia, Poland, Germany, China)</t>
   </si>
   <si>
-    <t>Richard (Australia, Austria, Belgium, Estonia, Finland, Romania)</t>
-  </si>
-  <si>
     <t>Josh (Belgium, Estonia, AIN, Norway, Poland, Slovenia)</t>
   </si>
   <si>
@@ -865,6 +862,12 @@
   </si>
   <si>
     <t>Evan 2 (Norway, South Korea, Hungary)</t>
+  </si>
+  <si>
+    <t>Richard (Australia, Austria, Belgium, France, Finland, Romania)</t>
+  </si>
+  <si>
+    <t>–</t>
   </si>
 </sst>
 </file>
@@ -12219,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12238,16 +12241,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <f>Events!Y95</f>
@@ -12256,20 +12259,20 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12278,12 +12281,12 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7">
         <f>Events!O95</f>
@@ -12292,7 +12295,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <f>Events!AH95</f>
@@ -12301,7 +12304,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9">
         <f>Events!Q95</f>
@@ -12310,7 +12313,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10">
         <f>Events!S95</f>
@@ -12319,7 +12322,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11">
         <f>Events!R95</f>
@@ -12328,7 +12331,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12">
         <f>Events!AF95</f>
@@ -12337,11 +12340,11 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12350,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12359,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12368,16 +12371,16 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12400,38 +12403,38 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12440,7 +12443,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -12458,11 +12461,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501A6FAC-27B6-471F-BECD-93C99C8065B1}">
   <dimension ref="A1:AI95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12825,7 +12828,7 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
@@ -12833,7 +12836,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13163,11 +13166,11 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13256,7 +13259,7 @@
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
@@ -13264,7 +13267,7 @@
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -14446,11 +14449,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15190,11 +15193,11 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
@@ -15202,7 +15205,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -16112,11 +16115,11 @@
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">INDEX('Medal Count'!D:D,Events!$C83)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
@@ -16124,7 +16127,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16657,11 +16660,11 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
@@ -16669,7 +16672,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
@@ -16685,23 +16688,23 @@
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
@@ -16709,7 +16712,7 @@
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
@@ -16717,7 +16720,7 @@
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
@@ -16725,11 +16728,11 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
@@ -16737,7 +16740,7 @@
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
@@ -16745,7 +16748,7 @@
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -16852,8 +16855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16896,8 +16899,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12">
-        <v>16</v>
+      <c r="B2" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>141</v>
@@ -16922,11 +16925,14 @@
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="12">
-        <v>16</v>
+      <c r="B3" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>142</v>
@@ -16960,8 +16966,8 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="12">
-        <v>16</v>
+      <c r="B4" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>143</v>
@@ -16996,8 +17002,8 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="12">
-        <v>16</v>
+      <c r="B5" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>144</v>
@@ -17032,8 +17038,8 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="12">
-        <v>16</v>
+      <c r="B6" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>145</v>
@@ -17069,7 +17075,7 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>146</v>
@@ -17078,19 +17084,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="12">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I7" s="12">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17104,8 +17110,8 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="12">
-        <v>16</v>
+      <c r="B8" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>147</v>
@@ -17140,8 +17146,8 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="12">
-        <v>16</v>
+      <c r="B9" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>148</v>
@@ -17176,8 +17182,8 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="12">
-        <v>16</v>
+      <c r="B10" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>149</v>
@@ -17212,8 +17218,8 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="12">
-        <v>16</v>
+      <c r="B11" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>150</v>
@@ -17248,8 +17254,8 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="12">
-        <v>16</v>
+      <c r="B12" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>151</v>
@@ -17284,8 +17290,8 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="12">
-        <v>16</v>
+      <c r="B13" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>152</v>
@@ -17321,7 +17327,7 @@
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>153</v>
@@ -17357,7 +17363,7 @@
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>154</v>
@@ -17369,16 +17375,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="12">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
@@ -17392,8 +17398,8 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="12">
-        <v>16</v>
+      <c r="B16" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>155</v>
@@ -17429,7 +17435,7 @@
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>156</v>
@@ -17438,19 +17444,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12">
         <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
       </c>
       <c r="I17" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -17464,8 +17470,8 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="12">
-        <v>16</v>
+      <c r="B18" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>157</v>
@@ -17500,8 +17506,8 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="12">
-        <v>16</v>
+      <c r="B19" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>158</v>
@@ -17536,8 +17542,8 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="12">
-        <v>16</v>
+      <c r="B20" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>159</v>
@@ -17572,8 +17578,8 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="12">
-        <v>16</v>
+      <c r="B21" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>160</v>
@@ -17609,7 +17615,7 @@
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>161</v>
@@ -17644,8 +17650,8 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="12">
-        <v>16</v>
+      <c r="B23" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>162</v>
@@ -17680,8 +17686,8 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="12">
-        <v>16</v>
+      <c r="B24" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>163</v>
@@ -17716,8 +17722,8 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="12">
-        <v>16</v>
+      <c r="B25" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>164</v>
@@ -17752,8 +17758,8 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="12">
-        <v>16</v>
+      <c r="B26" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>165</v>
@@ -17788,8 +17794,8 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="12">
-        <v>16</v>
+      <c r="B27" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>166</v>
@@ -17825,7 +17831,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>167</v>
@@ -17860,8 +17866,8 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="12">
-        <v>16</v>
+      <c r="B29" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>168</v>
@@ -17897,7 +17903,7 @@
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>169</v>
@@ -17932,8 +17938,8 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="12">
-        <v>16</v>
+      <c r="B31" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>170</v>
@@ -17968,8 +17974,8 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="12">
-        <v>16</v>
+      <c r="B32" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>171</v>
@@ -18004,8 +18010,8 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="12">
-        <v>16</v>
+      <c r="B33" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>172</v>
@@ -18040,8 +18046,8 @@
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="12">
-        <v>16</v>
+      <c r="B34" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>173</v>
@@ -18076,8 +18082,8 @@
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="12">
-        <v>16</v>
+      <c r="B35" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>174</v>
@@ -18112,8 +18118,8 @@
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="12">
-        <v>16</v>
+      <c r="B36" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>175</v>
@@ -18148,8 +18154,8 @@
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="12">
-        <v>16</v>
+      <c r="B37" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>176</v>
@@ -18184,8 +18190,8 @@
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="12">
-        <v>16</v>
+      <c r="B38" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>177</v>
@@ -18220,8 +18226,8 @@
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="12">
-        <v>16</v>
+      <c r="B39" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>178</v>
@@ -18256,8 +18262,8 @@
     </row>
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="12">
-        <v>16</v>
+      <c r="B40" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>179</v>
@@ -18292,8 +18298,8 @@
     </row>
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="12">
-        <v>16</v>
+      <c r="B41" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>180</v>
@@ -18329,7 +18335,7 @@
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>139</v>
@@ -18337,7 +18343,7 @@
       <c r="D42" s="12">
         <v>1</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <v>2</v>
       </c>
       <c r="F42" s="15">
@@ -18364,8 +18370,8 @@
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="12">
-        <v>16</v>
+      <c r="B43" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>181</v>
@@ -18401,7 +18407,7 @@
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>182</v>
@@ -18409,20 +18415,20 @@
       <c r="D44" s="12">
         <v>1</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="12">
         <v>2</v>
       </c>
       <c r="F44" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" s="12">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="18"/>
@@ -18436,8 +18442,8 @@
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="12">
-        <v>16</v>
+      <c r="B45" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>183</v>
@@ -18472,8 +18478,8 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="12">
-        <v>16</v>
+      <c r="B46" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>184</v>
@@ -18508,8 +18514,8 @@
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="12">
-        <v>16</v>
+      <c r="B47" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>185</v>
@@ -18544,8 +18550,8 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="12">
-        <v>16</v>
+      <c r="B48" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>186</v>
@@ -18580,8 +18586,8 @@
     </row>
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="12">
-        <v>16</v>
+      <c r="B49" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>187</v>
@@ -18616,8 +18622,8 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="12">
-        <v>16</v>
+      <c r="B50" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>188</v>
@@ -18652,8 +18658,8 @@
     </row>
     <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="B51" s="12">
-        <v>16</v>
+      <c r="B51" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>189</v>
@@ -18688,8 +18694,8 @@
     </row>
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="B52" s="12">
-        <v>16</v>
+      <c r="B52" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>190</v>
@@ -18724,8 +18730,8 @@
     </row>
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="B53" s="12">
-        <v>16</v>
+      <c r="B53" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>191</v>
@@ -18760,8 +18766,8 @@
     </row>
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="12">
-        <v>16</v>
+      <c r="B54" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>192</v>
@@ -18796,8 +18802,8 @@
     </row>
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="12">
-        <v>16</v>
+      <c r="B55" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>193</v>
@@ -18832,8 +18838,8 @@
     </row>
     <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="12">
-        <v>16</v>
+      <c r="B56" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>194</v>
@@ -18868,8 +18874,8 @@
     </row>
     <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="12">
-        <v>16</v>
+      <c r="B57" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>195</v>
@@ -18904,8 +18910,8 @@
     </row>
     <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="B58" s="12">
-        <v>16</v>
+      <c r="B58" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>196</v>
@@ -18940,8 +18946,8 @@
     </row>
     <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="B59" s="12">
-        <v>16</v>
+      <c r="B59" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>197</v>
@@ -18976,8 +18982,8 @@
     </row>
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="B60" s="12">
-        <v>16</v>
+      <c r="B60" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>198</v>
@@ -19012,8 +19018,8 @@
     </row>
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="B61" s="12">
-        <v>16</v>
+      <c r="B61" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>199</v>
@@ -19048,8 +19054,8 @@
     </row>
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="12">
-        <v>16</v>
+      <c r="B62" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>200</v>
@@ -19085,28 +19091,28 @@
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D63" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="12">
         <v>0</v>
       </c>
       <c r="G63" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" s="12">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I63" s="12">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="18"/>
@@ -19120,8 +19126,8 @@
     </row>
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="12">
-        <v>16</v>
+      <c r="B64" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>202</v>
@@ -19156,8 +19162,8 @@
     </row>
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="12">
-        <v>16</v>
+      <c r="B65" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>203</v>
@@ -19192,8 +19198,8 @@
     </row>
     <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="12">
-        <v>16</v>
+      <c r="B66" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>204</v>
@@ -19264,8 +19270,8 @@
     </row>
     <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="12">
-        <v>16</v>
+      <c r="B68" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>205</v>
@@ -19300,8 +19306,8 @@
     </row>
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="12">
-        <v>16</v>
+      <c r="B69" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>206</v>
@@ -19336,8 +19342,8 @@
     </row>
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="12">
-        <v>16</v>
+      <c r="B70" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>207</v>
@@ -19372,8 +19378,8 @@
     </row>
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="12">
-        <v>16</v>
+      <c r="B71" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>208</v>
@@ -19408,8 +19414,8 @@
     </row>
     <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="12">
-        <v>16</v>
+      <c r="B72" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>209</v>
@@ -19444,8 +19450,8 @@
     </row>
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
-      <c r="B73" s="12">
-        <v>16</v>
+      <c r="B73" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>210</v>
@@ -19480,8 +19486,8 @@
     </row>
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="12">
-        <v>16</v>
+      <c r="B74" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>211</v>
@@ -19516,8 +19522,8 @@
     </row>
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="12">
-        <v>16</v>
+      <c r="B75" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>212</v>
@@ -19552,8 +19558,8 @@
     </row>
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
-      <c r="B76" s="12">
-        <v>16</v>
+      <c r="B76" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>213</v>
@@ -19588,8 +19594,8 @@
     </row>
     <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
-      <c r="B77" s="12">
-        <v>16</v>
+      <c r="B77" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>214</v>
@@ -19624,8 +19630,8 @@
     </row>
     <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="12">
-        <v>16</v>
+      <c r="B78" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>215</v>
@@ -19661,7 +19667,7 @@
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>216</v>
@@ -19696,8 +19702,8 @@
     </row>
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="12">
-        <v>16</v>
+      <c r="B80" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>217</v>
@@ -19733,7 +19739,7 @@
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>218</v>
@@ -19768,8 +19774,8 @@
     </row>
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="12">
-        <v>16</v>
+      <c r="B82" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>219</v>
@@ -19805,7 +19811,7 @@
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>137</v>
@@ -19841,28 +19847,28 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="17">
+        <v>3</v>
+      </c>
+      <c r="E84" s="12">
         <v>1</v>
       </c>
-      <c r="E84" s="12">
-        <v>0</v>
-      </c>
       <c r="F84" s="12">
         <v>0</v>
       </c>
       <c r="G84" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84" s="12">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="I84" s="12">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19876,8 +19882,8 @@
     </row>
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="12">
-        <v>16</v>
+      <c r="B85" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>220</v>
@@ -19912,8 +19918,8 @@
     </row>
     <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="12">
-        <v>16</v>
+      <c r="B86" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>221</v>
@@ -19948,8 +19954,8 @@
     </row>
     <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
-      <c r="B87" s="12">
-        <v>16</v>
+      <c r="B87" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>222</v>
@@ -19984,8 +19990,8 @@
     </row>
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="12">
-        <v>16</v>
+      <c r="B88" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>223</v>
@@ -20020,8 +20026,8 @@
     </row>
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
-      <c r="B89" s="12">
-        <v>16</v>
+      <c r="B89" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>224</v>
@@ -20057,7 +20063,7 @@
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>225</v>
@@ -20092,8 +20098,8 @@
     </row>
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="12">
-        <v>16</v>
+      <c r="B91" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>226</v>
@@ -20128,8 +20134,8 @@
     </row>
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="12">
-        <v>16</v>
+      <c r="B92" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>227</v>
@@ -20164,8 +20170,8 @@
     </row>
     <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="12">
-        <v>16</v>
+      <c r="B93" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>228</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675294A0-A3E6-447A-BD5E-C1ED10187D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E97D5E0-7300-403D-B1FF-CD47BE7F749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -12462,7 +12462,7 @@
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="U56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="C2">
         <f>MATCH(Events!B2,'Medal Count'!C:C,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="C3">
         <f>MATCH(Events!B3,'Medal Count'!C:C,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="C4">
         <f>MATCH(Events!B4,'Medal Count'!C:C,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="C5">
         <f>MATCH(Events!B5,'Medal Count'!C:C,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="C6">
         <f>MATCH(Events!B6,'Medal Count'!C:C,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="C7">
         <f>MATCH(Events!B7,'Medal Count'!C:C,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>7</v>
@@ -12857,7 +12857,7 @@
       </c>
       <c r="C8">
         <f>MATCH(Events!B8,'Medal Count'!C:C,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="C9">
         <f>MATCH(Events!B9,'Medal Count'!C:C,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C10">
         <f>MATCH(Events!B10,'Medal Count'!C:C,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="C11">
         <f>MATCH(Events!B11,'Medal Count'!C:C,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="C12">
         <f>MATCH(Events!B12,'Medal Count'!C:C,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="C13">
         <f>MATCH(Events!B13,'Medal Count'!C:C,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="C14">
         <f>MATCH(Events!B14,'Medal Count'!C:C,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="C15">
         <f>MATCH(Events!B15,'Medal Count'!C:C,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="C16">
         <f>MATCH(Events!B16,'Medal Count'!C:C,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="C17">
         <f>MATCH(Events!B17,'Medal Count'!C:C,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
         <v>9</v>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="C18">
         <f>MATCH(Events!B18,'Medal Count'!C:C,0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="C19">
         <f>MATCH(Events!B19,'Medal Count'!C:C,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="C20">
         <f>MATCH(Events!B20,'Medal Count'!C:C,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="C21">
         <f>MATCH(Events!B21,'Medal Count'!C:C,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="C22">
         <f>MATCH(Events!B22,'Medal Count'!C:C,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="C23">
         <f>MATCH(Events!B23,'Medal Count'!C:C,0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C24">
         <f>MATCH(Events!B24,'Medal Count'!C:C,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="C25">
         <f>MATCH(Events!B25,'Medal Count'!C:C,0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="C26">
         <f>MATCH(Events!B26,'Medal Count'!C:C,0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="C27">
         <f>MATCH(Events!B27,'Medal Count'!C:C,0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="C28">
         <f>MATCH(Events!B28,'Medal Count'!C:C,0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="C29">
         <f>MATCH(Events!B29,'Medal Count'!C:C,0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="5">
         <v>12</v>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="C30">
         <f>MATCH(Events!B30,'Medal Count'!C:C,0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="C31">
         <f>MATCH(Events!B31,'Medal Count'!C:C,0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="C32">
         <f>MATCH(Events!B32,'Medal Count'!C:C,0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="C33">
         <f>MATCH(Events!B33,'Medal Count'!C:C,0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C34">
         <f>MATCH(Events!B34,'Medal Count'!C:C,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="C35">
         <f>MATCH(Events!B35,'Medal Count'!C:C,0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C36">
         <f>MATCH(Events!B36,'Medal Count'!C:C,0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="C37">
         <f>MATCH(Events!B37,'Medal Count'!C:C,0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
@@ -14207,7 +14207,7 @@
       </c>
       <c r="C39">
         <f>MATCH(Events!B39,'Medal Count'!C:C,0)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C40">
         <f>MATCH(Events!B40,'Medal Count'!C:C,0)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="C41">
         <f>MATCH(Events!B41,'Medal Count'!C:C,0)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="C42">
         <f>MATCH(Events!B42,'Medal Count'!C:C,0)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
@@ -14380,7 +14380,7 @@
       </c>
       <c r="C43">
         <f>MATCH(Events!B43,'Medal Count'!C:C,0)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="C44">
         <f>MATCH(Events!B44,'Medal Count'!C:C,0)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D44" s="5">
         <v>3</v>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">INDEX('Medal Count'!D:D,Events!$C44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
@@ -14449,11 +14449,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="C45">
         <f>MATCH(Events!B45,'Medal Count'!C:C,0)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="C46">
         <f>MATCH(Events!B46,'Medal Count'!C:C,0)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="C47">
         <f>MATCH(Events!B47,'Medal Count'!C:C,0)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="C48">
         <f>MATCH(Events!B48,'Medal Count'!C:C,0)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="C49">
         <f>MATCH(Events!B49,'Medal Count'!C:C,0)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="C50">
         <f>MATCH(Events!B50,'Medal Count'!C:C,0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
@@ -14714,7 +14714,7 @@
       </c>
       <c r="C51">
         <f>MATCH(Events!B51,'Medal Count'!C:C,0)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="C52">
         <f>MATCH(Events!B52,'Medal Count'!C:C,0)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="C53">
         <f>MATCH(Events!B53,'Medal Count'!C:C,0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="C54">
         <f>MATCH(Events!B54,'Medal Count'!C:C,0)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C55">
         <f>MATCH(Events!B55,'Medal Count'!C:C,0)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="C56">
         <f>MATCH(Events!B56,'Medal Count'!C:C,0)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="C57">
         <f>MATCH(Events!B57,'Medal Count'!C:C,0)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="C58">
         <f>MATCH(Events!B58,'Medal Count'!C:C,0)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="C59">
         <f>MATCH(Events!B59,'Medal Count'!C:C,0)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="C60">
         <f>MATCH(Events!B60,'Medal Count'!C:C,0)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="C61">
         <f>MATCH(Events!B61,'Medal Count'!C:C,0)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="C62">
         <f>MATCH(Events!B62,'Medal Count'!C:C,0)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="C63">
         <f>MATCH(Events!B63,'Medal Count'!C:C,0)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" s="5">
         <v>8</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="C64">
         <f>MATCH(Events!B64,'Medal Count'!C:C,0)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="J64" cm="1">
         <f t="array" ref="J64">INDEX('Medal Count'!E:E,Events!$C64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" cm="1">
         <f t="array" ref="K64">INDEX('Medal Count'!F:F,Events!$C64)</f>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="C65">
         <f>MATCH(Events!B65,'Medal Count'!C:C,0)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="C66">
         <f>MATCH(Events!B66,'Medal Count'!C:C,0)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="C67">
         <f>MATCH(Events!B67,'Medal Count'!C:C,0)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D67" s="5">
         <v>16</v>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="C68">
         <f>MATCH(Events!B68,'Medal Count'!C:C,0)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="C69">
         <f>MATCH(Events!B69,'Medal Count'!C:C,0)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="C70">
         <f>MATCH(Events!B70,'Medal Count'!C:C,0)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" s="5">
         <v>0</v>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="J70" cm="1">
         <f t="array" ref="J70">INDEX('Medal Count'!E:E,Events!$C70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">INDEX('Medal Count'!F:F,Events!$C70)</f>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="L70">
         <f>SUM((I70*3)+(J70*2)+(K70*1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="C71">
         <f>MATCH(Events!B71,'Medal Count'!C:C,0)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="C72">
         <f>MATCH(Events!B72,'Medal Count'!C:C,0)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C73">
         <f>MATCH(Events!B73,'Medal Count'!C:C,0)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="C74">
         <f>MATCH(Events!B74,'Medal Count'!C:C,0)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
@@ -15710,7 +15710,7 @@
       </c>
       <c r="C75">
         <f>MATCH(Events!B75,'Medal Count'!C:C,0)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="C76">
         <f>MATCH(Events!B76,'Medal Count'!C:C,0)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="C77">
         <f>MATCH(Events!B77,'Medal Count'!C:C,0)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="C78">
         <f>MATCH(Events!B78,'Medal Count'!C:C,0)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D78" s="5">
         <v>2</v>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="C79">
         <f>MATCH(Events!B79,'Medal Count'!C:C,0)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
@@ -15930,7 +15930,7 @@
       </c>
       <c r="C80">
         <f>MATCH(Events!B80,'Medal Count'!C:C,0)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="5">
         <v>2</v>
@@ -15958,11 +15958,11 @@
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="C81">
         <f>MATCH(Events!B81,'Medal Count'!C:C,0)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="C82">
         <f>MATCH(Events!B82,'Medal Count'!C:C,0)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" s="5">
         <v>8</v>
@@ -16095,7 +16095,7 @@
       </c>
       <c r="C83">
         <f>MATCH(Events!B83,'Medal Count'!C:C,0)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" s="5">
         <v>7</v>
@@ -16123,11 +16123,11 @@
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="C84">
         <f>MATCH(Events!B84,'Medal Count'!C:C,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="C85">
         <f>MATCH(Events!B85,'Medal Count'!C:C,0)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="C86">
         <f>MATCH(Events!B86,'Medal Count'!C:C,0)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="C87">
         <f>MATCH(Events!B87,'Medal Count'!C:C,0)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C88">
         <f>MATCH(Events!B88,'Medal Count'!C:C,0)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D88" s="5">
         <v>0</v>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="C89">
         <f>MATCH(Events!B89,'Medal Count'!C:C,0)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="C90">
         <f>MATCH(Events!B90,'Medal Count'!C:C,0)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D90" s="5">
         <v>9</v>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="C91">
         <f>MATCH(Events!B91,'Medal Count'!C:C,0)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="C92">
         <f>MATCH(Events!B92,'Medal Count'!C:C,0)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C93">
         <f>MATCH(Events!B93,'Medal Count'!C:C,0)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
@@ -16660,7 +16660,7 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
@@ -16676,15 +16676,15 @@
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
@@ -16692,15 +16692,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
@@ -16712,19 +16712,19 @@
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
@@ -16732,15 +16732,15 @@
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
@@ -16748,7 +16748,7 @@
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -16853,16 +16853,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,44 +16898,28 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -16955,22 +16939,23 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="18"/>
+      <c r="J3" s="25"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -17000,13 +16985,13 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -17036,13 +17021,13 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -17072,31 +17057,31 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="12">
-        <v>4</v>
+      <c r="B7" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17108,31 +17093,31 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>267</v>
+      <c r="B8" s="12">
+        <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I8" s="12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17144,13 +17129,13 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -17180,13 +17165,13 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -17216,13 +17201,13 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -17252,13 +17237,13 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -17288,13 +17273,13 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -17324,13 +17309,13 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="12">
-        <v>16</v>
+      <c r="B14" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -17339,16 +17324,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="18"/>
@@ -17360,13 +17345,13 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -17375,16 +17360,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I15" s="12">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
@@ -17396,13 +17381,13 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>267</v>
+      <c r="B16" s="12">
+        <v>17</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -17411,16 +17396,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I16" s="12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -17434,29 +17419,29 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="12">
-        <v>12</v>
+      <c r="B17" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
       </c>
       <c r="I17" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -17470,29 +17455,29 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>267</v>
+      <c r="B18" s="12">
+        <v>12</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
       </c>
       <c r="I18" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="18"/>
@@ -17510,7 +17495,7 @@
         <v>267</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -17546,7 +17531,7 @@
         <v>267</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -17582,7 +17567,7 @@
         <v>267</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -17614,29 +17599,29 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="12">
-        <v>8</v>
+      <c r="B22" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="18"/>
@@ -17650,29 +17635,29 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>267</v>
+      <c r="B23" s="12">
+        <v>8</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I23" s="12">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="18"/>
@@ -17690,7 +17675,7 @@
         <v>267</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -17726,7 +17711,7 @@
         <v>267</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -17762,7 +17747,7 @@
         <v>267</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="12">
         <v>0</v>
@@ -17798,7 +17783,7 @@
         <v>267</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -17830,29 +17815,29 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="12">
-        <v>8</v>
+      <c r="B28" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
       </c>
       <c r="G28" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="18"/>
@@ -17866,29 +17851,29 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>267</v>
+      <c r="B29" s="12">
+        <v>8</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
       </c>
       <c r="G29" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I29" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17902,29 +17887,29 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="12">
-        <v>7</v>
+      <c r="B30" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="18"/>
@@ -17938,29 +17923,29 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
-        <v>267</v>
+      <c r="B31" s="12">
+        <v>4</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="12">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="18"/>
@@ -17978,7 +17963,7 @@
         <v>267</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="12">
         <v>0</v>
@@ -18014,7 +17999,7 @@
         <v>267</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -18050,7 +18035,7 @@
         <v>267</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
@@ -18086,7 +18071,7 @@
         <v>267</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D35" s="12">
         <v>0</v>
@@ -18122,7 +18107,7 @@
         <v>267</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="12">
         <v>0</v>
@@ -18158,7 +18143,7 @@
         <v>267</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="12">
         <v>0</v>
@@ -18194,7 +18179,7 @@
         <v>267</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D38" s="12">
         <v>0</v>
@@ -18230,7 +18215,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -18266,7 +18251,7 @@
         <v>267</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D40" s="12">
         <v>0</v>
@@ -18302,7 +18287,7 @@
         <v>267</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -18334,29 +18319,29 @@
     </row>
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="12">
-        <v>5</v>
+      <c r="B42" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D42" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
-        <v>2</v>
-      </c>
-      <c r="F42" s="15">
-        <v>6</v>
-      </c>
-      <c r="G42" s="16">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
       </c>
       <c r="H42" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="18"/>
@@ -18370,29 +18355,29 @@
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
-        <v>267</v>
+      <c r="B43" s="12">
+        <v>7</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="D43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="12">
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F43" s="15">
+        <v>6</v>
+      </c>
+      <c r="G43" s="16">
+        <v>9</v>
       </c>
       <c r="H43" s="12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I43" s="12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -18406,29 +18391,29 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="12">
-        <v>6</v>
+      <c r="B44" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="18"/>
@@ -18442,29 +18427,29 @@
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
-        <v>267</v>
+      <c r="B45" s="12">
+        <v>3</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D45" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H45" s="12">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I45" s="12">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="18"/>
@@ -18482,7 +18467,7 @@
         <v>267</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12">
         <v>0</v>
@@ -18518,7 +18503,7 @@
         <v>267</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="12">
         <v>0</v>
@@ -18554,7 +18539,7 @@
         <v>267</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D48" s="12">
         <v>0</v>
@@ -18590,7 +18575,7 @@
         <v>267</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" s="12">
         <v>0</v>
@@ -18626,7 +18611,7 @@
         <v>267</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D50" s="12">
         <v>0</v>
@@ -18662,7 +18647,7 @@
         <v>267</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
@@ -18698,7 +18683,7 @@
         <v>267</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52" s="12">
         <v>0</v>
@@ -18734,7 +18719,7 @@
         <v>267</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
@@ -18770,7 +18755,7 @@
         <v>267</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" s="12">
         <v>0</v>
@@ -18806,7 +18791,7 @@
         <v>267</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55" s="12">
         <v>0</v>
@@ -18842,7 +18827,7 @@
         <v>267</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" s="12">
         <v>0</v>
@@ -18878,7 +18863,7 @@
         <v>267</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="12">
         <v>0</v>
@@ -18914,7 +18899,7 @@
         <v>267</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D58" s="12">
         <v>0</v>
@@ -18950,7 +18935,7 @@
         <v>267</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" s="12">
         <v>0</v>
@@ -18986,7 +18971,7 @@
         <v>267</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" s="12">
         <v>0</v>
@@ -19022,7 +19007,7 @@
         <v>267</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" s="12">
         <v>0</v>
@@ -19058,7 +19043,7 @@
         <v>267</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
@@ -19090,29 +19075,29 @@
     </row>
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="12">
-        <v>8</v>
+      <c r="B63" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="12">
         <v>0</v>
       </c>
       <c r="G63" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="12">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I63" s="12">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M63" s="20"/>
       <c r="N63" s="18"/>
@@ -19126,29 +19111,29 @@
     </row>
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="B64" s="12" t="s">
-        <v>267</v>
+      <c r="B64" s="12">
+        <v>8</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="12">
         <v>0</v>
       </c>
       <c r="G64" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="12">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I64" s="12">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="18"/>
@@ -19162,29 +19147,29 @@
     </row>
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="12" t="s">
-        <v>267</v>
+      <c r="B65" s="12">
+        <v>14</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="12">
         <v>0</v>
       </c>
       <c r="E65" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="12">
         <v>0</v>
       </c>
       <c r="G65" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="12">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I65" s="12">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="18"/>
@@ -19202,7 +19187,7 @@
         <v>267</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="12">
         <v>0</v>
@@ -19234,29 +19219,29 @@
     </row>
     <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="12">
-        <v>1</v>
+      <c r="B67" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="17">
-        <v>3</v>
+        <v>204</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
       </c>
       <c r="E67" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H67" s="12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="18"/>
@@ -19270,29 +19255,29 @@
     </row>
     <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="12" t="s">
-        <v>267</v>
+      <c r="B68" s="12">
+        <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="D68" s="17">
+        <v>3</v>
       </c>
       <c r="E68" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H68" s="12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="I68" s="12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19310,7 +19295,7 @@
         <v>267</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="12">
         <v>0</v>
@@ -19346,7 +19331,7 @@
         <v>267</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="12">
         <v>0</v>
@@ -19378,29 +19363,29 @@
     </row>
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="12" t="s">
-        <v>267</v>
+      <c r="B71" s="12">
+        <v>14</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
       </c>
       <c r="E71" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="12">
         <v>0</v>
       </c>
       <c r="G71" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I71" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="18"/>
@@ -19418,7 +19403,7 @@
         <v>267</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -19454,7 +19439,7 @@
         <v>267</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -19490,7 +19475,7 @@
         <v>267</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="12">
         <v>0</v>
@@ -19526,7 +19511,7 @@
         <v>267</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="12">
         <v>0</v>
@@ -19562,7 +19547,7 @@
         <v>267</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="12">
         <v>0</v>
@@ -19598,7 +19583,7 @@
         <v>267</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -19634,7 +19619,7 @@
         <v>267</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="12">
         <v>0</v>
@@ -19666,29 +19651,29 @@
     </row>
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="12">
-        <v>13</v>
+      <c r="B79" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
       </c>
       <c r="E79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="12">
         <v>0</v>
       </c>
       <c r="G79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="12">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I79" s="12">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="M79" s="20"/>
       <c r="N79" s="18"/>
@@ -19702,29 +19687,29 @@
     </row>
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="12" t="s">
-        <v>267</v>
+      <c r="B80" s="12">
+        <v>14</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
       </c>
       <c r="E80" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="12">
         <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="12">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I80" s="12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="18"/>
@@ -19738,29 +19723,29 @@
     </row>
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="12">
-        <v>13</v>
+      <c r="B81" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
       </c>
       <c r="E81" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="12">
         <v>0</v>
       </c>
       <c r="G81" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I81" s="12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="18"/>
@@ -19774,29 +19759,29 @@
     </row>
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="12" t="s">
-        <v>267</v>
+      <c r="B82" s="12">
+        <v>12</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="12">
         <v>0</v>
       </c>
       <c r="E82" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" s="12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I82" s="12">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="18"/>
@@ -19810,29 +19795,29 @@
     </row>
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="12">
-        <v>8</v>
+      <c r="B83" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="D83" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="12">
         <v>0</v>
       </c>
       <c r="G83" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" s="12">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I83" s="12">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M83" s="20"/>
       <c r="N83" s="18"/>
@@ -19847,13 +19832,13 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" s="17">
-        <v>3</v>
+        <v>137</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1</v>
       </c>
       <c r="E84" s="12">
         <v>1</v>
@@ -19862,13 +19847,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84" s="12">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I84" s="12">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19882,29 +19867,29 @@
     </row>
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="12" t="s">
-        <v>267</v>
+      <c r="B85" s="12">
+        <v>2</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D85" s="12">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="D85" s="17">
+        <v>3</v>
       </c>
       <c r="E85" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H85" s="12">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I85" s="12">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="18"/>
@@ -19922,7 +19907,7 @@
         <v>267</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="12">
         <v>0</v>
@@ -19958,7 +19943,7 @@
         <v>267</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" s="12">
         <v>0</v>
@@ -19994,7 +19979,7 @@
         <v>267</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D88" s="12">
         <v>0</v>
@@ -20030,7 +20015,7 @@
         <v>267</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -20062,14 +20047,14 @@
     </row>
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="12">
-        <v>3</v>
+      <c r="B90" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D90" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" s="12">
         <v>0</v>
@@ -20078,13 +20063,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I90" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M90" s="20"/>
       <c r="N90" s="18"/>
@@ -20098,14 +20083,14 @@
     </row>
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="12" t="s">
-        <v>267</v>
+      <c r="B91" s="12">
+        <v>5</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D91" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" s="12">
         <v>0</v>
@@ -20114,13 +20099,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I91" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>
@@ -20138,7 +20123,7 @@
         <v>267</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D92" s="12">
         <v>0</v>
@@ -20174,7 +20159,7 @@
         <v>267</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D93" s="12">
         <v>0</v>
@@ -20205,14 +20190,28 @@
       <c r="U93" s="18"/>
     </row>
     <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
       <c r="I94" s="12"/>
       <c r="M94" s="20"/>
       <c r="N94" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E97D5E0-7300-403D-B1FF-CD47BE7F749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62E7E54-4139-494F-8C8C-CFC82B90E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12222,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12461,7 +12461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501A6FAC-27B6-471F-BECD-93C99C8065B1}">
   <dimension ref="A1:AI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="U56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12923,11 +12923,11 @@
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">INDEX('Medal Count'!F:F,Events!$C9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f>SUM((I9*3)+(J9*2)+(K9*1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">INDEX('Medal Count'!D:D,Events!$C42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -15263,11 +15263,11 @@
       </c>
       <c r="K64" cm="1">
         <f t="array" ref="K64">INDEX('Medal Count'!F:F,Events!$C64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15386,11 +15386,11 @@
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16056,19 +16056,19 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16664,51 +16664,51 @@
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
@@ -16724,31 +16724,31 @@
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>267</v>
       </c>
@@ -16940,16 +16940,17 @@
         <v>0</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="18"/>
+      <c r="K3" s="25"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>267</v>
@@ -16985,7 +16986,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>267</v>
@@ -17021,7 +17022,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>267</v>
@@ -17057,7 +17058,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>267</v>
@@ -17093,10 +17094,10 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>146</v>
@@ -17129,7 +17130,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>267</v>
@@ -17165,10 +17166,10 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>267</v>
+      <c r="B10" s="12">
+        <v>18</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17180,16 +17181,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I10" s="12">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="18"/>
@@ -17201,7 +17202,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>267</v>
@@ -17237,7 +17238,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>267</v>
@@ -17273,7 +17274,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>267</v>
@@ -17309,7 +17310,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>267</v>
@@ -17345,7 +17346,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>18</v>
@@ -17381,10 +17382,10 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>154</v>
@@ -17393,19 +17394,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12">
         <v>2</v>
       </c>
       <c r="G16" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I16" s="12">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -17456,7 +17457,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>156</v>
@@ -17636,7 +17637,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
@@ -17852,7 +17853,7 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>167</v>
@@ -17924,7 +17925,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -18356,13 +18357,13 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="12">
         <v>2</v>
@@ -18371,13 +18372,13 @@
         <v>6</v>
       </c>
       <c r="G43" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43" s="12">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I43" s="12">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -18428,7 +18429,7 @@
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>182</v>
@@ -19112,7 +19113,7 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>201</v>
@@ -19148,7 +19149,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19160,16 +19161,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="12">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I65" s="12">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="M65" s="20"/>
       <c r="N65" s="18"/>
@@ -19262,22 +19263,22 @@
         <v>140</v>
       </c>
       <c r="D68" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="12">
         <v>1</v>
       </c>
       <c r="F68" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H68" s="12">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="I68" s="12">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19364,7 +19365,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>207</v>
@@ -19688,7 +19689,7 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
@@ -19760,7 +19761,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
@@ -19832,28 +19833,28 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D84" s="12">
+        <v>2</v>
+      </c>
+      <c r="E84" s="12">
+        <v>2</v>
+      </c>
+      <c r="F84" s="12">
         <v>1</v>
       </c>
-      <c r="E84" s="12">
-        <v>1</v>
-      </c>
-      <c r="F84" s="12">
-        <v>0</v>
-      </c>
       <c r="G84" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H84" s="12">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="I84" s="12">
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19873,7 +19874,7 @@
       <c r="C85" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D85" s="12">
         <v>3</v>
       </c>
       <c r="E85" s="12">
@@ -20084,7 +20085,7 @@
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>225</v>
@@ -20093,13 +20094,13 @@
         <v>2</v>
       </c>
       <c r="E91" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" s="12">
         <v>0</v>
       </c>
       <c r="G91" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" s="12">
         <v>0.01</v>
@@ -20212,7 +20213,9 @@
       <c r="H94" s="12">
         <v>0</v>
       </c>
-      <c r="I94" s="12"/>
+      <c r="I94" s="12">
+        <v>0</v>
+      </c>
       <c r="M94" s="20"/>
       <c r="N94" s="18"/>
       <c r="O94" s="19"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62E7E54-4139-494F-8C8C-CFC82B90E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C934EA-3F76-4BA5-A7F1-AB7D34C7E569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX('Medal Count'!D:D,Events!$C7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13807,11 +13807,11 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -14349,11 +14349,11 @@
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14449,11 +14449,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="J49" cm="1">
         <f t="array" ref="J49">INDEX('Medal Count'!E:E,Events!$C49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" cm="1">
         <f t="array" ref="K49">INDEX('Medal Count'!F:F,Events!$C49)</f>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="L49">
         <f>SUM((I49*3)+(J49*2)+(K49*1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -15378,19 +15378,19 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="I78" cm="1">
         <f t="array" ref="I78">INDEX('Medal Count'!D:D,Events!$C78)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" cm="1">
         <f t="array" ref="J78">INDEX('Medal Count'!E:E,Events!$C78)</f>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16412,15 +16412,15 @@
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16660,95 +16660,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>267</v>
       </c>
@@ -16941,16 +16941,17 @@
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="18"/>
+      <c r="L3" s="25"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>267</v>
@@ -16986,7 +16987,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>267</v>
@@ -17022,7 +17023,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>267</v>
@@ -17058,7 +17059,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>267</v>
@@ -17094,16 +17095,16 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="14">
         <v>3</v>
@@ -17112,13 +17113,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="12">
-        <v>0.44</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I8" s="12">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17130,7 +17131,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>267</v>
@@ -17166,10 +17167,10 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17202,7 +17203,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>267</v>
@@ -17238,7 +17239,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>267</v>
@@ -17274,7 +17275,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>267</v>
@@ -17310,7 +17311,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>267</v>
@@ -17346,10 +17347,10 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>153</v>
@@ -17382,10 +17383,10 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>154</v>
@@ -17457,7 +17458,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>156</v>
@@ -17637,7 +17638,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
@@ -17862,19 +17863,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
       </c>
       <c r="G29" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I29" s="12">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17925,28 +17926,28 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="12">
+        <v>3</v>
+      </c>
+      <c r="E31" s="12">
         <v>2</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1</v>
       </c>
       <c r="F31" s="12">
         <v>1</v>
       </c>
       <c r="G31" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31" s="12">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I31" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="18"/>
@@ -18357,7 +18358,7 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
@@ -18369,16 +18370,16 @@
         <v>2</v>
       </c>
       <c r="F43" s="15">
-        <v>6</v>
-      </c>
-      <c r="G43" s="16">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G43" s="12">
+        <v>11</v>
       </c>
       <c r="H43" s="12">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I43" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -18429,7 +18430,7 @@
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>182</v>
@@ -18441,16 +18442,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" s="12">
         <v>0.06</v>
       </c>
       <c r="I45" s="12">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="18"/>
@@ -18608,8 +18609,8 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="B50" s="12" t="s">
-        <v>267</v>
+      <c r="B50" s="12">
+        <v>17</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>187</v>
@@ -18618,19 +18619,19 @@
         <v>0</v>
       </c>
       <c r="E50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="12">
         <v>0</v>
       </c>
       <c r="G50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="12">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="I50" s="12">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="18"/>
@@ -19113,7 +19114,7 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>201</v>
@@ -19149,7 +19150,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19263,22 +19264,22 @@
         <v>140</v>
       </c>
       <c r="D68" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="12">
-        <v>3</v>
-      </c>
-      <c r="G68" s="12">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="G68" s="16">
+        <v>12</v>
       </c>
       <c r="H68" s="12">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="I68" s="12">
-        <v>1.55</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19365,7 +19366,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>207</v>
@@ -19689,13 +19690,13 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D80" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="12">
         <v>1</v>
@@ -19704,13 +19705,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="12">
-        <v>0.47</v>
+        <v>0.94</v>
       </c>
       <c r="I80" s="12">
-        <v>0.84</v>
+        <v>1.68</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="18"/>
@@ -19761,7 +19762,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
@@ -19833,13 +19834,13 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D84" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" s="12">
         <v>2</v>
@@ -19848,13 +19849,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H84" s="12">
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I84" s="12">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19869,7 +19870,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -20085,7 +20086,7 @@
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>225</v>
@@ -20093,20 +20094,20 @@
       <c r="D91" s="12">
         <v>2</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="14">
+        <v>3</v>
+      </c>
+      <c r="F91" s="12">
         <v>2</v>
       </c>
-      <c r="F91" s="12">
-        <v>0</v>
-      </c>
       <c r="G91" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H91" s="12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I91" s="12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C934EA-3F76-4BA5-A7F1-AB7D34C7E569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911280AE-9C8E-4718-A063-C29A6E1D6A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
@@ -846,9 +846,6 @@
     <t>Tiffany (Canada, Sweden, Finland, Slovakia, Poland)</t>
   </si>
   <si>
-    <t>Neigem (Czech, Estonia, Finland, Italy, Latvia, United States)</t>
-  </si>
-  <si>
     <t>Ian (Japan, Italy, Netherlands, Argentina)</t>
   </si>
   <si>
@@ -868,6 +865,9 @@
   </si>
   <si>
     <t>–</t>
+  </si>
+  <si>
+    <t>Neigum (Czech, Estonia, Finland, Italy, Latvia, United States)</t>
   </si>
 </sst>
 </file>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B3">
         <f>Events!Y95</f>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <f>Events!AI95</f>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7">
         <f>Events!O95</f>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10">
         <f>Events!S95</f>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11">
         <f>Events!R95</f>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12">
         <f>Events!AF95</f>
@@ -12340,7 +12340,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13">
         <f>Events!X95</f>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>141</v>
@@ -16954,7 +16954,7 @@
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>142</v>
@@ -16990,7 +16990,7 @@
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>143</v>
@@ -17026,7 +17026,7 @@
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>144</v>
@@ -17062,7 +17062,7 @@
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
@@ -17134,7 +17134,7 @@
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>147</v>
@@ -17206,7 +17206,7 @@
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>149</v>
@@ -17242,7 +17242,7 @@
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>150</v>
@@ -17278,7 +17278,7 @@
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>151</v>
@@ -17314,7 +17314,7 @@
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>152</v>
@@ -17422,7 +17422,7 @@
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>155</v>
@@ -17494,7 +17494,7 @@
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>157</v>
@@ -17530,7 +17530,7 @@
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>158</v>
@@ -17566,7 +17566,7 @@
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>159</v>
@@ -17602,7 +17602,7 @@
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>160</v>
@@ -17674,7 +17674,7 @@
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>162</v>
@@ -17710,7 +17710,7 @@
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>163</v>
@@ -17746,7 +17746,7 @@
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>164</v>
@@ -17782,7 +17782,7 @@
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>165</v>
@@ -17818,7 +17818,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>166</v>
@@ -17890,7 +17890,7 @@
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>168</v>
@@ -17962,7 +17962,7 @@
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>170</v>
@@ -17998,7 +17998,7 @@
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>171</v>
@@ -18034,7 +18034,7 @@
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>172</v>
@@ -18070,7 +18070,7 @@
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>173</v>
@@ -18106,7 +18106,7 @@
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>174</v>
@@ -18142,7 +18142,7 @@
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>175</v>
@@ -18178,7 +18178,7 @@
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>176</v>
@@ -18214,7 +18214,7 @@
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>177</v>
@@ -18250,7 +18250,7 @@
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>178</v>
@@ -18286,7 +18286,7 @@
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>179</v>
@@ -18322,7 +18322,7 @@
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>180</v>
@@ -18394,7 +18394,7 @@
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>181</v>
@@ -18466,7 +18466,7 @@
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>183</v>
@@ -18502,7 +18502,7 @@
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>184</v>
@@ -18538,7 +18538,7 @@
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>185</v>
@@ -18574,7 +18574,7 @@
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>186</v>
@@ -18646,7 +18646,7 @@
     <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>188</v>
@@ -18682,7 +18682,7 @@
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>189</v>
@@ -18718,7 +18718,7 @@
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>190</v>
@@ -18754,7 +18754,7 @@
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>191</v>
@@ -18790,7 +18790,7 @@
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>192</v>
@@ -18826,7 +18826,7 @@
     <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>193</v>
@@ -18862,7 +18862,7 @@
     <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>194</v>
@@ -18898,7 +18898,7 @@
     <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>195</v>
@@ -18934,7 +18934,7 @@
     <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>196</v>
@@ -18970,7 +18970,7 @@
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>197</v>
@@ -19006,7 +19006,7 @@
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>198</v>
@@ -19042,7 +19042,7 @@
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>199</v>
@@ -19078,7 +19078,7 @@
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>200</v>
@@ -19186,7 +19186,7 @@
     <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>203</v>
@@ -19222,7 +19222,7 @@
     <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>204</v>
@@ -19294,7 +19294,7 @@
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>205</v>
@@ -19330,7 +19330,7 @@
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>206</v>
@@ -19402,7 +19402,7 @@
     <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>208</v>
@@ -19438,7 +19438,7 @@
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>209</v>
@@ -19474,7 +19474,7 @@
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>210</v>
@@ -19510,7 +19510,7 @@
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>211</v>
@@ -19546,7 +19546,7 @@
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>212</v>
@@ -19582,7 +19582,7 @@
     <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>213</v>
@@ -19618,7 +19618,7 @@
     <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>214</v>
@@ -19654,7 +19654,7 @@
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>215</v>
@@ -19726,7 +19726,7 @@
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>217</v>
@@ -19798,7 +19798,7 @@
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>219</v>
@@ -19906,7 +19906,7 @@
     <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>220</v>
@@ -19942,7 +19942,7 @@
     <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>221</v>
@@ -19978,7 +19978,7 @@
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>222</v>
@@ -20014,7 +20014,7 @@
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>223</v>
@@ -20050,7 +20050,7 @@
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>224</v>
@@ -20122,7 +20122,7 @@
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>226</v>
@@ -20158,7 +20158,7 @@
     <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>227</v>
@@ -20194,7 +20194,7 @@
     <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>228</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911280AE-9C8E-4718-A063-C29A6E1D6A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248059F4-FFF8-4C0E-8E23-642EF13DE9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13668,11 +13668,11 @@
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX('Medal Count'!F:F,Events!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">INDEX('Medal Count'!D:D,Events!$C83)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
@@ -16123,11 +16123,11 @@
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
@@ -16676,39 +16676,39 @@
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
@@ -16728,23 +16728,23 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
@@ -16942,16 +16942,17 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="18"/>
+      <c r="M3" s="25"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="18"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>266</v>
@@ -16987,7 +16988,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>266</v>
@@ -17023,7 +17024,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>266</v>
@@ -17059,7 +17060,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>266</v>
@@ -17095,7 +17096,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
         <v>6</v>
@@ -17107,19 +17108,19 @@
         <v>2</v>
       </c>
       <c r="E8" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="12">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="I8" s="12">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17131,7 +17132,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>266</v>
@@ -17167,7 +17168,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
         <v>19</v>
@@ -17203,7 +17204,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>266</v>
@@ -17239,7 +17240,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>266</v>
@@ -17275,7 +17276,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>266</v>
@@ -17311,7 +17312,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>266</v>
@@ -17347,7 +17348,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>19</v>
@@ -17383,7 +17384,7 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>13</v>
@@ -17817,8 +17818,8 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>266</v>
+      <c r="B28" s="12">
+        <v>19</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>166</v>
@@ -17830,16 +17831,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I28" s="12">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="18"/>
@@ -17926,7 +17927,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -19264,7 +19265,7 @@
         <v>140</v>
       </c>
       <c r="D68" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" s="12">
         <v>2</v>
@@ -19273,13 +19274,13 @@
         <v>4</v>
       </c>
       <c r="G68" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="12">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="I68" s="12">
-        <v>2.0699999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19834,7 +19835,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
@@ -19870,28 +19871,28 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D85" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" s="12">
         <v>1</v>
       </c>
       <c r="F85" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H85" s="12">
-        <v>0.56000000000000005</v>
+        <v>0.78</v>
       </c>
       <c r="I85" s="12">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="18"/>
@@ -20095,19 +20096,19 @@
         <v>2</v>
       </c>
       <c r="E91" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="12">
         <v>2</v>
       </c>
       <c r="G91" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H91" s="12">
         <v>0.02</v>
       </c>
       <c r="I91" s="12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248059F4-FFF8-4C0E-8E23-642EF13DE9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F5E56-F68A-406C-B9F5-0007A88CB7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -13122,11 +13122,11 @@
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">INDEX('Medal Count'!F:F,Events!$C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -13719,19 +13719,19 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -16408,11 +16408,11 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16664,7 +16664,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
@@ -16704,11 +16704,11 @@
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
@@ -16943,16 +16943,17 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="18"/>
+      <c r="N3" s="25"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>266</v>
@@ -16988,7 +16989,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>266</v>
@@ -17024,7 +17025,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>266</v>
@@ -17060,7 +17061,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>266</v>
@@ -17096,7 +17097,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
         <v>6</v>
@@ -17107,7 +17108,7 @@
       <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>4</v>
       </c>
       <c r="F8" s="12">
@@ -17132,7 +17133,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>266</v>
@@ -17168,10 +17169,10 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17204,7 +17205,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>266</v>
@@ -17240,7 +17241,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>266</v>
@@ -17276,7 +17277,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>266</v>
@@ -17312,7 +17313,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>266</v>
@@ -17348,7 +17349,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>19</v>
@@ -17363,16 +17364,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="12">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="I15" s="12">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
@@ -17384,7 +17385,7 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>13</v>
@@ -17819,7 +17820,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>166</v>
@@ -17855,28 +17856,28 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12">
         <v>1</v>
       </c>
-      <c r="E29" s="12">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
       <c r="G29" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="12">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I29" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17927,7 +17928,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -18359,7 +18360,7 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
@@ -18431,7 +18432,7 @@
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>182</v>
@@ -19835,7 +19836,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
@@ -20087,25 +20088,25 @@
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>225</v>
       </c>
       <c r="D91" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F91" s="12">
         <v>2</v>
       </c>
       <c r="G91" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H91" s="12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I91" s="12">
         <v>0.03</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F5E56-F68A-406C-B9F5-0007A88CB7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A9A61-EB63-49EC-B4DC-98611C4A0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,7 +12223,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">INDEX('Medal Count'!D:D,Events!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">INDEX('Medal Count'!E:E,Events!$C6)</f>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -12824,19 +12824,19 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX('Medal Count'!D:D,Events!$C7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13162,15 +13162,15 @@
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13719,11 +13719,11 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13811,15 +13811,15 @@
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">INDEX('Medal Count'!D:D,Events!$C42)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14449,11 +14449,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15386,11 +15386,11 @@
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16056,11 +16056,11 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16408,19 +16408,19 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16660,95 +16660,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
@@ -16944,16 +16944,17 @@
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="18"/>
+      <c r="O3" s="25"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="18"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>266</v>
@@ -16989,7 +16990,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>266</v>
@@ -17025,7 +17026,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>266</v>
@@ -17061,16 +17062,16 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>266</v>
+      <c r="B7" s="12">
+        <v>13</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -17079,13 +17080,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I7" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17097,7 +17098,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
         <v>6</v>
@@ -17106,22 +17107,22 @@
         <v>146</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H8" s="12">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
       <c r="I8" s="12">
-        <v>0.9</v>
+        <v>1.64</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17133,7 +17134,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>266</v>
@@ -17169,10 +17170,10 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17205,7 +17206,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>266</v>
@@ -17241,7 +17242,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>266</v>
@@ -17277,7 +17278,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>266</v>
@@ -17313,7 +17314,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>266</v>
@@ -17349,10 +17350,10 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>153</v>
@@ -17385,10 +17386,10 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>154</v>
@@ -17397,19 +17398,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I16" s="12">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -17460,7 +17461,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>156</v>
@@ -17472,10 +17473,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -17640,7 +17641,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
@@ -17820,7 +17821,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>166</v>
@@ -17862,22 +17863,22 @@
         <v>167</v>
       </c>
       <c r="D29" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
       </c>
       <c r="G29" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H29" s="12">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I29" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17928,7 +17929,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -17937,19 +17938,19 @@
         <v>3</v>
       </c>
       <c r="E31" s="12">
+        <v>3</v>
+      </c>
+      <c r="F31" s="12">
         <v>2</v>
       </c>
-      <c r="F31" s="12">
-        <v>1</v>
-      </c>
       <c r="G31" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H31" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I31" s="12">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="18"/>
@@ -18360,13 +18361,13 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43" s="12">
         <v>2</v>
@@ -18374,14 +18375,14 @@
       <c r="F43" s="15">
         <v>7</v>
       </c>
-      <c r="G43" s="12">
-        <v>11</v>
+      <c r="G43" s="16">
+        <v>15</v>
       </c>
       <c r="H43" s="12">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I43" s="12">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -18444,16 +18445,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" s="12">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I45" s="12">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="18"/>
@@ -18612,7 +18613,7 @@
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>187</v>
@@ -19125,19 +19126,19 @@
         <v>1</v>
       </c>
       <c r="E64" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="12">
         <v>0</v>
       </c>
       <c r="G64" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" s="12">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I64" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="18"/>
@@ -19152,7 +19153,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19272,16 +19273,16 @@
         <v>2</v>
       </c>
       <c r="F68" s="12">
-        <v>4</v>
-      </c>
-      <c r="G68" s="16">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G68" s="12">
+        <v>14</v>
       </c>
       <c r="H68" s="12">
-        <v>2.33</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I68" s="12">
-        <v>2.2400000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19368,7 +19369,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>207</v>
@@ -19692,7 +19693,7 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
@@ -19764,7 +19765,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
@@ -19842,22 +19843,22 @@
         <v>137</v>
       </c>
       <c r="D84" s="12">
+        <v>4</v>
+      </c>
+      <c r="E84" s="12">
         <v>3</v>
-      </c>
-      <c r="E84" s="12">
-        <v>2</v>
       </c>
       <c r="F84" s="12">
         <v>1</v>
       </c>
       <c r="G84" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H84" s="12">
-        <v>0.56999999999999995</v>
+        <v>0.76</v>
       </c>
       <c r="I84" s="12">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19872,7 +19873,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -20094,22 +20095,22 @@
         <v>225</v>
       </c>
       <c r="D91" s="12">
+        <v>4</v>
+      </c>
+      <c r="E91" s="14">
+        <v>6</v>
+      </c>
+      <c r="F91" s="12">
         <v>3</v>
       </c>
-      <c r="E91" s="14">
-        <v>5</v>
-      </c>
-      <c r="F91" s="12">
-        <v>2</v>
-      </c>
       <c r="G91" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H91" s="12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I91" s="12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A9A61-EB63-49EC-B4DC-98611C4A0BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E321C-97A6-45BC-B399-2C53EA108039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -12222,7 +12222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13166,11 +13166,11 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -14345,15 +14345,15 @@
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14449,11 +14449,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">INDEX('Medal Count'!D:D,Events!$C80)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX('Medal Count'!E:E,Events!$C80)</f>
@@ -15958,11 +15958,11 @@
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16660,11 +16660,11 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
@@ -16680,55 +16680,55 @@
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
@@ -16736,19 +16736,19 @@
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="M16:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
@@ -16945,16 +16945,17 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="18"/>
+      <c r="P3" s="25"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>266</v>
@@ -16990,7 +16991,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>266</v>
@@ -17026,7 +17027,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>266</v>
@@ -17062,10 +17063,10 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
@@ -17098,10 +17099,10 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>146</v>
@@ -17110,19 +17111,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="12">
         <v>3</v>
       </c>
       <c r="G8" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="12">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="I8" s="12">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17134,7 +17135,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>266</v>
@@ -17170,7 +17171,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
         <v>21</v>
@@ -17206,7 +17207,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>266</v>
@@ -17242,7 +17243,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>266</v>
@@ -17278,7 +17279,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>266</v>
@@ -17314,7 +17315,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>266</v>
@@ -17350,7 +17351,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>20</v>
@@ -17386,10 +17387,10 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>154</v>
@@ -17401,16 +17402,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="12">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I16" s="12">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -17461,7 +17462,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>156</v>
@@ -17470,13 +17471,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="12">
         <v>2</v>
       </c>
       <c r="G18" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
@@ -17641,7 +17642,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
@@ -17857,7 +17858,7 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>167</v>
@@ -17929,13 +17930,13 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="12">
         <v>3</v>
@@ -17944,13 +17945,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" s="12">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I31" s="12">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="18"/>
@@ -18370,19 +18371,19 @@
         <v>6</v>
       </c>
       <c r="E43" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H43" s="12">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I43" s="12">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -18433,7 +18434,7 @@
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>182</v>
@@ -18445,16 +18446,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I45" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="18"/>
@@ -19117,13 +19118,13 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="12">
         <v>3</v>
@@ -19132,13 +19133,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H64" s="12">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I64" s="12">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="18"/>
@@ -19153,7 +19154,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19693,7 +19694,7 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
@@ -19765,28 +19766,28 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="12">
         <v>1</v>
       </c>
       <c r="F82" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" s="12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I82" s="12">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="18"/>
@@ -19837,7 +19838,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
@@ -19873,7 +19874,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -20098,19 +20099,19 @@
         <v>4</v>
       </c>
       <c r="E91" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F91" s="12">
         <v>3</v>
       </c>
       <c r="G91" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" s="12">
         <v>0.04</v>
       </c>
       <c r="I91" s="12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E321C-97A6-45BC-B399-2C53EA108039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9EBE1A-EA92-4C6E-8CAC-353F66634B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -12222,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">INDEX('Medal Count'!D:D,Events!$C6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">INDEX('Medal Count'!E:E,Events!$C6)</f>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">INDEX('Medal Count'!E:E,Events!$C21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">INDEX('Medal Count'!F:F,Events!$C21)</f>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="L21">
         <f>SUM((I21*3)+(J21*2)+(K21*1))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -14349,11 +14349,11 @@
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15386,11 +15386,11 @@
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16664,27 +16664,27 @@
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
@@ -16700,15 +16700,15 @@
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
@@ -16744,11 +16744,11 @@
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -16853,10 +16853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="M16:O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16872,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,7 +16914,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>266</v>
       </c>
@@ -16946,16 +16946,17 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="18"/>
+      <c r="Q3" s="25"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>266</v>
@@ -16991,7 +16992,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>266</v>
@@ -17027,7 +17028,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>266</v>
@@ -17063,16 +17064,16 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -17081,13 +17082,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="12">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17099,7 +17100,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
         <v>7</v>
@@ -17135,7 +17136,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>266</v>
@@ -17171,7 +17172,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
         <v>21</v>
@@ -17207,7 +17208,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>266</v>
@@ -17243,7 +17244,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>266</v>
@@ -17279,7 +17280,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>266</v>
@@ -17315,7 +17316,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>266</v>
@@ -17351,7 +17352,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>20</v>
@@ -17387,7 +17388,7 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>15</v>
@@ -17651,19 +17652,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I23" s="12">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="18"/>
@@ -17867,19 +17868,19 @@
         <v>3</v>
       </c>
       <c r="E29" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
       </c>
       <c r="G29" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="12">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I29" s="12">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -18374,16 +18375,16 @@
         <v>3</v>
       </c>
       <c r="F43" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="I43" s="12">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="18"/>
@@ -19268,22 +19269,22 @@
         <v>140</v>
       </c>
       <c r="D68" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="12">
         <v>2</v>
       </c>
       <c r="F68" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G68" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H68" s="12">
-        <v>2.5099999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="I68" s="12">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19694,7 +19695,7 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
@@ -19766,7 +19767,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9EBE1A-EA92-4C6E-8CAC-353F66634B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B46B12-76AC-4FF3-8CC4-74E93C2CEA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Display Points'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$AI$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -837,9 +838,6 @@
     <t>Mansell 2 (Netherlands, France, Italy, AIN)</t>
   </si>
   <si>
-    <t>Kurt (Austria, Czech, Italy, New Zealand, South Korea)</t>
-  </si>
-  <si>
     <t>Grace (USA, Sweden, Great Britain, Czech)</t>
   </si>
   <si>
@@ -868,6 +866,9 @@
   </si>
   <si>
     <t>Neigum (Czech, Estonia, Finland, Italy, Latvia, United States)</t>
+  </si>
+  <si>
+    <t>Kurt (Austria, Czech, Italy, New Zealand, South Korea, Denmark)</t>
   </si>
 </sst>
 </file>
@@ -12222,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12241,29 +12242,29 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12273,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,25 +12282,25 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,43 +12309,43 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12354,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12362,7 +12363,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12371,16 +12372,16 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12407,7 +12408,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12416,7 +12417,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12426,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12434,7 +12435,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12443,7 +12444,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -12462,10 +12463,10 @@
   <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="U56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13419,7 +13420,7 @@
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">INDEX('Medal Count'!D:D,Events!$C21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" ref="J21">INDEX('Medal Count'!E:E,Events!$C21)</f>
@@ -13431,7 +13432,7 @@
       </c>
       <c r="L21">
         <f>SUM((I21*3)+(J21*2)+(K21*1))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -13719,7 +13720,7 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
@@ -13731,7 +13732,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -15201,11 +15202,11 @@
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15382,15 +15383,15 @@
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15517,7 +15518,7 @@
       </c>
       <c r="J70" cm="1">
         <f t="array" ref="J70">INDEX('Medal Count'!E:E,Events!$C70)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">INDEX('Medal Count'!F:F,Events!$C70)</f>
@@ -15525,7 +15526,7 @@
       </c>
       <c r="L70">
         <f>SUM((I70*3)+(J70*2)+(K70*1))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -16660,59 +16661,59 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
@@ -16720,7 +16721,7 @@
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
@@ -16728,30 +16729,31 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI95" xr:uid="{501A6FAC-27B6-471F-BECD-93C99C8065B1}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Albania at the 2026 Winter Olympics" display="https://en.wikipedia.org/wiki/Albania_at_the_2026_Winter_Olympics" xr:uid="{F83396D1-1C4A-4B6F-A66C-C3D6713B9D37}"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="Andorra at the 2026 Winter Olympics" display="https://en.wikipedia.org/wiki/Andorra_at_the_2026_Winter_Olympics" xr:uid="{74986747-E150-4B33-B933-6A5614FDA73B}"/>
@@ -16853,10 +16855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16872,7 +16874,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16898,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16914,9 +16916,9 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>141</v>
@@ -16947,19 +16949,20 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="18"/>
+      <c r="R3" s="25"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="18"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>142</v>
@@ -16992,10 +16995,10 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>143</v>
@@ -17028,10 +17031,10 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>144</v>
@@ -17064,10 +17067,10 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
@@ -17100,10 +17103,10 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>146</v>
@@ -17136,10 +17139,10 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>147</v>
@@ -17172,7 +17175,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
         <v>21</v>
@@ -17208,10 +17211,10 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>149</v>
@@ -17244,10 +17247,10 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>150</v>
@@ -17280,10 +17283,10 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>151</v>
@@ -17316,10 +17319,10 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>152</v>
@@ -17352,7 +17355,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
         <v>20</v>
@@ -17388,7 +17391,7 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>15</v>
@@ -17427,7 +17430,7 @@
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>155</v>
@@ -17499,7 +17502,7 @@
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>157</v>
@@ -17535,7 +17538,7 @@
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>158</v>
@@ -17571,7 +17574,7 @@
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>159</v>
@@ -17607,7 +17610,7 @@
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>160</v>
@@ -17643,13 +17646,13 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
       </c>
       <c r="D23" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="12">
         <v>2</v>
@@ -17658,13 +17661,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="12">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I23" s="12">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="18"/>
@@ -17679,7 +17682,7 @@
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>162</v>
@@ -17715,7 +17718,7 @@
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>163</v>
@@ -17751,7 +17754,7 @@
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>164</v>
@@ -17787,7 +17790,7 @@
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>165</v>
@@ -17859,13 +17862,13 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="12">
         <v>5</v>
@@ -17874,13 +17877,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" s="12">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I29" s="12">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17895,7 +17898,7 @@
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>168</v>
@@ -17931,7 +17934,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -17967,7 +17970,7 @@
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>170</v>
@@ -18003,7 +18006,7 @@
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>171</v>
@@ -18039,7 +18042,7 @@
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>172</v>
@@ -18075,7 +18078,7 @@
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>173</v>
@@ -18111,7 +18114,7 @@
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>174</v>
@@ -18147,7 +18150,7 @@
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>175</v>
@@ -18183,7 +18186,7 @@
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>176</v>
@@ -18219,7 +18222,7 @@
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>177</v>
@@ -18255,7 +18258,7 @@
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>178</v>
@@ -18291,7 +18294,7 @@
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>179</v>
@@ -18327,7 +18330,7 @@
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>180</v>
@@ -18399,7 +18402,7 @@
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>181</v>
@@ -18471,7 +18474,7 @@
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>183</v>
@@ -18507,7 +18510,7 @@
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>184</v>
@@ -18543,7 +18546,7 @@
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>185</v>
@@ -18579,7 +18582,7 @@
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>186</v>
@@ -18615,7 +18618,7 @@
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>187</v>
@@ -18651,7 +18654,7 @@
     <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>188</v>
@@ -18687,7 +18690,7 @@
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>189</v>
@@ -18723,7 +18726,7 @@
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>190</v>
@@ -18759,7 +18762,7 @@
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>191</v>
@@ -18795,7 +18798,7 @@
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>192</v>
@@ -18831,7 +18834,7 @@
     <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>193</v>
@@ -18867,7 +18870,7 @@
     <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>194</v>
@@ -18903,7 +18906,7 @@
     <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>195</v>
@@ -18939,7 +18942,7 @@
     <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>196</v>
@@ -18975,7 +18978,7 @@
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>197</v>
@@ -19011,7 +19014,7 @@
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>198</v>
@@ -19047,7 +19050,7 @@
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>199</v>
@@ -19083,7 +19086,7 @@
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>200</v>
@@ -19131,16 +19134,16 @@
         <v>3</v>
       </c>
       <c r="F64" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H64" s="12">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="I64" s="12">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="18"/>
@@ -19155,7 +19158,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19191,7 +19194,7 @@
     <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>203</v>
@@ -19227,7 +19230,7 @@
     <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>204</v>
@@ -19272,19 +19275,19 @@
         <v>8</v>
       </c>
       <c r="E68" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="12">
-        <v>6</v>
-      </c>
-      <c r="G68" s="12">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="G68" s="16">
+        <v>18</v>
       </c>
       <c r="H68" s="12">
-        <v>2.86</v>
+        <v>3.22</v>
       </c>
       <c r="I68" s="12">
-        <v>2.76</v>
+        <v>3.11</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19299,7 +19302,7 @@
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>205</v>
@@ -19335,7 +19338,7 @@
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>206</v>
@@ -19371,7 +19374,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>207</v>
@@ -19380,19 +19383,19 @@
         <v>0</v>
       </c>
       <c r="E71" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="12">
         <v>0</v>
       </c>
       <c r="G71" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="12">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I71" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="18"/>
@@ -19407,7 +19410,7 @@
     <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>208</v>
@@ -19443,7 +19446,7 @@
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>209</v>
@@ -19479,7 +19482,7 @@
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>210</v>
@@ -19515,7 +19518,7 @@
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>211</v>
@@ -19551,7 +19554,7 @@
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>212</v>
@@ -19587,7 +19590,7 @@
     <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>213</v>
@@ -19623,7 +19626,7 @@
     <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>214</v>
@@ -19659,7 +19662,7 @@
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>215</v>
@@ -19731,7 +19734,7 @@
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>217</v>
@@ -19803,7 +19806,7 @@
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>219</v>
@@ -19839,7 +19842,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
@@ -19875,7 +19878,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -19911,7 +19914,7 @@
     <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>220</v>
@@ -19947,7 +19950,7 @@
     <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>221</v>
@@ -19983,7 +19986,7 @@
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>222</v>
@@ -20019,7 +20022,7 @@
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>223</v>
@@ -20055,7 +20058,7 @@
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>224</v>
@@ -20127,7 +20130,7 @@
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>226</v>
@@ -20163,7 +20166,7 @@
     <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>227</v>
@@ -20199,7 +20202,7 @@
     <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>228</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B46B12-76AC-4FF3-8CC4-74E93C2CEA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841B389-E1B3-4A4A-9B01-AA0D547B000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12778,11 +12778,11 @@
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">INDEX('Medal Count'!D:D,Events!$C6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">INDEX('Medal Count'!E:E,Events!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX('Medal Count'!F:F,Events!$C6)</f>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX('Medal Count'!D:D,Events!$C7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">INDEX('Medal Count'!D:D,Events!$C13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" ref="J13">INDEX('Medal Count'!E:E,Events!$C13)</f>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -13167,11 +13167,11 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13669,11 +13669,11 @@
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX('Medal Count'!F:F,Events!$C26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -13724,15 +13724,15 @@
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13812,15 +13812,15 @@
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">INDEX('Medal Count'!D:D,Events!$C30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">INDEX('Medal Count'!E:E,Events!$C30)</f>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH30">
         <v>1</v>
@@ -14442,19 +14442,19 @@
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">INDEX('Medal Count'!D:D,Events!$C44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">INDEX('Medal Count'!D:D,Events!$C45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" ref="J45">INDEX('Medal Count'!E:E,Events!$C45)</f>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="L45">
         <f t="shared" ref="L45:L48" si="9">(I45*3*2)+(J45*2*2)+(K45*1*2)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
@@ -14649,11 +14649,11 @@
       </c>
       <c r="K49" cm="1">
         <f t="array" ref="K49">INDEX('Medal Count'!F:F,Events!$C49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <f>SUM((I49*3)+(J49*2)+(K49*1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -15194,11 +15194,11 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15522,11 +15522,11 @@
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">INDEX('Medal Count'!F:F,Events!$C70)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <f>SUM((I70*3)+(J70*2)+(K70*1))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="I78" cm="1">
         <f t="array" ref="I78">INDEX('Medal Count'!D:D,Events!$C78)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" cm="1">
         <f t="array" ref="J78">INDEX('Medal Count'!E:E,Events!$C78)</f>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX('Medal Count'!E:E,Events!$C80)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16120,15 +16120,15 @@
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16409,19 +16409,19 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16661,95 +16661,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -16855,10 +16855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AD98"/>
+  <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="O13:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16874,7 +16874,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16916,7 +16916,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>265</v>
       </c>
@@ -16950,16 +16950,17 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="18"/>
+      <c r="S3" s="25"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>265</v>
@@ -16995,7 +16996,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>265</v>
@@ -17031,7 +17032,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>265</v>
@@ -17067,31 +17068,31 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I7" s="12">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="18"/>
@@ -17103,16 +17104,16 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -17121,13 +17122,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="12">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="I8" s="12">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
@@ -17139,7 +17140,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>265</v>
@@ -17175,10 +17176,10 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17211,7 +17212,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>265</v>
@@ -17247,7 +17248,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>265</v>
@@ -17283,7 +17284,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>265</v>
@@ -17319,16 +17320,16 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>265</v>
+      <c r="B14" s="12">
+        <v>15</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -17337,13 +17338,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="18"/>
@@ -17355,10 +17356,10 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>153</v>
@@ -17391,10 +17392,10 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>154</v>
@@ -17406,16 +17407,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="12">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I16" s="12">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -17466,7 +17467,7 @@
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>156</v>
@@ -17646,7 +17647,7 @@
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>161</v>
@@ -17826,7 +17827,7 @@
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>166</v>
@@ -17838,16 +17839,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="12">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I28" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="18"/>
@@ -17862,7 +17863,7 @@
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>167</v>
@@ -17871,19 +17872,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29" s="12">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I29" s="12">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="18"/>
@@ -17934,7 +17935,7 @@
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>169</v>
@@ -17943,19 +17944,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H31" s="12">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I31" s="12">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="18"/>
@@ -17969,14 +17970,14 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
-        <v>265</v>
+      <c r="B32" s="12">
+        <v>15</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>170</v>
       </c>
       <c r="D32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="12">
         <v>0</v>
@@ -17985,13 +17986,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I32" s="12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="18"/>
@@ -18380,7 +18381,7 @@
       <c r="F43" s="15">
         <v>9</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="12">
         <v>18</v>
       </c>
       <c r="H43" s="12">
@@ -18444,22 +18445,22 @@
         <v>182</v>
       </c>
       <c r="D45" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H45" s="12">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I45" s="12">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="18"/>
@@ -18473,14 +18474,14 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>265</v>
+      <c r="B46" s="12">
+        <v>15</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="12">
         <v>0</v>
@@ -18489,13 +18490,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I46" s="12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="18"/>
@@ -18618,7 +18619,7 @@
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>187</v>
@@ -18630,16 +18631,16 @@
         <v>1</v>
       </c>
       <c r="F50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="12">
-        <v>0.53</v>
+        <v>1.07</v>
       </c>
       <c r="I50" s="12">
-        <v>1.26</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="18"/>
@@ -19122,28 +19123,28 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="12">
         <v>1</v>
       </c>
       <c r="G64" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H64" s="12">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="I64" s="12">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="18"/>
@@ -19158,7 +19159,7 @@
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>202</v>
@@ -19272,7 +19273,7 @@
         <v>140</v>
       </c>
       <c r="D68" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" s="12">
         <v>3</v>
@@ -19281,13 +19282,13 @@
         <v>7</v>
       </c>
       <c r="G68" s="16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H68" s="12">
-        <v>3.22</v>
+        <v>3.58</v>
       </c>
       <c r="I68" s="12">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="M68" s="20"/>
       <c r="N68" s="18"/>
@@ -19374,7 +19375,7 @@
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>207</v>
@@ -19386,16 +19387,16 @@
         <v>2</v>
       </c>
       <c r="F71" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="12">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I71" s="12">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="18"/>
@@ -19698,13 +19699,13 @@
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D80" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="12">
         <v>1</v>
@@ -19713,13 +19714,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" s="12">
-        <v>0.94</v>
+        <v>1.41</v>
       </c>
       <c r="I80" s="12">
-        <v>1.68</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M80" s="20"/>
       <c r="N80" s="18"/>
@@ -19770,7 +19771,7 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
@@ -19779,19 +19780,19 @@
         <v>1</v>
       </c>
       <c r="E82" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="12">
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" s="12">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I82" s="12">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="18"/>
@@ -19842,7 +19843,7 @@
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>137</v>
@@ -19851,19 +19852,19 @@
         <v>4</v>
       </c>
       <c r="E84" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" s="12">
         <v>1</v>
       </c>
       <c r="G84" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H84" s="12">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I84" s="12">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="18"/>
@@ -19878,7 +19879,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -19887,19 +19888,19 @@
         <v>4</v>
       </c>
       <c r="E85" s="12">
+        <v>2</v>
+      </c>
+      <c r="F85" s="12">
+        <v>3</v>
+      </c>
+      <c r="G85" s="12">
+        <v>9</v>
+      </c>
+      <c r="H85" s="12">
         <v>1</v>
       </c>
-      <c r="F85" s="12">
-        <v>2</v>
-      </c>
-      <c r="G85" s="12">
-        <v>7</v>
-      </c>
-      <c r="H85" s="12">
-        <v>0.78</v>
-      </c>
       <c r="I85" s="12">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="M85" s="20"/>
       <c r="N85" s="18"/>
@@ -20100,22 +20101,22 @@
         <v>225</v>
       </c>
       <c r="D91" s="12">
+        <v>5</v>
+      </c>
+      <c r="E91" s="14">
+        <v>8</v>
+      </c>
+      <c r="F91" s="12">
         <v>4</v>
       </c>
-      <c r="E91" s="14">
-        <v>7</v>
-      </c>
-      <c r="F91" s="12">
-        <v>3</v>
-      </c>
       <c r="G91" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H91" s="12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I91" s="12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M91" s="20"/>
       <c r="N91" s="18"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841B389-E1B3-4A4A-9B01-AA0D547B000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD0753-223F-4CEC-8B61-24B1F4BCC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -875,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,7 +960,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1044,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1066,26 +1078,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1108,7 +1105,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12224,15 +12239,15 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C30:C31"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.375" customWidth="1"/>
+    <col min="1" max="1" width="56.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -12240,211 +12255,211 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>266</v>
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>259</v>
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>256</v>
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>245</v>
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>251</v>
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>262</v>
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>264</v>
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>244</v>
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>249</v>
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>248</v>
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>258</v>
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>246</v>
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>247</v>
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>254</v>
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>252</v>
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>253</v>
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>255</v>
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>250</v>
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -12469,25 +12484,25 @@
       <selection pane="bottomRight" activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="15.69921875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -12594,7 +12609,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12632,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12670,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -12711,7 +12726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -12749,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -12786,17 +12801,17 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX('Medal Count'!F:F,Events!$C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -12825,11 +12840,11 @@
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">INDEX('Medal Count'!D:D,Events!$C7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">INDEX('Medal Count'!E:E,Events!$C7)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
@@ -12837,7 +12852,7 @@
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -12849,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -12887,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -12940,7 +12955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -12978,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -13016,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -13054,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -13092,7 +13107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -13130,7 +13145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -13159,11 +13174,11 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX('Medal Count'!D:D,Events!$C15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
@@ -13171,7 +13186,7 @@
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13189,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -13227,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -13260,7 +13275,7 @@
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
@@ -13268,7 +13283,7 @@
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13277,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -13315,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -13353,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -13391,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13456,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -13497,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -13535,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -13573,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -13632,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -13669,11 +13684,11 @@
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX('Medal Count'!F:F,Events!$C26)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -13691,7 +13706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -13724,15 +13739,15 @@
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13741,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -13768,7 +13783,7 @@
       </c>
       <c r="J28" cm="1">
         <f t="array" ref="J28">INDEX('Medal Count'!E:E,Events!$C28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" ref="K28">INDEX('Medal Count'!F:F,Events!$C28)</f>
@@ -13776,10 +13791,10 @@
       </c>
       <c r="L28">
         <f>(I28*3*2)+(J28*2*2)+(K28*1*2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -13812,15 +13827,15 @@
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -13835,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -13862,7 +13877,7 @@
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">INDEX('Medal Count'!D:D,Events!$C30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">INDEX('Medal Count'!E:E,Events!$C30)</f>
@@ -13874,13 +13889,13 @@
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -13918,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -13956,7 +13971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -13994,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -14032,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -14079,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -14117,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -14155,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -14199,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -14237,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -14275,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -14313,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -14342,19 +14357,19 @@
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">INDEX('Medal Count'!D:D,Events!$C42)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14372,7 +14387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -14413,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -14442,25 +14457,25 @@
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">INDEX('Medal Count'!D:D,Events!$C44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AI44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -14498,7 +14513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -14536,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -14574,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -14612,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -14668,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -14706,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -14744,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -14785,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -14823,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -14861,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -14899,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -14937,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -14975,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -15013,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -15051,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -15089,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -15127,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -15165,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -15194,11 +15209,11 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
@@ -15206,7 +15221,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15227,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -15274,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -15312,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -15350,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -15379,19 +15394,19 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15409,7 +15424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -15447,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -15485,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -15518,7 +15533,7 @@
       </c>
       <c r="J70" cm="1">
         <f t="array" ref="J70">INDEX('Medal Count'!E:E,Events!$C70)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" cm="1">
         <f t="array" ref="K70">INDEX('Medal Count'!F:F,Events!$C70)</f>
@@ -15526,7 +15541,7 @@
       </c>
       <c r="L70">
         <f>SUM((I70*3)+(J70*2)+(K70*1))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -15547,7 +15562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -15585,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -15626,7 +15641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -15664,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -15702,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -15740,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -15778,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -15871,11 +15886,11 @@
       </c>
       <c r="K78" cm="1">
         <f t="array" ref="K78">INDEX('Medal Count'!F:F,Events!$C78)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -15884,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -15922,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -15959,11 +15974,11 @@
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -15981,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -16028,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -16057,11 +16072,11 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
@@ -16069,7 +16084,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16087,7 +16102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -16116,7 +16131,7 @@
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">INDEX('Medal Count'!D:D,Events!$C83)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
@@ -16128,7 +16143,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16137,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -16175,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -16213,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -16251,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -16289,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -16342,7 +16357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -16380,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -16409,7 +16424,7 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
@@ -16417,11 +16432,11 @@
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16436,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -16474,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -16512,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -16550,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -16651,7 +16666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -16661,95 +16676,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -16855,26 +16870,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AE98"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="O13:R14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16900,3435 +16915,3436 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-    </row>
-    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12">
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="21">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="21">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24">
+        <v>8</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>16</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2.39</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21">
+        <v>26</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="21">
+        <v>17</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>2</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="F16" s="21">
+        <v>5</v>
+      </c>
+      <c r="G16" s="21">
+        <v>11</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3</v>
+      </c>
+      <c r="F18" s="21">
+        <v>2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>5</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21">
+        <v>14</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="21">
+        <v>2</v>
+      </c>
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>4</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="21">
+        <v>24</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>4</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="I28" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="21">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="21">
+        <v>4</v>
+      </c>
+      <c r="E29" s="21">
+        <v>7</v>
+      </c>
+      <c r="F29" s="21">
+        <v>4</v>
+      </c>
+      <c r="G29" s="21">
+        <v>15</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="21">
+        <v>23</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="21">
+        <v>4</v>
+      </c>
+      <c r="E31" s="21">
+        <v>7</v>
+      </c>
+      <c r="F31" s="21">
+        <v>6</v>
+      </c>
+      <c r="G31" s="21">
+        <v>17</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="21">
+        <v>12</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="21">
+        <v>3</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <v>3</v>
+      </c>
+      <c r="H32" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I32" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+    </row>
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+    </row>
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+    </row>
+    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+    </row>
+    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+    </row>
+    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+    </row>
+    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+    </row>
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="21">
+        <v>2</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="21">
+        <v>8</v>
+      </c>
+      <c r="E43" s="21">
+        <v>4</v>
+      </c>
+      <c r="F43" s="25">
+        <v>11</v>
+      </c>
+      <c r="G43" s="21">
+        <v>23</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+    </row>
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+    </row>
+    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="21">
+        <v>10</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="21">
+        <v>4</v>
+      </c>
+      <c r="E45" s="21">
+        <v>5</v>
+      </c>
+      <c r="F45" s="21">
+        <v>9</v>
+      </c>
+      <c r="G45" s="21">
+        <v>18</v>
+      </c>
+      <c r="H45" s="21">
         <v>0.15</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I45" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+    </row>
+    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="21">
+        <v>17</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="21">
+        <v>1</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21">
+        <v>0</v>
+      </c>
+      <c r="G46" s="21">
+        <v>1</v>
+      </c>
+      <c r="H46" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21">
+        <v>0</v>
+      </c>
+      <c r="H47" s="21">
+        <v>0</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+    </row>
+    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21">
+        <v>0</v>
+      </c>
+      <c r="H48" s="21">
+        <v>0</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+    </row>
+    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21">
+        <v>0</v>
+      </c>
+      <c r="I49" s="21">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+    </row>
+    <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="21">
+        <v>21</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
+      <c r="F50" s="21">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21">
+        <v>2</v>
+      </c>
+      <c r="H50" s="21">
+        <v>1.07</v>
+      </c>
+      <c r="I50" s="21">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+    </row>
+    <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0</v>
+      </c>
+      <c r="F51" s="21">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21">
+        <v>0</v>
+      </c>
+      <c r="H51" s="21">
+        <v>0</v>
+      </c>
+      <c r="I51" s="21">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+    </row>
+    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0</v>
+      </c>
+      <c r="F52" s="21">
+        <v>0</v>
+      </c>
+      <c r="G52" s="21">
+        <v>0</v>
+      </c>
+      <c r="H52" s="21">
+        <v>0</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+    </row>
+    <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0</v>
+      </c>
+      <c r="F53" s="21">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21">
+        <v>0</v>
+      </c>
+      <c r="H53" s="21">
+        <v>0</v>
+      </c>
+      <c r="I53" s="21">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+    </row>
+    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21">
+        <v>0</v>
+      </c>
+      <c r="H54" s="21">
+        <v>0</v>
+      </c>
+      <c r="I54" s="21">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+    </row>
+    <row r="55" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23"/>
+      <c r="B55" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
+        <v>0</v>
+      </c>
+      <c r="H55" s="21">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+    </row>
+    <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
+      <c r="F56" s="21">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21">
+        <v>0</v>
+      </c>
+      <c r="H56" s="21">
+        <v>0</v>
+      </c>
+      <c r="I56" s="21">
+        <v>0</v>
+      </c>
+      <c r="M56" s="15"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+    </row>
+    <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0</v>
+      </c>
+      <c r="H57" s="21">
+        <v>0</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+    </row>
+    <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23"/>
+      <c r="B58" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0</v>
+      </c>
+      <c r="H58" s="21">
+        <v>0</v>
+      </c>
+      <c r="I58" s="21">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+    </row>
+    <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0</v>
+      </c>
+      <c r="G59" s="21">
+        <v>0</v>
+      </c>
+      <c r="H59" s="21">
+        <v>0</v>
+      </c>
+      <c r="I59" s="21">
+        <v>0</v>
+      </c>
+      <c r="M59" s="15"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+    </row>
+    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
+        <v>0</v>
+      </c>
+      <c r="H60" s="21">
+        <v>0</v>
+      </c>
+      <c r="I60" s="21">
+        <v>0</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+    </row>
+    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0</v>
+      </c>
+      <c r="H61" s="21">
+        <v>0</v>
+      </c>
+      <c r="I61" s="21">
+        <v>0</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+    </row>
+    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0</v>
+      </c>
+      <c r="H62" s="21">
+        <v>0</v>
+      </c>
+      <c r="I62" s="21">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+    </row>
+    <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0</v>
+      </c>
+      <c r="H63" s="21">
+        <v>0</v>
+      </c>
+      <c r="I63" s="21">
+        <v>0</v>
+      </c>
+      <c r="M63" s="15"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+    </row>
+    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="21">
+        <v>4</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="21">
+        <v>6</v>
+      </c>
+      <c r="E64" s="21">
+        <v>5</v>
+      </c>
+      <c r="F64" s="21">
+        <v>1</v>
+      </c>
+      <c r="G64" s="21">
+        <v>12</v>
+      </c>
+      <c r="H64" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="I64" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="M64" s="15"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+    </row>
+    <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="21">
+        <v>21</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="21">
+        <v>0</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1</v>
+      </c>
+      <c r="F65" s="21">
+        <v>1</v>
+      </c>
+      <c r="G65" s="21">
+        <v>2</v>
+      </c>
+      <c r="H65" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="I65" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="M65" s="15"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+    </row>
+    <row r="66" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="21">
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
+        <v>0</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <v>0</v>
+      </c>
+      <c r="H66" s="21">
+        <v>0</v>
+      </c>
+      <c r="I66" s="21">
+        <v>0</v>
+      </c>
+      <c r="M66" s="15"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+    </row>
+    <row r="67" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="21">
+        <v>0</v>
+      </c>
+      <c r="E67" s="21">
+        <v>0</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0</v>
+      </c>
+      <c r="H67" s="21">
+        <v>0</v>
+      </c>
+      <c r="I67" s="21">
+        <v>0</v>
+      </c>
+      <c r="M67" s="15"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+    </row>
+    <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="21">
+        <v>1</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="26">
+        <v>13</v>
+      </c>
+      <c r="E68" s="21">
+        <v>7</v>
+      </c>
+      <c r="F68" s="21">
+        <v>9</v>
+      </c>
+      <c r="G68" s="27">
+        <v>29</v>
+      </c>
+      <c r="H68" s="21">
+        <v>5.19</v>
+      </c>
+      <c r="I68" s="21">
+        <v>5.01</v>
+      </c>
+      <c r="M68" s="15"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+    </row>
+    <row r="69" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="21">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21">
+        <v>0</v>
+      </c>
+      <c r="I69" s="21">
+        <v>0</v>
+      </c>
+      <c r="M69" s="15"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+    </row>
+    <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="21">
+        <v>0</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0</v>
+      </c>
+      <c r="G70" s="21">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21">
+        <v>0</v>
+      </c>
+      <c r="I70" s="21">
+        <v>0</v>
+      </c>
+      <c r="M70" s="15"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+    </row>
+    <row r="71" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23"/>
+      <c r="B71" s="21">
+        <v>20</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" s="21">
+        <v>0</v>
+      </c>
+      <c r="E71" s="21">
+        <v>3</v>
+      </c>
+      <c r="F71" s="21">
+        <v>1</v>
+      </c>
+      <c r="G71" s="21">
+        <v>4</v>
+      </c>
+      <c r="H71" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="I71" s="21">
         <v>0.21</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
+      <c r="M71" s="15"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+    </row>
+    <row r="72" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="21">
+        <v>0</v>
+      </c>
+      <c r="E72" s="21">
+        <v>0</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0</v>
+      </c>
+      <c r="G72" s="21">
+        <v>0</v>
+      </c>
+      <c r="H72" s="21">
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <v>0</v>
+      </c>
+      <c r="M72" s="15"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+    </row>
+    <row r="73" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23"/>
+      <c r="B73" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="21">
+        <v>0</v>
+      </c>
+      <c r="E73" s="21">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0</v>
+      </c>
+      <c r="H73" s="21">
+        <v>0</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+    </row>
+    <row r="74" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23"/>
+      <c r="B74" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="21">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
+        <v>0</v>
+      </c>
+      <c r="F74" s="21">
+        <v>0</v>
+      </c>
+      <c r="G74" s="21">
+        <v>0</v>
+      </c>
+      <c r="H74" s="21">
+        <v>0</v>
+      </c>
+      <c r="I74" s="21">
+        <v>0</v>
+      </c>
+      <c r="M74" s="15"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+    </row>
+    <row r="75" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="21">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21">
+        <v>0</v>
+      </c>
+      <c r="F75" s="21">
+        <v>0</v>
+      </c>
+      <c r="G75" s="21">
+        <v>0</v>
+      </c>
+      <c r="H75" s="21">
+        <v>0</v>
+      </c>
+      <c r="I75" s="21">
+        <v>0</v>
+      </c>
+      <c r="M75" s="15"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+    </row>
+    <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
+      <c r="B76" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="21">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
+        <v>0</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0</v>
+      </c>
+      <c r="G76" s="21">
+        <v>0</v>
+      </c>
+      <c r="H76" s="21">
+        <v>0</v>
+      </c>
+      <c r="I76" s="21">
+        <v>0</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+    </row>
+    <row r="77" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
+      <c r="B77" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0</v>
+      </c>
+      <c r="H77" s="21">
+        <v>0</v>
+      </c>
+      <c r="I77" s="21">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+    </row>
+    <row r="78" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
+      <c r="B78" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="21">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="21">
+        <v>0</v>
+      </c>
+      <c r="H78" s="21">
+        <v>0</v>
+      </c>
+      <c r="I78" s="21">
+        <v>0</v>
+      </c>
+      <c r="M78" s="15"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+    </row>
+    <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
+      <c r="B79" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0</v>
+      </c>
+      <c r="H79" s="21">
+        <v>0</v>
+      </c>
+      <c r="I79" s="21">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+    </row>
+    <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="21">
+        <v>15</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="21">
+        <v>2</v>
+      </c>
+      <c r="E80" s="21">
+        <v>1</v>
+      </c>
+      <c r="F80" s="21">
+        <v>1</v>
+      </c>
+      <c r="G80" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="H80" s="21">
+        <v>1.88</v>
+      </c>
+      <c r="I80" s="21">
+        <v>3.37</v>
+      </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+    </row>
+    <row r="81" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21">
+        <v>0</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="21">
+        <v>0</v>
+      </c>
+      <c r="H81" s="21">
+        <v>0</v>
+      </c>
+      <c r="I81" s="21">
+        <v>0</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+    </row>
+    <row r="82" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="21">
+        <v>16</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1</v>
+      </c>
+      <c r="E82" s="21">
+        <v>2</v>
+      </c>
+      <c r="F82" s="21">
+        <v>3</v>
+      </c>
+      <c r="G82" s="21">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H82" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="I82" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="M82" s="15"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+    </row>
+    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
+      <c r="B83" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="21">
+        <v>0</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0</v>
+      </c>
+      <c r="G83" s="21">
+        <v>0</v>
+      </c>
+      <c r="H83" s="21">
+        <v>0</v>
+      </c>
+      <c r="I83" s="21">
+        <v>0</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+    </row>
+    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="23"/>
+      <c r="B84" s="21">
+        <v>6</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="21">
+        <v>5</v>
+      </c>
+      <c r="E84" s="21">
+        <v>5</v>
+      </c>
+      <c r="F84" s="21">
+        <v>1</v>
+      </c>
+      <c r="G84" s="21">
+        <v>11</v>
+      </c>
+      <c r="H84" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="I84" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+    </row>
+    <row r="85" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="21">
+        <v>7</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="21">
+        <v>5</v>
+      </c>
+      <c r="E85" s="21">
+        <v>2</v>
+      </c>
+      <c r="F85" s="21">
         <v>3</v>
       </c>
-      <c r="G8" s="12">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.42</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1.94</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="G85" s="21">
+        <v>10</v>
+      </c>
+      <c r="H85" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I85" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="M85" s="15"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+    </row>
+    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
+      <c r="B86" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12">
-        <v>25</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="C86" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="21">
+        <v>0</v>
+      </c>
+      <c r="E86" s="21">
+        <v>0</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0</v>
+      </c>
+      <c r="G86" s="21">
+        <v>0</v>
+      </c>
+      <c r="H86" s="21">
+        <v>0</v>
+      </c>
+      <c r="I86" s="21">
+        <v>0</v>
+      </c>
+      <c r="M86" s="15"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+    </row>
+    <row r="87" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="C87" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0</v>
+      </c>
+      <c r="E87" s="21">
+        <v>0</v>
+      </c>
+      <c r="F87" s="21">
+        <v>0</v>
+      </c>
+      <c r="G87" s="21">
+        <v>0</v>
+      </c>
+      <c r="H87" s="21">
+        <v>0</v>
+      </c>
+      <c r="I87" s="21">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+    </row>
+    <row r="88" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
+      <c r="B88" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="C88" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21">
+        <v>0</v>
+      </c>
+      <c r="F88" s="21">
+        <v>0</v>
+      </c>
+      <c r="G88" s="21">
+        <v>0</v>
+      </c>
+      <c r="H88" s="21">
+        <v>0</v>
+      </c>
+      <c r="I88" s="21">
+        <v>0</v>
+      </c>
+      <c r="M88" s="15"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+    </row>
+    <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12">
-        <v>23</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12">
-        <v>18</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C89" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21">
+        <v>0</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0</v>
+      </c>
+      <c r="G89" s="21">
+        <v>0</v>
+      </c>
+      <c r="H89" s="21">
+        <v>0</v>
+      </c>
+      <c r="I89" s="21">
+        <v>0</v>
+      </c>
+      <c r="M89" s="15"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+    </row>
+    <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23"/>
+      <c r="B90" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="21">
+        <v>0</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0</v>
+      </c>
+      <c r="H90" s="21">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21">
+        <v>0</v>
+      </c>
+      <c r="M90" s="15"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+    </row>
+    <row r="91" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+      <c r="B91" s="21">
         <v>3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="C91" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="21">
+        <v>6</v>
+      </c>
+      <c r="E91" s="24">
+        <v>8</v>
+      </c>
+      <c r="F91" s="21">
         <v>5</v>
       </c>
-      <c r="G16" s="12">
-        <v>8</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="G91" s="21">
+        <v>19</v>
+      </c>
+      <c r="H91" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="I91" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="M91" s="15"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+    </row>
+    <row r="92" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12">
-        <v>19</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12">
-        <v>4</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="C92" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="21">
+        <v>0</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0</v>
+      </c>
+      <c r="G92" s="21">
+        <v>0</v>
+      </c>
+      <c r="H92" s="21">
+        <v>0</v>
+      </c>
+      <c r="I92" s="21">
+        <v>0</v>
+      </c>
+      <c r="M92" s="15"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+    </row>
+    <row r="93" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23"/>
+      <c r="B93" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="C93" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="21">
+        <v>0</v>
+      </c>
+      <c r="F93" s="21">
+        <v>0</v>
+      </c>
+      <c r="G93" s="21">
+        <v>0</v>
+      </c>
+      <c r="H93" s="21">
+        <v>0</v>
+      </c>
+      <c r="I93" s="21">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+    </row>
+    <row r="94" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="23"/>
+      <c r="B94" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12">
-        <v>12</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12">
-        <v>23</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>2</v>
-      </c>
-      <c r="G28" s="12">
-        <v>2</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="12">
-        <v>4</v>
-      </c>
-      <c r="E29" s="12">
-        <v>6</v>
-      </c>
-      <c r="F29" s="12">
-        <v>2</v>
-      </c>
-      <c r="G29" s="12">
-        <v>12</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12">
-        <v>6</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="12">
-        <v>4</v>
-      </c>
-      <c r="E31" s="12">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12">
-        <v>4</v>
-      </c>
-      <c r="G31" s="12">
-        <v>13</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12">
-        <v>15</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="F39" s="12">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-      <c r="M40" s="20"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12">
-        <v>2</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="12">
-        <v>6</v>
-      </c>
-      <c r="E43" s="12">
-        <v>3</v>
-      </c>
-      <c r="F43" s="15">
-        <v>9</v>
-      </c>
-      <c r="G43" s="12">
-        <v>18</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0</v>
-      </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12">
-        <v>10</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="12">
-        <v>3</v>
-      </c>
-      <c r="E45" s="12">
-        <v>4</v>
-      </c>
-      <c r="F45" s="12">
-        <v>8</v>
-      </c>
-      <c r="G45" s="12">
-        <v>15</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12">
-        <v>15</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="M46" s="20"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0</v>
-      </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12">
-        <v>21</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2</v>
-      </c>
-      <c r="H50" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="I50" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12">
-        <v>0</v>
-      </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
-      </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12">
-        <v>0</v>
-      </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-      <c r="E54" s="12">
-        <v>0</v>
-      </c>
-      <c r="F54" s="12">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="I54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="20"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="12">
-        <v>0</v>
-      </c>
-      <c r="E55" s="12">
-        <v>0</v>
-      </c>
-      <c r="F55" s="12">
-        <v>0</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-      <c r="H55" s="12">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0</v>
-      </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0</v>
-      </c>
-      <c r="E56" s="12">
-        <v>0</v>
-      </c>
-      <c r="F56" s="12">
-        <v>0</v>
-      </c>
-      <c r="G56" s="12">
-        <v>0</v>
-      </c>
-      <c r="H56" s="12">
-        <v>0</v>
-      </c>
-      <c r="I56" s="12">
-        <v>0</v>
-      </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12">
-        <v>0</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
-        <v>0</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="20"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12">
-        <v>0</v>
-      </c>
-      <c r="F58" s="12">
-        <v>0</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0</v>
-      </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12">
-        <v>0</v>
-      </c>
-      <c r="F59" s="12">
-        <v>0</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0</v>
-      </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12">
-        <v>0</v>
-      </c>
-      <c r="F60" s="12">
-        <v>0</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0</v>
-      </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12">
-        <v>0</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12">
-        <v>0</v>
-      </c>
-      <c r="F62" s="12">
-        <v>0</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12">
-        <v>0</v>
-      </c>
-      <c r="I62" s="12">
-        <v>0</v>
-      </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0</v>
-      </c>
-      <c r="E63" s="12">
-        <v>0</v>
-      </c>
-      <c r="F63" s="12">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0</v>
-      </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12">
-        <v>7</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="12">
-        <v>4</v>
-      </c>
-      <c r="E64" s="12">
-        <v>4</v>
-      </c>
-      <c r="F64" s="12">
-        <v>1</v>
-      </c>
-      <c r="G64" s="12">
-        <v>9</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12">
-        <v>21</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="12">
-        <v>0</v>
-      </c>
-      <c r="E65" s="12">
-        <v>1</v>
-      </c>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12">
-        <v>2</v>
-      </c>
-      <c r="H65" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="M65" s="20"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="12">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
-      <c r="M66" s="20"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0</v>
-      </c>
-      <c r="F67" s="12">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-      <c r="H67" s="12">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12">
-        <v>0</v>
-      </c>
-      <c r="M67" s="20"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12">
-        <v>1</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="17">
-        <v>10</v>
-      </c>
-      <c r="E68" s="12">
-        <v>3</v>
-      </c>
-      <c r="F68" s="12">
-        <v>7</v>
-      </c>
-      <c r="G68" s="16">
-        <v>20</v>
-      </c>
-      <c r="H68" s="12">
-        <v>3.58</v>
-      </c>
-      <c r="I68" s="12">
-        <v>3.45</v>
-      </c>
-      <c r="M68" s="20"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="12">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12">
-        <v>0</v>
-      </c>
-      <c r="F69" s="12">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-      <c r="H69" s="12">
-        <v>0</v>
-      </c>
-      <c r="I69" s="12">
-        <v>0</v>
-      </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0</v>
-      </c>
-      <c r="F70" s="12">
-        <v>0</v>
-      </c>
-      <c r="G70" s="12">
-        <v>0</v>
-      </c>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="I70" s="12">
-        <v>0</v>
-      </c>
-      <c r="M70" s="20"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12">
-        <v>20</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0</v>
-      </c>
-      <c r="E71" s="12">
-        <v>2</v>
-      </c>
-      <c r="F71" s="12">
-        <v>1</v>
-      </c>
-      <c r="G71" s="12">
-        <v>3</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I71" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0</v>
-      </c>
-      <c r="E72" s="12">
-        <v>0</v>
-      </c>
-      <c r="F72" s="12">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="I72" s="12">
-        <v>0</v>
-      </c>
-      <c r="M72" s="20"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="12">
-        <v>0</v>
-      </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="12">
-        <v>0</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="12">
-        <v>0</v>
-      </c>
-      <c r="E74" s="12">
-        <v>0</v>
-      </c>
-      <c r="F74" s="12">
-        <v>0</v>
-      </c>
-      <c r="G74" s="12">
-        <v>0</v>
-      </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0</v>
-      </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0</v>
-      </c>
-      <c r="E75" s="12">
-        <v>0</v>
-      </c>
-      <c r="F75" s="12">
-        <v>0</v>
-      </c>
-      <c r="G75" s="12">
-        <v>0</v>
-      </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <v>0</v>
-      </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="12">
-        <v>0</v>
-      </c>
-      <c r="E76" s="12">
-        <v>0</v>
-      </c>
-      <c r="F76" s="12">
-        <v>0</v>
-      </c>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>0</v>
-      </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="12">
-        <v>0</v>
-      </c>
-      <c r="E77" s="12">
-        <v>0</v>
-      </c>
-      <c r="F77" s="12">
-        <v>0</v>
-      </c>
-      <c r="G77" s="12">
-        <v>0</v>
-      </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
-      <c r="I77" s="12">
-        <v>0</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="12">
-        <v>0</v>
-      </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="12">
-        <v>0</v>
-      </c>
-      <c r="G78" s="12">
-        <v>0</v>
-      </c>
-      <c r="H78" s="12">
-        <v>0</v>
-      </c>
-      <c r="I78" s="12">
-        <v>0</v>
-      </c>
-      <c r="M78" s="20"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" s="12">
-        <v>0</v>
-      </c>
-      <c r="F79" s="12">
-        <v>0</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0</v>
-      </c>
-      <c r="H79" s="12">
-        <v>0</v>
-      </c>
-      <c r="I79" s="12">
-        <v>0</v>
-      </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12">
-        <v>13</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="12">
-        <v>2</v>
-      </c>
-      <c r="E80" s="12">
-        <v>1</v>
-      </c>
-      <c r="F80" s="12">
-        <v>0</v>
-      </c>
-      <c r="G80" s="12">
-        <v>3</v>
-      </c>
-      <c r="H80" s="12">
-        <v>1.41</v>
-      </c>
-      <c r="I80" s="12">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="M80" s="20"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D81" s="12">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12">
-        <v>0</v>
-      </c>
-      <c r="F81" s="12">
-        <v>0</v>
-      </c>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-      <c r="H81" s="12">
-        <v>0</v>
-      </c>
-      <c r="I81" s="12">
-        <v>0</v>
-      </c>
-      <c r="M81" s="20"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-    </row>
-    <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12">
-        <v>14</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D82" s="12">
-        <v>1</v>
-      </c>
-      <c r="E82" s="12">
-        <v>2</v>
-      </c>
-      <c r="F82" s="12">
-        <v>2</v>
-      </c>
-      <c r="G82" s="12">
-        <v>5</v>
-      </c>
-      <c r="H82" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I82" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="M82" s="20"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="12">
-        <v>0</v>
-      </c>
-      <c r="E83" s="12">
-        <v>0</v>
-      </c>
-      <c r="F83" s="12">
-        <v>0</v>
-      </c>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="I83" s="12">
-        <v>0</v>
-      </c>
-      <c r="M83" s="20"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12">
-        <v>7</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="12">
-        <v>4</v>
-      </c>
-      <c r="E84" s="12">
-        <v>4</v>
-      </c>
-      <c r="F84" s="12">
-        <v>1</v>
-      </c>
-      <c r="G84" s="12">
-        <v>9</v>
-      </c>
-      <c r="H84" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="I84" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="M84" s="20"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12">
-        <v>9</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="12">
-        <v>4</v>
-      </c>
-      <c r="E85" s="12">
-        <v>2</v>
-      </c>
-      <c r="F85" s="12">
-        <v>3</v>
-      </c>
-      <c r="G85" s="12">
-        <v>9</v>
-      </c>
-      <c r="H85" s="12">
-        <v>1</v>
-      </c>
-      <c r="I85" s="12">
-        <v>1.06</v>
-      </c>
-      <c r="M85" s="20"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D86" s="12">
-        <v>0</v>
-      </c>
-      <c r="E86" s="12">
-        <v>0</v>
-      </c>
-      <c r="F86" s="12">
-        <v>0</v>
-      </c>
-      <c r="G86" s="12">
-        <v>0</v>
-      </c>
-      <c r="H86" s="12">
-        <v>0</v>
-      </c>
-      <c r="I86" s="12">
-        <v>0</v>
-      </c>
-      <c r="M86" s="20"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="12">
-        <v>0</v>
-      </c>
-      <c r="E87" s="12">
-        <v>0</v>
-      </c>
-      <c r="F87" s="12">
-        <v>0</v>
-      </c>
-      <c r="G87" s="12">
-        <v>0</v>
-      </c>
-      <c r="H87" s="12">
-        <v>0</v>
-      </c>
-      <c r="I87" s="12">
-        <v>0</v>
-      </c>
-      <c r="M87" s="20"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D88" s="12">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12">
-        <v>0</v>
-      </c>
-      <c r="F88" s="12">
-        <v>0</v>
-      </c>
-      <c r="G88" s="12">
-        <v>0</v>
-      </c>
-      <c r="H88" s="12">
-        <v>0</v>
-      </c>
-      <c r="I88" s="12">
-        <v>0</v>
-      </c>
-      <c r="M88" s="20"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D89" s="12">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12">
-        <v>0</v>
-      </c>
-      <c r="F89" s="12">
-        <v>0</v>
-      </c>
-      <c r="G89" s="12">
-        <v>0</v>
-      </c>
-      <c r="H89" s="12">
-        <v>0</v>
-      </c>
-      <c r="I89" s="12">
-        <v>0</v>
-      </c>
-      <c r="M89" s="20"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D90" s="12">
-        <v>0</v>
-      </c>
-      <c r="E90" s="12">
-        <v>0</v>
-      </c>
-      <c r="F90" s="12">
-        <v>0</v>
-      </c>
-      <c r="G90" s="12">
-        <v>0</v>
-      </c>
-      <c r="H90" s="12">
-        <v>0</v>
-      </c>
-      <c r="I90" s="12">
-        <v>0</v>
-      </c>
-      <c r="M90" s="20"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12">
-        <v>3</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="12">
-        <v>5</v>
-      </c>
-      <c r="E91" s="14">
-        <v>8</v>
-      </c>
-      <c r="F91" s="12">
-        <v>4</v>
-      </c>
-      <c r="G91" s="12">
-        <v>17</v>
-      </c>
-      <c r="H91" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="I91" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" s="12">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12">
-        <v>0</v>
-      </c>
-      <c r="F92" s="12">
-        <v>0</v>
-      </c>
-      <c r="G92" s="12">
-        <v>0</v>
-      </c>
-      <c r="H92" s="12">
-        <v>0</v>
-      </c>
-      <c r="I92" s="12">
-        <v>0</v>
-      </c>
-      <c r="M92" s="20"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" s="12">
-        <v>0</v>
-      </c>
-      <c r="E93" s="12">
-        <v>0</v>
-      </c>
-      <c r="F93" s="12">
-        <v>0</v>
-      </c>
-      <c r="G93" s="12">
-        <v>0</v>
-      </c>
-      <c r="H93" s="12">
-        <v>0</v>
-      </c>
-      <c r="I93" s="12">
-        <v>0</v>
-      </c>
-      <c r="M93" s="20"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-    </row>
-    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="12">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12">
-        <v>0</v>
-      </c>
-      <c r="F94" s="12">
-        <v>0</v>
-      </c>
-      <c r="G94" s="12">
-        <v>0</v>
-      </c>
-      <c r="H94" s="12">
-        <v>0</v>
-      </c>
-      <c r="I94" s="12">
-        <v>0</v>
-      </c>
-      <c r="M94" s="20"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-    </row>
-    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
-    </row>
-    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-    </row>
-    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-    </row>
-    <row r="98" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23" t="s">
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="21">
+        <v>0</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21">
+        <v>0</v>
+      </c>
+      <c r="H94" s="21">
+        <v>0</v>
+      </c>
+      <c r="I94" s="21">
+        <v>0</v>
+      </c>
+      <c r="M94" s="15"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+    </row>
+    <row r="95" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+    </row>
+    <row r="96" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+    </row>
+    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+    </row>
+    <row r="98" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="22">
-        <v>0</v>
-      </c>
-      <c r="E98" s="22">
-        <v>0</v>
-      </c>
-      <c r="F98" s="22">
-        <v>0</v>
-      </c>
-      <c r="G98" s="22">
-        <v>0</v>
-      </c>
-      <c r="H98" s="22">
-        <v>0</v>
-      </c>
-      <c r="I98" s="22">
-        <v>0</v>
-      </c>
-      <c r="M98" s="20"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
+      <c r="D98" s="17">
+        <v>0</v>
+      </c>
+      <c r="E98" s="17">
+        <v>0</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17">
+        <v>0</v>
+      </c>
+      <c r="M98" s="15"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20344,14 +20360,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -20359,7 +20375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -20367,7 +20383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -20375,7 +20391,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -20383,7 +20399,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -20391,7 +20407,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -20399,12 +20415,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -20412,7 +20428,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -20420,7 +20436,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -20428,7 +20444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -20436,7 +20452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -20444,12 +20460,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -20457,7 +20473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -20465,7 +20481,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -20473,7 +20489,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -20481,7 +20497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -20489,7 +20505,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -20497,7 +20513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -20505,7 +20521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -20513,7 +20529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -20521,7 +20537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD0753-223F-4CEC-8B61-24B1F4BCC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76507F-F168-432D-96F1-424ADD942C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -1110,9 +1110,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,6 +1121,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12238,7 +12238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">INDEX('Medal Count'!E:E,Events!$C6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX('Medal Count'!F:F,Events!$C6)</f>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -12848,11 +12848,11 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX('Medal Count'!D:D,Events!$C15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">INDEX('Medal Count'!D:D,Events!$C17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
@@ -13279,11 +13279,11 @@
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13823,19 +13823,19 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">INDEX('Medal Count'!D:D,Events!$C42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
@@ -14365,11 +14365,11 @@
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14461,15 +14461,15 @@
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15394,11 +15394,11 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
@@ -16080,11 +16080,11 @@
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16424,19 +16424,19 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16676,95 +16676,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -16870,9 +16870,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AG98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16889,7 +16889,7 @@
     <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16931,11 +16931,11 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="21">
@@ -16967,21 +16967,22 @@
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="13"/>
+      <c r="U3" s="20"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="14"/>
       <c r="AB3" s="13"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
-    </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="AG3" s="13"/>
+    </row>
+    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
       <c r="B4" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="21">
@@ -17012,12 +17013,12 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
       <c r="B5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="21">
@@ -17048,12 +17049,12 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
       <c r="B6" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="21">
@@ -17084,31 +17085,31 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
       <c r="B7" s="21">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="21">
         <v>3</v>
       </c>
       <c r="E7" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="21">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I7" s="21">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="13"/>
@@ -17120,31 +17121,31 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
       <c r="B8" s="21">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="21">
         <v>5</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>8</v>
       </c>
       <c r="F8" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="21">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="I8" s="21">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13"/>
@@ -17156,12 +17157,12 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="21">
@@ -17192,12 +17193,12 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
       <c r="B10" s="21">
         <v>26</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="21">
@@ -17228,12 +17229,12 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
       <c r="B11" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="21">
@@ -17264,12 +17265,12 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
       <c r="B12" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="21">
@@ -17300,12 +17301,12 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
       <c r="B13" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="21">
@@ -17336,12 +17337,12 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
       <c r="B14" s="21">
-        <v>17</v>
-      </c>
-      <c r="C14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="21">
@@ -17372,12 +17373,12 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
       <c r="B15" s="21">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="27" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="21">
@@ -17408,16 +17409,16 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
       <c r="B16" s="21">
-        <v>13</v>
-      </c>
-      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="21">
         <v>4</v>
@@ -17426,13 +17427,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="21">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I16" s="21">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13"/>
@@ -17445,11 +17446,11 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="21">
@@ -17481,30 +17482,30 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="21">
-        <v>19</v>
-      </c>
-      <c r="C18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="21">
         <v>3</v>
       </c>
       <c r="F18" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H18" s="21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="21">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="13"/>
@@ -17517,11 +17518,11 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
       <c r="D19" s="21">
@@ -17553,11 +17554,11 @@
       <c r="U19" s="13"/>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="27" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="21">
@@ -17589,11 +17590,11 @@
       <c r="U20" s="13"/>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="27" t="s">
         <v>159</v>
       </c>
       <c r="D21" s="21">
@@ -17625,11 +17626,11 @@
       <c r="U21" s="13"/>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="27" t="s">
         <v>160</v>
       </c>
       <c r="D22" s="21">
@@ -17661,11 +17662,11 @@
       <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="21">
-        <v>14</v>
-      </c>
-      <c r="C23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>161</v>
       </c>
       <c r="D23" s="21">
@@ -17697,11 +17698,11 @@
       <c r="U23" s="13"/>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="27" t="s">
         <v>162</v>
       </c>
       <c r="D24" s="21">
@@ -17733,11 +17734,11 @@
       <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="27" t="s">
         <v>163</v>
       </c>
       <c r="D25" s="21">
@@ -17769,11 +17770,11 @@
       <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="27" t="s">
         <v>164</v>
       </c>
       <c r="D26" s="21">
@@ -17805,11 +17806,11 @@
       <c r="U26" s="13"/>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="27" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="21">
@@ -17841,11 +17842,11 @@
       <c r="U27" s="13"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="21">
         <v>24</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="27" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="21">
@@ -17877,15 +17878,15 @@
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="21">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="21">
         <v>7</v>
@@ -17894,13 +17895,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="21">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I29" s="21">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13"/>
@@ -17913,11 +17914,11 @@
       <c r="U29" s="13"/>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="21">
         <v>23</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="27" t="s">
         <v>168</v>
       </c>
       <c r="D30" s="21">
@@ -17949,30 +17950,30 @@
       <c r="U30" s="13"/>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="21">
+        <v>6</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="21">
+        <v>5</v>
+      </c>
+      <c r="E31" s="21">
         <v>8</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="21">
-        <v>4</v>
-      </c>
-      <c r="E31" s="21">
-        <v>7</v>
-      </c>
       <c r="F31" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H31" s="21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="21">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="13"/>
@@ -17985,11 +17986,11 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="21">
-        <v>12</v>
-      </c>
-      <c r="C32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>170</v>
       </c>
       <c r="D32" s="21">
@@ -18021,11 +18022,11 @@
       <c r="U32" s="13"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="27" t="s">
         <v>171</v>
       </c>
       <c r="D33" s="21">
@@ -18057,11 +18058,11 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="27" t="s">
         <v>172</v>
       </c>
       <c r="D34" s="21">
@@ -18093,11 +18094,11 @@
       <c r="U34" s="13"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="27" t="s">
         <v>173</v>
       </c>
       <c r="D35" s="21">
@@ -18129,11 +18130,11 @@
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="27" t="s">
         <v>174</v>
       </c>
       <c r="D36" s="21">
@@ -18165,11 +18166,11 @@
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="27" t="s">
         <v>175</v>
       </c>
       <c r="D37" s="21">
@@ -18201,11 +18202,11 @@
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="27" t="s">
         <v>176</v>
       </c>
       <c r="D38" s="21">
@@ -18237,11 +18238,11 @@
       <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="27" t="s">
         <v>177</v>
       </c>
       <c r="D39" s="21">
@@ -18273,11 +18274,11 @@
       <c r="U39" s="13"/>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="27" t="s">
         <v>178</v>
       </c>
       <c r="D40" s="21">
@@ -18309,11 +18310,11 @@
       <c r="U40" s="13"/>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="27" t="s">
         <v>179</v>
       </c>
       <c r="D41" s="21">
@@ -18345,11 +18346,11 @@
       <c r="U41" s="13"/>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="27" t="s">
         <v>180</v>
       </c>
       <c r="D42" s="21">
@@ -18381,30 +18382,30 @@
       <c r="U42" s="13"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="21">
         <v>2</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="27" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="21">
         <v>4</v>
       </c>
-      <c r="F43" s="25">
-        <v>11</v>
+      <c r="F43" s="24">
+        <v>12</v>
       </c>
       <c r="G43" s="21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H43" s="21">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="I43" s="21">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="13"/>
@@ -18417,11 +18418,11 @@
       <c r="U43" s="13"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="27" t="s">
         <v>181</v>
       </c>
       <c r="D44" s="21">
@@ -18453,30 +18454,30 @@
       <c r="U44" s="13"/>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="21">
         <v>10</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="27" t="s">
         <v>182</v>
       </c>
       <c r="D45" s="21">
         <v>4</v>
       </c>
       <c r="E45" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" s="21">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I45" s="21">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13"/>
@@ -18489,11 +18490,11 @@
       <c r="U45" s="13"/>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="21">
-        <v>17</v>
-      </c>
-      <c r="C46" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>183</v>
       </c>
       <c r="D46" s="21">
@@ -18525,11 +18526,11 @@
       <c r="U46" s="13"/>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="27" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="21">
@@ -18561,11 +18562,11 @@
       <c r="U47" s="13"/>
     </row>
     <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="27" t="s">
         <v>185</v>
       </c>
       <c r="D48" s="21">
@@ -18597,11 +18598,11 @@
       <c r="U48" s="13"/>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="27" t="s">
         <v>186</v>
       </c>
       <c r="D49" s="21">
@@ -18633,11 +18634,11 @@
       <c r="U49" s="13"/>
     </row>
     <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="21">
         <v>21</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="27" t="s">
         <v>187</v>
       </c>
       <c r="D50" s="21">
@@ -18669,11 +18670,11 @@
       <c r="U50" s="13"/>
     </row>
     <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="27" t="s">
         <v>188</v>
       </c>
       <c r="D51" s="21">
@@ -18705,11 +18706,11 @@
       <c r="U51" s="13"/>
     </row>
     <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="27" t="s">
         <v>189</v>
       </c>
       <c r="D52" s="21">
@@ -18741,11 +18742,11 @@
       <c r="U52" s="13"/>
     </row>
     <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="21">
@@ -18777,11 +18778,11 @@
       <c r="U53" s="13"/>
     </row>
     <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="27" t="s">
         <v>191</v>
       </c>
       <c r="D54" s="21">
@@ -18813,11 +18814,11 @@
       <c r="U54" s="13"/>
     </row>
     <row r="55" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="27" t="s">
         <v>192</v>
       </c>
       <c r="D55" s="21">
@@ -18849,11 +18850,11 @@
       <c r="U55" s="13"/>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="27" t="s">
         <v>193</v>
       </c>
       <c r="D56" s="21">
@@ -18885,11 +18886,11 @@
       <c r="U56" s="13"/>
     </row>
     <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="27" t="s">
         <v>194</v>
       </c>
       <c r="D57" s="21">
@@ -18921,11 +18922,11 @@
       <c r="U57" s="13"/>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D58" s="21">
@@ -18957,11 +18958,11 @@
       <c r="U58" s="13"/>
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="27" t="s">
         <v>196</v>
       </c>
       <c r="D59" s="21">
@@ -18993,11 +18994,11 @@
       <c r="U59" s="13"/>
     </row>
     <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D60" s="21">
@@ -19029,11 +19030,11 @@
       <c r="U60" s="13"/>
     </row>
     <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="27" t="s">
         <v>198</v>
       </c>
       <c r="D61" s="21">
@@ -19065,11 +19066,11 @@
       <c r="U61" s="13"/>
     </row>
     <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="27" t="s">
         <v>199</v>
       </c>
       <c r="D62" s="21">
@@ -19101,11 +19102,11 @@
       <c r="U62" s="13"/>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="27" t="s">
         <v>200</v>
       </c>
       <c r="D63" s="21">
@@ -19137,30 +19138,30 @@
       <c r="U63" s="13"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="21">
         <v>4</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="27" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="21">
         <v>6</v>
       </c>
       <c r="E64" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="21">
         <v>1</v>
       </c>
       <c r="G64" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="21">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="I64" s="21">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="13"/>
@@ -19173,11 +19174,11 @@
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="21">
         <v>21</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="27" t="s">
         <v>202</v>
       </c>
       <c r="D65" s="21">
@@ -19209,11 +19210,11 @@
       <c r="U65" s="13"/>
     </row>
     <row r="66" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="27" t="s">
         <v>203</v>
       </c>
       <c r="D66" s="21">
@@ -19245,11 +19246,11 @@
       <c r="U66" s="13"/>
     </row>
     <row r="67" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="27" t="s">
         <v>204</v>
       </c>
       <c r="D67" s="21">
@@ -19281,30 +19282,30 @@
       <c r="U67" s="13"/>
     </row>
     <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="21">
         <v>1</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="26">
-        <v>13</v>
+      <c r="D68" s="25">
+        <v>15</v>
       </c>
       <c r="E68" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F68" s="21">
         <v>9</v>
       </c>
-      <c r="G68" s="27">
-        <v>29</v>
+      <c r="G68" s="26">
+        <v>32</v>
       </c>
       <c r="H68" s="21">
-        <v>5.19</v>
+        <v>5.73</v>
       </c>
       <c r="I68" s="21">
-        <v>5.01</v>
+        <v>5.52</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="13"/>
@@ -19317,11 +19318,11 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="27" t="s">
         <v>205</v>
       </c>
       <c r="D69" s="21">
@@ -19353,11 +19354,11 @@
       <c r="U69" s="13"/>
     </row>
     <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="27" t="s">
         <v>206</v>
       </c>
       <c r="D70" s="21">
@@ -19389,11 +19390,11 @@
       <c r="U70" s="13"/>
     </row>
     <row r="71" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="21">
         <v>20</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="27" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="21">
@@ -19425,11 +19426,11 @@
       <c r="U71" s="13"/>
     </row>
     <row r="72" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="27" t="s">
         <v>208</v>
       </c>
       <c r="D72" s="21">
@@ -19461,11 +19462,11 @@
       <c r="U72" s="13"/>
     </row>
     <row r="73" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="27" t="s">
         <v>209</v>
       </c>
       <c r="D73" s="21">
@@ -19497,11 +19498,11 @@
       <c r="U73" s="13"/>
     </row>
     <row r="74" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="27" t="s">
         <v>210</v>
       </c>
       <c r="D74" s="21">
@@ -19533,11 +19534,11 @@
       <c r="U74" s="13"/>
     </row>
     <row r="75" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="27" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="21">
@@ -19569,11 +19570,11 @@
       <c r="U75" s="13"/>
     </row>
     <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="27" t="s">
         <v>212</v>
       </c>
       <c r="D76" s="21">
@@ -19605,11 +19606,11 @@
       <c r="U76" s="13"/>
     </row>
     <row r="77" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="27" t="s">
         <v>213</v>
       </c>
       <c r="D77" s="21">
@@ -19641,11 +19642,11 @@
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="27" t="s">
         <v>214</v>
       </c>
       <c r="D78" s="21">
@@ -19677,11 +19678,11 @@
       <c r="U78" s="13"/>
     </row>
     <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="27" t="s">
         <v>215</v>
       </c>
       <c r="D79" s="21">
@@ -19713,11 +19714,11 @@
       <c r="U79" s="13"/>
     </row>
     <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="21">
-        <v>15</v>
-      </c>
-      <c r="C80" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="27" t="s">
         <v>216</v>
       </c>
       <c r="D80" s="21">
@@ -19749,11 +19750,11 @@
       <c r="U80" s="13"/>
     </row>
     <row r="81" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D81" s="21">
@@ -19785,11 +19786,11 @@
       <c r="U81" s="13"/>
     </row>
     <row r="82" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="21">
-        <v>16</v>
-      </c>
-      <c r="C82" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="21">
@@ -19821,11 +19822,11 @@
       <c r="U82" s="13"/>
     </row>
     <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="27" t="s">
         <v>219</v>
       </c>
       <c r="D83" s="21">
@@ -19857,30 +19858,30 @@
       <c r="U83" s="13"/>
     </row>
     <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="21">
+        <v>5</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="21">
         <v>6</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="21">
-        <v>5</v>
       </c>
       <c r="E84" s="21">
         <v>5</v>
       </c>
       <c r="F84" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H84" s="21">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="I84" s="21">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="13"/>
@@ -19893,30 +19894,30 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="21">
-        <v>7</v>
-      </c>
-      <c r="C85" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D85" s="21">
         <v>5</v>
       </c>
       <c r="E85" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" s="21">
         <v>3</v>
       </c>
       <c r="G85" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H85" s="21">
-        <v>1.1200000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="I85" s="21">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="13"/>
@@ -19929,11 +19930,11 @@
       <c r="U85" s="13"/>
     </row>
     <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="27" t="s">
         <v>220</v>
       </c>
       <c r="D86" s="21">
@@ -19965,11 +19966,11 @@
       <c r="U86" s="13"/>
     </row>
     <row r="87" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="27" t="s">
         <v>221</v>
       </c>
       <c r="D87" s="21">
@@ -20001,11 +20002,11 @@
       <c r="U87" s="13"/>
     </row>
     <row r="88" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="27" t="s">
         <v>222</v>
       </c>
       <c r="D88" s="21">
@@ -20037,11 +20038,11 @@
       <c r="U88" s="13"/>
     </row>
     <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="27" t="s">
         <v>223</v>
       </c>
       <c r="D89" s="21">
@@ -20073,11 +20074,11 @@
       <c r="U89" s="13"/>
     </row>
     <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="27" t="s">
         <v>224</v>
       </c>
       <c r="D90" s="21">
@@ -20109,30 +20110,30 @@
       <c r="U90" s="13"/>
     </row>
     <row r="91" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="21">
         <v>3</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="27" t="s">
         <v>225</v>
       </c>
       <c r="D91" s="21">
+        <v>7</v>
+      </c>
+      <c r="E91" s="23">
+        <v>11</v>
+      </c>
+      <c r="F91" s="21">
         <v>6</v>
       </c>
-      <c r="E91" s="24">
-        <v>8</v>
-      </c>
-      <c r="F91" s="21">
-        <v>5</v>
-      </c>
       <c r="G91" s="21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H91" s="21">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I91" s="21">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="13"/>
@@ -20145,11 +20146,11 @@
       <c r="U91" s="13"/>
     </row>
     <row r="92" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="27" t="s">
         <v>226</v>
       </c>
       <c r="D92" s="21">
@@ -20181,11 +20182,11 @@
       <c r="U92" s="13"/>
     </row>
     <row r="93" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="27" t="s">
         <v>227</v>
       </c>
       <c r="D93" s="21">
@@ -20217,11 +20218,11 @@
       <c r="U93" s="13"/>
     </row>
     <row r="94" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="27" t="s">
         <v>228</v>
       </c>
       <c r="D94" s="21">

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76507F-F168-432D-96F1-424ADD942C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA3AEB6-BE45-4CC6-AFFD-30E6D3E26FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -12801,11 +12801,11 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX('Medal Count'!F:F,Events!$C6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX('Medal Count'!D:D,Events!$C15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="J26" cm="1">
         <f t="array" ref="J26">INDEX('Medal Count'!E:E,Events!$C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX('Medal Count'!F:F,Events!$C26)</f>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -13735,19 +13735,19 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="J38" cm="1">
         <f t="array" ref="J38">INDEX('Medal Count'!E:E,Events!$C38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" ref="K38">INDEX('Medal Count'!F:F,Events!$C38)</f>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">INDEX('Medal Count'!D:D,Events!$C44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
@@ -14465,11 +14465,11 @@
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI44">
         <v>1</v>
@@ -15213,15 +15213,15 @@
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="J64" cm="1">
         <f t="array" ref="J64">INDEX('Medal Count'!E:E,Events!$C64)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" cm="1">
         <f t="array" ref="K64">INDEX('Medal Count'!F:F,Events!$C64)</f>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U64">
         <v>1</v>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
@@ -15402,11 +15402,11 @@
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">INDEX('Medal Count'!D:D,Events!$C80)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX('Medal Count'!E:E,Events!$C80)</f>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="I81" cm="1">
         <f t="array" ref="I81">INDEX('Medal Count'!D:D,Events!$C81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" cm="1">
         <f t="array" ref="J81">INDEX('Medal Count'!E:E,Events!$C81)</f>
@@ -16033,11 +16033,11 @@
       </c>
       <c r="K81" cm="1">
         <f t="array" ref="K81">INDEX('Medal Count'!F:F,Events!$C81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
@@ -16084,7 +16084,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="I83" cm="1">
         <f t="array" ref="I83">INDEX('Medal Count'!D:D,Events!$C83)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16676,55 +16676,55 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
@@ -16732,39 +16732,39 @@
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -16870,10 +16870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AG98"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16889,7 +16889,7 @@
     <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16931,7 +16931,7 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>265</v>
       </c>
@@ -16968,16 +16968,17 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="13"/>
+      <c r="V3" s="20"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="14"/>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
-    </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="21" t="s">
         <v>265</v>
@@ -17013,7 +17014,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="21" t="s">
         <v>265</v>
@@ -17049,7 +17050,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="21" t="s">
         <v>265</v>
@@ -17085,7 +17086,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="21">
         <v>12</v>
@@ -17100,16 +17101,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="21">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I7" s="21">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="13"/>
@@ -17121,10 +17122,10 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>146</v>
@@ -17157,7 +17158,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="21" t="s">
         <v>265</v>
@@ -17193,10 +17194,10 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>148</v>
@@ -17229,7 +17230,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="21" t="s">
         <v>265</v>
@@ -17265,7 +17266,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="21" t="s">
         <v>265</v>
@@ -17301,7 +17302,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="21" t="s">
         <v>265</v>
@@ -17337,10 +17338,10 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>152</v>
@@ -17373,10 +17374,10 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>153</v>
@@ -17409,7 +17410,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="21">
         <v>11</v>
@@ -17418,22 +17419,22 @@
         <v>154</v>
       </c>
       <c r="D16" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="21">
         <v>4</v>
       </c>
       <c r="F16" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="21">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="I16" s="21">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13"/>
@@ -17664,7 +17665,7 @@
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>161</v>
@@ -17844,7 +17845,7 @@
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>166</v>
@@ -17853,19 +17854,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="21">
         <v>4</v>
       </c>
       <c r="G28" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="21">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="I28" s="21">
-        <v>1.1000000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13"/>
@@ -17880,28 +17881,28 @@
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="21">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21">
+        <v>8</v>
+      </c>
+      <c r="F29" s="21">
         <v>5</v>
       </c>
-      <c r="E29" s="21">
-        <v>7</v>
-      </c>
-      <c r="F29" s="21">
-        <v>4</v>
-      </c>
       <c r="G29" s="21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H29" s="21">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I29" s="21">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13"/>
@@ -17916,7 +17917,7 @@
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>168</v>
@@ -17952,7 +17953,7 @@
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>169</v>
@@ -18393,19 +18394,19 @@
         <v>9</v>
       </c>
       <c r="E43" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="24">
         <v>12</v>
       </c>
       <c r="G43" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H43" s="21">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="I43" s="21">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="13"/>
@@ -18462,22 +18463,22 @@
         <v>182</v>
       </c>
       <c r="D45" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" s="21">
         <v>6</v>
       </c>
       <c r="F45" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G45" s="21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H45" s="21">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I45" s="21">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13"/>
@@ -18492,7 +18493,7 @@
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>183</v>
@@ -18636,7 +18637,7 @@
     <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="21">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>187</v>
@@ -19140,7 +19141,7 @@
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>201</v>
@@ -19149,19 +19150,19 @@
         <v>6</v>
       </c>
       <c r="E64" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F64" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H64" s="21">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="I64" s="21">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="13"/>
@@ -19176,7 +19177,7 @@
     <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>202</v>
@@ -19185,19 +19186,19 @@
         <v>0</v>
       </c>
       <c r="E65" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="21">
         <v>1</v>
       </c>
       <c r="G65" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="21">
-        <v>0.38</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I65" s="21">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="13"/>
@@ -19290,22 +19291,22 @@
         <v>140</v>
       </c>
       <c r="D68" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" s="21">
         <v>8</v>
       </c>
       <c r="F68" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H68" s="21">
-        <v>5.73</v>
+        <v>6.09</v>
       </c>
       <c r="I68" s="21">
-        <v>5.52</v>
+        <v>5.87</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="13"/>
@@ -19392,7 +19393,7 @@
     <row r="71" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>207</v>
@@ -19716,7 +19717,7 @@
     <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>216</v>
@@ -19788,13 +19789,13 @@
     <row r="82" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="21">
         <v>2</v>
@@ -19803,13 +19804,13 @@
         <v>3</v>
       </c>
       <c r="G82" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" s="21">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I82" s="21">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="13"/>
@@ -19823,29 +19824,29 @@
     </row>
     <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
-      <c r="B83" s="21" t="s">
-        <v>265</v>
+      <c r="B83" s="21">
+        <v>18</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>219</v>
       </c>
       <c r="D83" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="21">
         <v>0</v>
       </c>
       <c r="F83" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" s="21">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I83" s="21">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="13"/>
@@ -19860,7 +19861,7 @@
     <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>137</v>
@@ -19869,19 +19870,19 @@
         <v>6</v>
       </c>
       <c r="E84" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F84" s="21">
         <v>3</v>
       </c>
       <c r="G84" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H84" s="21">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="I84" s="21">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="13"/>
@@ -19896,13 +19897,13 @@
     <row r="85" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D85" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" s="21">
         <v>4</v>
@@ -19911,13 +19912,13 @@
         <v>3</v>
       </c>
       <c r="G85" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" s="21">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="I85" s="21">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="13"/>
@@ -20323,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="17">
         <v>0</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA3AEB6-BE45-4CC6-AFFD-30E6D3E26FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486650B1-E72E-4751-B361-A5D0BC17FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
@@ -16872,8 +16872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
   <dimension ref="A1:AH98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="17">
         <v>0</v>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486650B1-E72E-4751-B361-A5D0BC17FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226EFB2-CE0E-4495-A26D-9A7050B1163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -875,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,19 +960,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1056,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1105,25 +1093,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12238,16 +12223,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.3984375" customWidth="1"/>
+    <col min="1" max="1" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -12255,211 +12240,211 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>267</v>
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>266</v>
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>256</v>
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>245</v>
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>260</v>
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>251</v>
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>261</v>
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>262</v>
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>263</v>
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>264</v>
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>244</v>
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>249</v>
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>258</v>
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>246</v>
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>247</v>
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>254</v>
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>252</v>
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>253</v>
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>255</v>
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>250</v>
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -12484,25 +12469,25 @@
       <selection pane="bottomRight" activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -12609,7 +12594,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12647,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12685,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -12726,7 +12711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -12764,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -12801,17 +12786,17 @@
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">INDEX('Medal Count'!F:F,Events!$C6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f>SUM((I6*3)+(J6*2)+(K6*1))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -12848,11 +12833,11 @@
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">INDEX('Medal Count'!F:F,Events!$C7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <f>SUM((I7*3)+(J7*2)+(K7*1))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -12864,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -12902,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -12955,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -12993,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -13031,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -13069,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -13107,7 +13092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -13145,7 +13130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -13178,7 +13163,7 @@
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
@@ -13186,7 +13171,7 @@
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13204,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -13242,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -13271,7 +13256,7 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">INDEX('Medal Count'!D:D,Events!$C17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
@@ -13279,11 +13264,11 @@
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13292,7 +13277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -13330,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -13368,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -13406,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13471,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -13512,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -13550,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -13588,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -13647,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -13706,7 +13691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -13743,11 +13728,11 @@
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13756,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -13794,7 +13779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -13823,7 +13808,7 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
@@ -13835,7 +13820,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -13850,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -13895,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -13933,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -13971,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -14009,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -14047,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -14094,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -14132,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -14170,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -14214,7 +14199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -14252,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -14290,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -14328,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -14387,7 +14372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -14428,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -14461,21 +14446,21 @@
       </c>
       <c r="J44" cm="1">
         <f t="array" ref="J44">INDEX('Medal Count'!E:E,Events!$C44)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" ref="K44">INDEX('Medal Count'!F:F,Events!$C44)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44">
         <f>SUM((I44*3)+(J44*2)+(K44*1))</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AI44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -14513,7 +14498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -14551,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -14589,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -14627,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -14683,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -14721,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -14759,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -14800,7 +14785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -14838,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -14876,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -14914,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -14952,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -14990,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -15028,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -15066,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -15104,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -15142,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -15180,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -15217,11 +15202,11 @@
       </c>
       <c r="K63" cm="1">
         <f t="array" ref="K63">INDEX('Medal Count'!F:F,Events!$C63)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15242,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -15289,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -15327,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -15365,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -15394,11 +15379,11 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
@@ -15406,7 +15391,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15424,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -15462,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -15500,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -15562,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -15600,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -15641,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -15679,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -15717,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -15755,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -15793,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -15849,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -15899,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -15937,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -15996,7 +15981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -16043,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -16080,11 +16065,11 @@
       </c>
       <c r="K82" cm="1">
         <f t="array" ref="K82">INDEX('Medal Count'!F:F,Events!$C82)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16102,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -16135,15 +16120,15 @@
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16152,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -16190,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -16228,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -16266,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -16304,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -16357,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -16395,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -16424,11 +16409,11 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
@@ -16436,7 +16421,7 @@
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16451,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -16489,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -16527,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -16565,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -16666,7 +16651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -16676,95 +16661,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -16870,26 +16855,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16915,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16931,29 +16916,29 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <v>0</v>
       </c>
       <c r="J3" s="20"/>
@@ -16969,39 +16954,40 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="13"/>
+      <c r="W3" s="20"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI3" s="13"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
       </c>
       <c r="M4" s="15"/>
@@ -17014,30 +17000,30 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <v>0</v>
       </c>
       <c r="M5" s="15"/>
@@ -17050,30 +17036,30 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
         <v>0</v>
       </c>
       <c r="M6" s="15"/>
@@ -17086,31 +17072,31 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="21">
-        <v>12</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
-      <c r="G7" s="21">
-        <v>7</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0.37</v>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.32</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="13"/>
@@ -17122,31 +17108,31 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="21">
+      <c r="B8" s="11">
         <v>9</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="21">
-        <v>4</v>
-      </c>
-      <c r="G8" s="21">
-        <v>17</v>
-      </c>
-      <c r="H8" s="21">
-        <v>1.86</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2.54</v>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.97</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2.69</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13"/>
@@ -17158,30 +17144,30 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>0</v>
       </c>
       <c r="M9" s="15"/>
@@ -17194,30 +17180,30 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="21">
+      <c r="B10" s="11">
         <v>27</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="11">
         <v>0.08</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="11">
         <v>0.11</v>
       </c>
       <c r="M10" s="15"/>
@@ -17230,30 +17216,30 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
         <v>0</v>
       </c>
       <c r="M11" s="15"/>
@@ -17266,30 +17252,30 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="M12" s="15"/>
@@ -17302,30 +17288,30 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
         <v>0</v>
       </c>
       <c r="M13" s="15"/>
@@ -17338,30 +17324,30 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="21">
+      <c r="B14" s="11">
         <v>19</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
         <v>1</v>
       </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.02</v>
       </c>
       <c r="M14" s="15"/>
@@ -17374,30 +17360,30 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="21">
+      <c r="B15" s="11">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <v>2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="11">
         <v>2</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="11">
         <v>0.31</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="11">
         <v>0.79</v>
       </c>
       <c r="M15" s="15"/>
@@ -17410,31 +17396,31 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="21">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E16" s="21">
-        <v>4</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11">
         <v>6</v>
       </c>
-      <c r="G16" s="21">
-        <v>14</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0.53</v>
+      <c r="G16" s="11">
+        <v>15</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.56999999999999995</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13"/>
@@ -17446,30 +17432,30 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
         <v>0</v>
       </c>
       <c r="M17" s="15"/>
@@ -17482,31 +17468,31 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="21">
-        <v>14</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="11">
+        <v>12</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="21">
-        <v>4</v>
-      </c>
-      <c r="G18" s="21">
-        <v>9</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>12</v>
+      </c>
+      <c r="H18" s="11">
         <v>0.01</v>
       </c>
-      <c r="I18" s="21">
-        <v>0.02</v>
+      <c r="I18" s="11">
+        <v>0.03</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="13"/>
@@ -17518,30 +17504,30 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="M19" s="15"/>
@@ -17554,30 +17540,30 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
         <v>0</v>
       </c>
       <c r="M20" s="15"/>
@@ -17590,30 +17576,30 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="M21" s="15"/>
@@ -17626,30 +17612,30 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
         <v>0</v>
       </c>
       <c r="M22" s="15"/>
@@ -17662,30 +17648,30 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="21">
+      <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="11">
         <v>2</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
         <v>4</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="11">
         <v>0.37</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="11">
         <v>0.64</v>
       </c>
       <c r="M23" s="15"/>
@@ -17698,30 +17684,30 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
         <v>0</v>
       </c>
       <c r="M24" s="15"/>
@@ -17734,30 +17720,30 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
         <v>0</v>
       </c>
       <c r="M25" s="15"/>
@@ -17770,30 +17756,30 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
         <v>0</v>
       </c>
       <c r="M26" s="15"/>
@@ -17806,30 +17792,30 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="21">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
         <v>0</v>
       </c>
       <c r="M27" s="15"/>
@@ -17842,30 +17828,30 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="21">
+      <c r="B28" s="11">
         <v>23</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
         <v>1</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="11">
         <v>4</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="11">
         <v>5</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="11">
         <v>0.89</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="11">
         <v>1.38</v>
       </c>
       <c r="M28" s="15"/>
@@ -17878,31 +17864,31 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
-      <c r="B29" s="21">
-        <v>4</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="11">
         <v>6</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="11">
         <v>8</v>
       </c>
-      <c r="F29" s="21">
-        <v>5</v>
-      </c>
-      <c r="G29" s="21">
-        <v>19</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0.43</v>
+      <c r="F29" s="11">
+        <v>6</v>
+      </c>
+      <c r="G29" s="11">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.45</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13"/>
@@ -17914,30 +17900,30 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="21">
+      <c r="B30" s="11">
         <v>25</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="11">
         <v>0.27</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="11">
         <v>0.96</v>
       </c>
       <c r="M30" s="15"/>
@@ -17950,31 +17936,31 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="21">
+      <c r="B31" s="11">
+        <v>4</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11">
         <v>8</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="21">
-        <v>5</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="F31" s="11">
         <v>8</v>
       </c>
-      <c r="F31" s="21">
-        <v>8</v>
-      </c>
-      <c r="G31" s="21">
-        <v>21</v>
-      </c>
-      <c r="H31" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="I31" s="21">
-        <v>0.35</v>
+      <c r="G31" s="11">
+        <v>22</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.37</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="13"/>
@@ -17986,30 +17972,30 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="21">
-        <v>13</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="11">
+        <v>14</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="11">
         <v>3</v>
       </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
         <v>3</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="11">
         <v>0.04</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M32" s="15"/>
@@ -18022,30 +18008,30 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
         <v>0</v>
       </c>
       <c r="M33" s="15"/>
@@ -18058,30 +18044,30 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="21">
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
         <v>0</v>
       </c>
       <c r="M34" s="15"/>
@@ -18094,30 +18080,30 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0</v>
-      </c>
-      <c r="G35" s="21">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
-        <v>0</v>
-      </c>
-      <c r="I35" s="21">
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
         <v>0</v>
       </c>
       <c r="M35" s="15"/>
@@ -18130,30 +18116,30 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
         <v>0</v>
       </c>
       <c r="M36" s="15"/>
@@ -18166,30 +18152,30 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
         <v>0</v>
       </c>
       <c r="M37" s="15"/>
@@ -18202,30 +18188,30 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="21">
-        <v>0</v>
-      </c>
-      <c r="E38" s="21">
-        <v>0</v>
-      </c>
-      <c r="F38" s="21">
-        <v>0</v>
-      </c>
-      <c r="G38" s="21">
-        <v>0</v>
-      </c>
-      <c r="H38" s="21">
-        <v>0</v>
-      </c>
-      <c r="I38" s="21">
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
         <v>0</v>
       </c>
       <c r="M38" s="15"/>
@@ -18238,30 +18224,30 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="21">
-        <v>0</v>
-      </c>
-      <c r="E39" s="21">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21">
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
         <v>0</v>
       </c>
       <c r="M39" s="15"/>
@@ -18274,30 +18260,30 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="21">
-        <v>0</v>
-      </c>
-      <c r="E40" s="21">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0</v>
-      </c>
-      <c r="G40" s="21">
-        <v>0</v>
-      </c>
-      <c r="H40" s="21">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21">
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
         <v>0</v>
       </c>
       <c r="M40" s="15"/>
@@ -18310,30 +18296,30 @@
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="21">
-        <v>0</v>
-      </c>
-      <c r="E41" s="21">
-        <v>0</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21">
-        <v>0</v>
-      </c>
-      <c r="H41" s="21">
-        <v>0</v>
-      </c>
-      <c r="I41" s="21">
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
         <v>0</v>
       </c>
       <c r="M41" s="15"/>
@@ -18346,30 +18332,30 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="21">
-        <v>0</v>
-      </c>
-      <c r="E42" s="21">
-        <v>0</v>
-      </c>
-      <c r="F42" s="21">
-        <v>0</v>
-      </c>
-      <c r="G42" s="21">
-        <v>0</v>
-      </c>
-      <c r="H42" s="21">
-        <v>0</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
         <v>0</v>
       </c>
       <c r="M42" s="15"/>
@@ -18382,30 +18368,30 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
-      <c r="B43" s="21">
-        <v>2</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="11">
         <v>9</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="11">
         <v>5</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <v>12</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="11">
         <v>26</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="11">
         <v>0.44</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="11">
         <v>0.72</v>
       </c>
       <c r="M43" s="15"/>
@@ -18418,30 +18404,30 @@
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0</v>
-      </c>
-      <c r="F44" s="21">
-        <v>0</v>
-      </c>
-      <c r="G44" s="21">
-        <v>0</v>
-      </c>
-      <c r="H44" s="21">
-        <v>0</v>
-      </c>
-      <c r="I44" s="21">
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
         <v>0</v>
       </c>
       <c r="M44" s="15"/>
@@ -18454,31 +18440,31 @@
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
-      <c r="B45" s="21">
+      <c r="B45" s="11">
         <v>10</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="11">
         <v>5</v>
       </c>
-      <c r="E45" s="21">
-        <v>6</v>
-      </c>
-      <c r="F45" s="21">
-        <v>11</v>
-      </c>
-      <c r="G45" s="21">
-        <v>22</v>
-      </c>
-      <c r="H45" s="21">
-        <v>0.18</v>
-      </c>
-      <c r="I45" s="21">
-        <v>0.34</v>
+      <c r="E45" s="11">
+        <v>7</v>
+      </c>
+      <c r="F45" s="23">
+        <v>12</v>
+      </c>
+      <c r="G45" s="11">
+        <v>24</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.37</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="13"/>
@@ -18490,30 +18476,30 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
-      <c r="B46" s="21">
+      <c r="B46" s="11">
         <v>19</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="11">
         <v>1</v>
       </c>
-      <c r="E46" s="21">
-        <v>0</v>
-      </c>
-      <c r="F46" s="21">
-        <v>0</v>
-      </c>
-      <c r="G46" s="21">
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
         <v>1</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="11">
         <v>0.05</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="11">
         <v>0.12</v>
       </c>
       <c r="M46" s="15"/>
@@ -18526,30 +18512,30 @@
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0</v>
-      </c>
-      <c r="F47" s="21">
-        <v>0</v>
-      </c>
-      <c r="G47" s="21">
-        <v>0</v>
-      </c>
-      <c r="H47" s="21">
-        <v>0</v>
-      </c>
-      <c r="I47" s="21">
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
         <v>0</v>
       </c>
       <c r="M47" s="15"/>
@@ -18562,30 +18548,30 @@
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21">
-        <v>0</v>
-      </c>
-      <c r="H48" s="21">
-        <v>0</v>
-      </c>
-      <c r="I48" s="21">
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
         <v>0</v>
       </c>
       <c r="M48" s="15"/>
@@ -18598,30 +18584,30 @@
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="21">
-        <v>0</v>
-      </c>
-      <c r="F49" s="21">
-        <v>0</v>
-      </c>
-      <c r="G49" s="21">
-        <v>0</v>
-      </c>
-      <c r="H49" s="21">
-        <v>0</v>
-      </c>
-      <c r="I49" s="21">
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
         <v>0</v>
       </c>
       <c r="M49" s="15"/>
@@ -18634,30 +18620,30 @@
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
-      <c r="B50" s="21">
+      <c r="B50" s="11">
         <v>24</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-      <c r="E50" s="21">
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
         <v>1</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="11">
         <v>1</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="11">
         <v>2</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="11">
         <v>1.07</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="11">
         <v>2.5099999999999998</v>
       </c>
       <c r="M50" s="15"/>
@@ -18670,30 +18656,30 @@
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-      <c r="E51" s="21">
-        <v>0</v>
-      </c>
-      <c r="F51" s="21">
-        <v>0</v>
-      </c>
-      <c r="G51" s="21">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21">
-        <v>0</v>
-      </c>
-      <c r="I51" s="21">
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
         <v>0</v>
       </c>
       <c r="M51" s="15"/>
@@ -18706,30 +18692,30 @@
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="21">
-        <v>0</v>
-      </c>
-      <c r="F52" s="21">
-        <v>0</v>
-      </c>
-      <c r="G52" s="21">
-        <v>0</v>
-      </c>
-      <c r="H52" s="21">
-        <v>0</v>
-      </c>
-      <c r="I52" s="21">
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
         <v>0</v>
       </c>
       <c r="M52" s="15"/>
@@ -18742,30 +18728,30 @@
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="21">
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
-        <v>0</v>
-      </c>
-      <c r="G53" s="21">
-        <v>0</v>
-      </c>
-      <c r="H53" s="21">
-        <v>0</v>
-      </c>
-      <c r="I53" s="21">
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
         <v>0</v>
       </c>
       <c r="M53" s="15"/>
@@ -18778,30 +18764,30 @@
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="21">
-        <v>0</v>
-      </c>
-      <c r="F54" s="21">
-        <v>0</v>
-      </c>
-      <c r="G54" s="21">
-        <v>0</v>
-      </c>
-      <c r="H54" s="21">
-        <v>0</v>
-      </c>
-      <c r="I54" s="21">
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
         <v>0</v>
       </c>
       <c r="M54" s="15"/>
@@ -18814,30 +18800,30 @@
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="21">
-        <v>0</v>
-      </c>
-      <c r="F55" s="21">
-        <v>0</v>
-      </c>
-      <c r="G55" s="21">
-        <v>0</v>
-      </c>
-      <c r="H55" s="21">
-        <v>0</v>
-      </c>
-      <c r="I55" s="21">
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
         <v>0</v>
       </c>
       <c r="M55" s="15"/>
@@ -18850,30 +18836,30 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="21">
-        <v>0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0</v>
-      </c>
-      <c r="G56" s="21">
-        <v>0</v>
-      </c>
-      <c r="H56" s="21">
-        <v>0</v>
-      </c>
-      <c r="I56" s="21">
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
         <v>0</v>
       </c>
       <c r="M56" s="15"/>
@@ -18886,30 +18872,30 @@
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0</v>
-      </c>
-      <c r="F57" s="21">
-        <v>0</v>
-      </c>
-      <c r="G57" s="21">
-        <v>0</v>
-      </c>
-      <c r="H57" s="21">
-        <v>0</v>
-      </c>
-      <c r="I57" s="21">
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
         <v>0</v>
       </c>
       <c r="M57" s="15"/>
@@ -18922,30 +18908,30 @@
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="21">
-        <v>0</v>
-      </c>
-      <c r="E58" s="21">
-        <v>0</v>
-      </c>
-      <c r="F58" s="21">
-        <v>0</v>
-      </c>
-      <c r="G58" s="21">
-        <v>0</v>
-      </c>
-      <c r="H58" s="21">
-        <v>0</v>
-      </c>
-      <c r="I58" s="21">
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
         <v>0</v>
       </c>
       <c r="M58" s="15"/>
@@ -18958,30 +18944,30 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="21">
-        <v>0</v>
-      </c>
-      <c r="F59" s="21">
-        <v>0</v>
-      </c>
-      <c r="G59" s="21">
-        <v>0</v>
-      </c>
-      <c r="H59" s="21">
-        <v>0</v>
-      </c>
-      <c r="I59" s="21">
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
         <v>0</v>
       </c>
       <c r="M59" s="15"/>
@@ -18994,30 +18980,30 @@
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="21">
-        <v>0</v>
-      </c>
-      <c r="F60" s="21">
-        <v>0</v>
-      </c>
-      <c r="G60" s="21">
-        <v>0</v>
-      </c>
-      <c r="H60" s="21">
-        <v>0</v>
-      </c>
-      <c r="I60" s="21">
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
         <v>0</v>
       </c>
       <c r="M60" s="15"/>
@@ -19030,30 +19016,30 @@
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="21">
-        <v>0</v>
-      </c>
-      <c r="F61" s="21">
-        <v>0</v>
-      </c>
-      <c r="G61" s="21">
-        <v>0</v>
-      </c>
-      <c r="H61" s="21">
-        <v>0</v>
-      </c>
-      <c r="I61" s="21">
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
         <v>0</v>
       </c>
       <c r="M61" s="15"/>
@@ -19066,30 +19052,30 @@
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="21">
-        <v>0</v>
-      </c>
-      <c r="F62" s="21">
-        <v>0</v>
-      </c>
-      <c r="G62" s="21">
-        <v>0</v>
-      </c>
-      <c r="H62" s="21">
-        <v>0</v>
-      </c>
-      <c r="I62" s="21">
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
         <v>0</v>
       </c>
       <c r="M62" s="15"/>
@@ -19102,30 +19088,30 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="21">
-        <v>0</v>
-      </c>
-      <c r="F63" s="21">
-        <v>0</v>
-      </c>
-      <c r="G63" s="21">
-        <v>0</v>
-      </c>
-      <c r="H63" s="21">
-        <v>0</v>
-      </c>
-      <c r="I63" s="21">
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
         <v>0</v>
       </c>
       <c r="M63" s="15"/>
@@ -19138,31 +19124,31 @@
       <c r="T63" s="13"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
-      <c r="B64" s="21">
-        <v>5</v>
-      </c>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="11">
+        <v>6</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="11">
         <v>6</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="11">
         <v>7</v>
       </c>
-      <c r="F64" s="21">
-        <v>2</v>
-      </c>
-      <c r="G64" s="21">
-        <v>15</v>
-      </c>
-      <c r="H64" s="21">
-        <v>0.84</v>
-      </c>
-      <c r="I64" s="21">
-        <v>1.03</v>
+      <c r="F64" s="11">
+        <v>3</v>
+      </c>
+      <c r="G64" s="11">
+        <v>16</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="13"/>
@@ -19174,30 +19160,30 @@
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
     </row>
-    <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
-      <c r="B65" s="21">
+      <c r="B65" s="11">
         <v>22</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="21">
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
         <v>2</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="11">
         <v>1</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="11">
         <v>3</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="11">
         <v>1.04</v>
       </c>
       <c r="M65" s="15"/>
@@ -19210,30 +19196,30 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
     </row>
-    <row r="66" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="21">
-        <v>0</v>
-      </c>
-      <c r="E66" s="21">
-        <v>0</v>
-      </c>
-      <c r="F66" s="21">
-        <v>0</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0</v>
-      </c>
-      <c r="H66" s="21">
-        <v>0</v>
-      </c>
-      <c r="I66" s="21">
+      <c r="D66" s="11">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
         <v>0</v>
       </c>
       <c r="M66" s="15"/>
@@ -19246,30 +19232,30 @@
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
     </row>
-    <row r="67" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="21">
-        <v>0</v>
-      </c>
-      <c r="E67" s="21">
-        <v>0</v>
-      </c>
-      <c r="F67" s="21">
-        <v>0</v>
-      </c>
-      <c r="G67" s="21">
-        <v>0</v>
-      </c>
-      <c r="H67" s="21">
-        <v>0</v>
-      </c>
-      <c r="I67" s="21">
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
         <v>0</v>
       </c>
       <c r="M67" s="15"/>
@@ -19282,31 +19268,31 @@
       <c r="T67" s="13"/>
       <c r="U67" s="13"/>
     </row>
-    <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
-      <c r="B68" s="21">
+      <c r="B68" s="11">
         <v>1</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="25">
-        <v>16</v>
-      </c>
-      <c r="E68" s="21">
-        <v>8</v>
-      </c>
-      <c r="F68" s="21">
+      <c r="D68" s="24">
+        <v>17</v>
+      </c>
+      <c r="E68" s="11">
+        <v>9</v>
+      </c>
+      <c r="F68" s="11">
         <v>10</v>
       </c>
-      <c r="G68" s="26">
-        <v>34</v>
-      </c>
-      <c r="H68" s="21">
-        <v>6.09</v>
-      </c>
-      <c r="I68" s="21">
-        <v>5.87</v>
+      <c r="G68" s="25">
+        <v>36</v>
+      </c>
+      <c r="H68" s="11">
+        <v>6.45</v>
+      </c>
+      <c r="I68" s="11">
+        <v>6.21</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="13"/>
@@ -19318,30 +19304,30 @@
       <c r="T68" s="13"/>
       <c r="U68" s="13"/>
     </row>
-    <row r="69" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="21">
-        <v>0</v>
-      </c>
-      <c r="E69" s="21">
-        <v>0</v>
-      </c>
-      <c r="F69" s="21">
-        <v>0</v>
-      </c>
-      <c r="G69" s="21">
-        <v>0</v>
-      </c>
-      <c r="H69" s="21">
-        <v>0</v>
-      </c>
-      <c r="I69" s="21">
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
         <v>0</v>
       </c>
       <c r="M69" s="15"/>
@@ -19354,30 +19340,30 @@
       <c r="T69" s="13"/>
       <c r="U69" s="13"/>
     </row>
-    <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="21">
-        <v>0</v>
-      </c>
-      <c r="E70" s="21">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21">
-        <v>0</v>
-      </c>
-      <c r="G70" s="21">
-        <v>0</v>
-      </c>
-      <c r="H70" s="21">
-        <v>0</v>
-      </c>
-      <c r="I70" s="21">
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
         <v>0</v>
       </c>
       <c r="M70" s="15"/>
@@ -19390,30 +19376,30 @@
       <c r="T70" s="13"/>
       <c r="U70" s="13"/>
     </row>
-    <row r="71" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
-      <c r="B71" s="21">
+      <c r="B71" s="11">
         <v>21</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D71" s="21">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21">
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <v>3</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="11">
         <v>1</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="11">
         <v>4</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="11">
         <v>0.11</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="11">
         <v>0.21</v>
       </c>
       <c r="M71" s="15"/>
@@ -19426,30 +19412,30 @@
       <c r="T71" s="13"/>
       <c r="U71" s="13"/>
     </row>
-    <row r="72" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="21">
-        <v>0</v>
-      </c>
-      <c r="H72" s="21">
-        <v>0</v>
-      </c>
-      <c r="I72" s="21">
+      <c r="D72" s="11">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
         <v>0</v>
       </c>
       <c r="M72" s="15"/>
@@ -19462,30 +19448,30 @@
       <c r="T72" s="13"/>
       <c r="U72" s="13"/>
     </row>
-    <row r="73" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
-        <v>0</v>
-      </c>
-      <c r="G73" s="21">
-        <v>0</v>
-      </c>
-      <c r="H73" s="21">
-        <v>0</v>
-      </c>
-      <c r="I73" s="21">
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
         <v>0</v>
       </c>
       <c r="M73" s="15"/>
@@ -19498,30 +19484,30 @@
       <c r="T73" s="13"/>
       <c r="U73" s="13"/>
     </row>
-    <row r="74" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="21">
-        <v>0</v>
-      </c>
-      <c r="E74" s="21">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21">
-        <v>0</v>
-      </c>
-      <c r="G74" s="21">
-        <v>0</v>
-      </c>
-      <c r="H74" s="21">
-        <v>0</v>
-      </c>
-      <c r="I74" s="21">
+      <c r="D74" s="11">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
         <v>0</v>
       </c>
       <c r="M74" s="15"/>
@@ -19534,30 +19520,30 @@
       <c r="T74" s="13"/>
       <c r="U74" s="13"/>
     </row>
-    <row r="75" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="21">
-        <v>0</v>
-      </c>
-      <c r="E75" s="21">
-        <v>0</v>
-      </c>
-      <c r="F75" s="21">
-        <v>0</v>
-      </c>
-      <c r="G75" s="21">
-        <v>0</v>
-      </c>
-      <c r="H75" s="21">
-        <v>0</v>
-      </c>
-      <c r="I75" s="21">
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
         <v>0</v>
       </c>
       <c r="M75" s="15"/>
@@ -19570,30 +19556,30 @@
       <c r="T75" s="13"/>
       <c r="U75" s="13"/>
     </row>
-    <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D76" s="21">
-        <v>0</v>
-      </c>
-      <c r="E76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="21">
-        <v>0</v>
-      </c>
-      <c r="G76" s="21">
-        <v>0</v>
-      </c>
-      <c r="H76" s="21">
-        <v>0</v>
-      </c>
-      <c r="I76" s="21">
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
         <v>0</v>
       </c>
       <c r="M76" s="15"/>
@@ -19606,30 +19592,30 @@
       <c r="T76" s="13"/>
       <c r="U76" s="13"/>
     </row>
-    <row r="77" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="21">
-        <v>0</v>
-      </c>
-      <c r="E77" s="21">
-        <v>0</v>
-      </c>
-      <c r="F77" s="21">
-        <v>0</v>
-      </c>
-      <c r="G77" s="21">
-        <v>0</v>
-      </c>
-      <c r="H77" s="21">
-        <v>0</v>
-      </c>
-      <c r="I77" s="21">
+      <c r="D77" s="11">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
         <v>0</v>
       </c>
       <c r="M77" s="15"/>
@@ -19642,30 +19628,30 @@
       <c r="T77" s="13"/>
       <c r="U77" s="13"/>
     </row>
-    <row r="78" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="21">
-        <v>0</v>
-      </c>
-      <c r="E78" s="21">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21">
-        <v>0</v>
-      </c>
-      <c r="G78" s="21">
-        <v>0</v>
-      </c>
-      <c r="H78" s="21">
-        <v>0</v>
-      </c>
-      <c r="I78" s="21">
+      <c r="D78" s="11">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
         <v>0</v>
       </c>
       <c r="M78" s="15"/>
@@ -19678,30 +19664,30 @@
       <c r="T78" s="13"/>
       <c r="U78" s="13"/>
     </row>
-    <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="21">
-        <v>0</v>
-      </c>
-      <c r="E79" s="21">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21">
-        <v>0</v>
-      </c>
-      <c r="G79" s="21">
-        <v>0</v>
-      </c>
-      <c r="H79" s="21">
-        <v>0</v>
-      </c>
-      <c r="I79" s="21">
+      <c r="D79" s="11">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
         <v>0</v>
       </c>
       <c r="M79" s="15"/>
@@ -19714,30 +19700,30 @@
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
-      <c r="B80" s="21">
+      <c r="B80" s="11">
         <v>17</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="11">
         <v>2</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="11">
         <v>1</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="11">
         <v>1</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="11">
         <v>4</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="11">
         <v>1.88</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="11">
         <v>3.37</v>
       </c>
       <c r="M80" s="15"/>
@@ -19750,30 +19736,30 @@
       <c r="T80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D81" s="21">
-        <v>0</v>
-      </c>
-      <c r="E81" s="21">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21">
-        <v>0</v>
-      </c>
-      <c r="G81" s="21">
-        <v>0</v>
-      </c>
-      <c r="H81" s="21">
-        <v>0</v>
-      </c>
-      <c r="I81" s="21">
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
         <v>0</v>
       </c>
       <c r="M81" s="15"/>
@@ -19786,30 +19772,30 @@
       <c r="T81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
-      <c r="B82" s="21">
+      <c r="B82" s="11">
         <v>15</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="11">
         <v>2</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="11">
         <v>2</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="11">
         <v>3</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="11">
         <v>7</v>
       </c>
-      <c r="H82" s="21">
+      <c r="H82" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="11">
         <v>0.22</v>
       </c>
       <c r="M82" s="15"/>
@@ -19822,30 +19808,30 @@
       <c r="T82" s="13"/>
       <c r="U82" s="13"/>
     </row>
-    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
-      <c r="B83" s="21">
+      <c r="B83" s="11">
         <v>18</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="11">
         <v>1</v>
       </c>
-      <c r="E83" s="21">
-        <v>0</v>
-      </c>
-      <c r="F83" s="21">
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
         <v>1</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="11">
         <v>2</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="11">
         <v>0.04</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M83" s="15"/>
@@ -19858,31 +19844,31 @@
       <c r="T83" s="13"/>
       <c r="U83" s="13"/>
     </row>
-    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
-      <c r="B84" s="21">
+      <c r="B84" s="11">
+        <v>7</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="21">
+      <c r="E84" s="11">
         <v>6</v>
       </c>
-      <c r="E84" s="21">
-        <v>6</v>
-      </c>
-      <c r="F84" s="21">
-        <v>3</v>
-      </c>
-      <c r="G84" s="21">
-        <v>15</v>
-      </c>
-      <c r="H84" s="21">
-        <v>1.42</v>
-      </c>
-      <c r="I84" s="21">
-        <v>1.98</v>
+      <c r="F84" s="11">
+        <v>4</v>
+      </c>
+      <c r="G84" s="11">
+        <v>16</v>
+      </c>
+      <c r="H84" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="I84" s="11">
+        <v>2.12</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="13"/>
@@ -19894,31 +19880,31 @@
       <c r="T84" s="13"/>
       <c r="U84" s="13"/>
     </row>
-    <row r="85" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
-      <c r="B85" s="21">
+      <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="11">
         <v>6</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="11">
+        <v>6</v>
+      </c>
+      <c r="F85" s="11">
         <v>4</v>
       </c>
-      <c r="F85" s="21">
-        <v>3</v>
-      </c>
-      <c r="G85" s="21">
-        <v>13</v>
-      </c>
-      <c r="H85" s="21">
-        <v>1.45</v>
-      </c>
-      <c r="I85" s="21">
-        <v>1.52</v>
+      <c r="G85" s="11">
+        <v>16</v>
+      </c>
+      <c r="H85" s="11">
+        <v>1.79</v>
+      </c>
+      <c r="I85" s="11">
+        <v>1.88</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="13"/>
@@ -19930,30 +19916,30 @@
       <c r="T85" s="13"/>
       <c r="U85" s="13"/>
     </row>
-    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D86" s="21">
-        <v>0</v>
-      </c>
-      <c r="E86" s="21">
-        <v>0</v>
-      </c>
-      <c r="F86" s="21">
-        <v>0</v>
-      </c>
-      <c r="G86" s="21">
-        <v>0</v>
-      </c>
-      <c r="H86" s="21">
-        <v>0</v>
-      </c>
-      <c r="I86" s="21">
+      <c r="D86" s="11">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
         <v>0</v>
       </c>
       <c r="M86" s="15"/>
@@ -19966,30 +19952,30 @@
       <c r="T86" s="13"/>
       <c r="U86" s="13"/>
     </row>
-    <row r="87" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D87" s="21">
-        <v>0</v>
-      </c>
-      <c r="E87" s="21">
-        <v>0</v>
-      </c>
-      <c r="F87" s="21">
-        <v>0</v>
-      </c>
-      <c r="G87" s="21">
-        <v>0</v>
-      </c>
-      <c r="H87" s="21">
-        <v>0</v>
-      </c>
-      <c r="I87" s="21">
+      <c r="D87" s="11">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0</v>
+      </c>
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
         <v>0</v>
       </c>
       <c r="M87" s="15"/>
@@ -20002,30 +19988,30 @@
       <c r="T87" s="13"/>
       <c r="U87" s="13"/>
     </row>
-    <row r="88" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="21">
-        <v>0</v>
-      </c>
-      <c r="E88" s="21">
-        <v>0</v>
-      </c>
-      <c r="F88" s="21">
-        <v>0</v>
-      </c>
-      <c r="G88" s="21">
-        <v>0</v>
-      </c>
-      <c r="H88" s="21">
-        <v>0</v>
-      </c>
-      <c r="I88" s="21">
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
         <v>0</v>
       </c>
       <c r="M88" s="15"/>
@@ -20038,30 +20024,30 @@
       <c r="T88" s="13"/>
       <c r="U88" s="13"/>
     </row>
-    <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="21">
-        <v>0</v>
-      </c>
-      <c r="E89" s="21">
-        <v>0</v>
-      </c>
-      <c r="F89" s="21">
-        <v>0</v>
-      </c>
-      <c r="G89" s="21">
-        <v>0</v>
-      </c>
-      <c r="H89" s="21">
-        <v>0</v>
-      </c>
-      <c r="I89" s="21">
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
         <v>0</v>
       </c>
       <c r="M89" s="15"/>
@@ -20074,30 +20060,30 @@
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="21">
-        <v>0</v>
-      </c>
-      <c r="E90" s="21">
-        <v>0</v>
-      </c>
-      <c r="F90" s="21">
-        <v>0</v>
-      </c>
-      <c r="G90" s="21">
-        <v>0</v>
-      </c>
-      <c r="H90" s="21">
-        <v>0</v>
-      </c>
-      <c r="I90" s="21">
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
         <v>0</v>
       </c>
       <c r="M90" s="15"/>
@@ -20110,31 +20096,31 @@
       <c r="T90" s="13"/>
       <c r="U90" s="13"/>
     </row>
-    <row r="91" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
-      <c r="B91" s="21">
-        <v>3</v>
-      </c>
-      <c r="C91" s="27" t="s">
+      <c r="B91" s="11">
+        <v>2</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="21">
-        <v>7</v>
-      </c>
-      <c r="E91" s="23">
-        <v>11</v>
-      </c>
-      <c r="F91" s="21">
+      <c r="D91" s="11">
+        <v>9</v>
+      </c>
+      <c r="E91" s="26">
+        <v>12</v>
+      </c>
+      <c r="F91" s="11">
         <v>6</v>
       </c>
-      <c r="G91" s="21">
-        <v>24</v>
-      </c>
-      <c r="H91" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I91" s="21">
+      <c r="G91" s="11">
+        <v>27</v>
+      </c>
+      <c r="H91" s="11">
         <v>0.08</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0.09</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="13"/>
@@ -20146,30 +20132,30 @@
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
     </row>
-    <row r="92" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="21">
-        <v>0</v>
-      </c>
-      <c r="E92" s="21">
-        <v>0</v>
-      </c>
-      <c r="F92" s="21">
-        <v>0</v>
-      </c>
-      <c r="G92" s="21">
-        <v>0</v>
-      </c>
-      <c r="H92" s="21">
-        <v>0</v>
-      </c>
-      <c r="I92" s="21">
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
         <v>0</v>
       </c>
       <c r="M92" s="15"/>
@@ -20182,30 +20168,30 @@
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
     </row>
-    <row r="93" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="21">
-        <v>0</v>
-      </c>
-      <c r="E93" s="21">
-        <v>0</v>
-      </c>
-      <c r="F93" s="21">
-        <v>0</v>
-      </c>
-      <c r="G93" s="21">
-        <v>0</v>
-      </c>
-      <c r="H93" s="21">
-        <v>0</v>
-      </c>
-      <c r="I93" s="21">
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
         <v>0</v>
       </c>
       <c r="M93" s="15"/>
@@ -20218,30 +20204,30 @@
       <c r="T93" s="13"/>
       <c r="U93" s="13"/>
     </row>
-    <row r="94" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="21">
-        <v>0</v>
-      </c>
-      <c r="E94" s="21">
-        <v>0</v>
-      </c>
-      <c r="F94" s="21">
-        <v>0</v>
-      </c>
-      <c r="G94" s="21">
-        <v>0</v>
-      </c>
-      <c r="H94" s="21">
-        <v>0</v>
-      </c>
-      <c r="I94" s="21">
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
         <v>0</v>
       </c>
       <c r="M94" s="15"/>
@@ -20254,7 +20240,7 @@
       <c r="T94" s="13"/>
       <c r="U94" s="13"/>
     </row>
-    <row r="95" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="11"/>
       <c r="C95" s="19"/>
@@ -20274,7 +20260,7 @@
       <c r="T95" s="13"/>
       <c r="U95" s="13"/>
     </row>
-    <row r="96" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="11"/>
       <c r="C96" s="19"/>
@@ -20294,7 +20280,7 @@
       <c r="T96" s="13"/>
       <c r="U96" s="13"/>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="11"/>
       <c r="C97" s="19"/>
@@ -20314,7 +20300,7 @@
       <c r="T97" s="13"/>
       <c r="U97" s="13"/>
     </row>
-    <row r="98" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18" t="s">
@@ -20362,14 +20348,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -20377,7 +20363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -20385,7 +20371,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -20393,7 +20379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -20401,7 +20387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -20409,7 +20395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -20417,12 +20403,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -20430,7 +20416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -20438,7 +20424,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -20446,7 +20432,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -20454,7 +20440,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -20462,12 +20448,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -20475,7 +20461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -20483,7 +20469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -20491,7 +20477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -20499,7 +20485,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -20507,7 +20493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -20515,7 +20501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -20523,7 +20509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -20531,7 +20517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -20539,7 +20525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226EFB2-CE0E-4495-A26D-9A7050B1163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF5D50-0B03-4B01-8016-8228ECBFFF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
@@ -1092,9 +1092,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1106,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12224,7 +12224,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -13167,11 +13167,11 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -16661,35 +16661,35 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
@@ -16697,11 +16697,11 @@
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
@@ -16737,11 +16737,11 @@
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -16855,10 +16855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AI98"/>
+  <dimension ref="A1:AJ98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P20:P21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16874,7 +16874,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16916,11 +16916,11 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="11">
@@ -16955,21 +16955,22 @@
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="13"/>
+      <c r="X3" s="20"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
-    </row>
-    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="AJ3" s="13"/>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
       <c r="B4" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="26" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="11">
@@ -17000,12 +17001,12 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="26" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="11">
@@ -17036,12 +17037,12 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
       <c r="B6" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="11">
@@ -17072,12 +17073,12 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
       <c r="B7" s="11">
         <v>13</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="11">
@@ -17108,12 +17109,12 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
       <c r="B8" s="11">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="11">
@@ -17144,12 +17145,12 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="26" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="11">
@@ -17180,12 +17181,12 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
       <c r="B10" s="11">
         <v>27</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="11">
@@ -17216,12 +17217,12 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="11">
@@ -17252,12 +17253,12 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
       <c r="B12" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="11">
@@ -17288,12 +17289,12 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="11">
@@ -17324,12 +17325,12 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
       <c r="B14" s="11">
         <v>19</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="11">
@@ -17360,12 +17361,12 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
       <c r="B15" s="11">
         <v>26</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="11">
@@ -17396,12 +17397,12 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
       <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="11">
@@ -17411,16 +17412,16 @@
         <v>5</v>
       </c>
       <c r="F16" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="11">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I16" s="11">
-        <v>0.56999999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13"/>
@@ -17433,11 +17434,11 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="11">
@@ -17469,11 +17470,11 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11">
         <v>12</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="26" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="11">
@@ -17505,11 +17506,11 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>157</v>
       </c>
       <c r="D19" s="11">
@@ -17541,11 +17542,11 @@
       <c r="U19" s="13"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="11">
@@ -17577,11 +17578,11 @@
       <c r="U20" s="13"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="26" t="s">
         <v>159</v>
       </c>
       <c r="D21" s="11">
@@ -17613,11 +17614,11 @@
       <c r="U21" s="13"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="26" t="s">
         <v>160</v>
       </c>
       <c r="D22" s="11">
@@ -17649,11 +17650,11 @@
       <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="26" t="s">
         <v>161</v>
       </c>
       <c r="D23" s="11">
@@ -17685,11 +17686,11 @@
       <c r="U23" s="13"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="26" t="s">
         <v>162</v>
       </c>
       <c r="D24" s="11">
@@ -17721,11 +17722,11 @@
       <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="26" t="s">
         <v>163</v>
       </c>
       <c r="D25" s="11">
@@ -17757,11 +17758,11 @@
       <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="26" t="s">
         <v>164</v>
       </c>
       <c r="D26" s="11">
@@ -17793,11 +17794,11 @@
       <c r="U26" s="13"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="26" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="11">
@@ -17829,11 +17830,11 @@
       <c r="U27" s="13"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="11">
         <v>23</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="26" t="s">
         <v>166</v>
       </c>
       <c r="D28" s="11">
@@ -17865,11 +17866,11 @@
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="11">
-        <v>5</v>
-      </c>
-      <c r="C29" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="11">
@@ -17901,11 +17902,11 @@
       <c r="U29" s="13"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="11">
         <v>25</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="26" t="s">
         <v>168</v>
       </c>
       <c r="D30" s="11">
@@ -17937,11 +17938,11 @@
       <c r="U30" s="13"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="11">
-        <v>4</v>
-      </c>
-      <c r="C31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>169</v>
       </c>
       <c r="D31" s="11">
@@ -17973,11 +17974,11 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="11">
         <v>14</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="26" t="s">
         <v>170</v>
       </c>
       <c r="D32" s="11">
@@ -18009,11 +18010,11 @@
       <c r="U32" s="13"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="26" t="s">
         <v>171</v>
       </c>
       <c r="D33" s="11">
@@ -18045,11 +18046,11 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="26" t="s">
         <v>172</v>
       </c>
       <c r="D34" s="11">
@@ -18081,11 +18082,11 @@
       <c r="U34" s="13"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="26" t="s">
         <v>173</v>
       </c>
       <c r="D35" s="11">
@@ -18117,11 +18118,11 @@
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="26" t="s">
         <v>174</v>
       </c>
       <c r="D36" s="11">
@@ -18153,11 +18154,11 @@
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="26" t="s">
         <v>175</v>
       </c>
       <c r="D37" s="11">
@@ -18189,11 +18190,11 @@
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="26" t="s">
         <v>176</v>
       </c>
       <c r="D38" s="11">
@@ -18225,11 +18226,11 @@
       <c r="U38" s="13"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="26" t="s">
         <v>177</v>
       </c>
       <c r="D39" s="11">
@@ -18261,11 +18262,11 @@
       <c r="U39" s="13"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="26" t="s">
         <v>178</v>
       </c>
       <c r="D40" s="11">
@@ -18297,11 +18298,11 @@
       <c r="U40" s="13"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="26" t="s">
         <v>179</v>
       </c>
       <c r="D41" s="11">
@@ -18333,11 +18334,11 @@
       <c r="U41" s="13"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="26" t="s">
         <v>180</v>
       </c>
       <c r="D42" s="11">
@@ -18369,11 +18370,11 @@
       <c r="U42" s="13"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11">
         <v>3</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="11">
@@ -18382,7 +18383,7 @@
       <c r="E43" s="11">
         <v>5</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>12</v>
       </c>
       <c r="G43" s="11">
@@ -18405,11 +18406,11 @@
       <c r="U43" s="13"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="26" t="s">
         <v>181</v>
       </c>
       <c r="D44" s="11">
@@ -18441,11 +18442,11 @@
       <c r="U44" s="13"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="11">
         <v>10</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="26" t="s">
         <v>182</v>
       </c>
       <c r="D45" s="11">
@@ -18454,7 +18455,7 @@
       <c r="E45" s="11">
         <v>7</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>12</v>
       </c>
       <c r="G45" s="11">
@@ -18477,11 +18478,11 @@
       <c r="U45" s="13"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="11">
         <v>19</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D46" s="11">
@@ -18513,11 +18514,11 @@
       <c r="U46" s="13"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="26" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="11">
@@ -18549,11 +18550,11 @@
       <c r="U47" s="13"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="26" t="s">
         <v>185</v>
       </c>
       <c r="D48" s="11">
@@ -18585,11 +18586,11 @@
       <c r="U48" s="13"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="26" t="s">
         <v>186</v>
       </c>
       <c r="D49" s="11">
@@ -18621,11 +18622,11 @@
       <c r="U49" s="13"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="11">
         <v>24</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="26" t="s">
         <v>187</v>
       </c>
       <c r="D50" s="11">
@@ -18657,11 +18658,11 @@
       <c r="U50" s="13"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="26" t="s">
         <v>188</v>
       </c>
       <c r="D51" s="11">
@@ -18693,11 +18694,11 @@
       <c r="U51" s="13"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="26" t="s">
         <v>189</v>
       </c>
       <c r="D52" s="11">
@@ -18729,11 +18730,11 @@
       <c r="U52" s="13"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="26" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="11">
@@ -18765,11 +18766,11 @@
       <c r="U53" s="13"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="26" t="s">
         <v>191</v>
       </c>
       <c r="D54" s="11">
@@ -18801,11 +18802,11 @@
       <c r="U54" s="13"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="26" t="s">
         <v>192</v>
       </c>
       <c r="D55" s="11">
@@ -18837,11 +18838,11 @@
       <c r="U55" s="13"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="26" t="s">
         <v>193</v>
       </c>
       <c r="D56" s="11">
@@ -18873,11 +18874,11 @@
       <c r="U56" s="13"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="26" t="s">
         <v>194</v>
       </c>
       <c r="D57" s="11">
@@ -18909,11 +18910,11 @@
       <c r="U57" s="13"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="26" t="s">
         <v>195</v>
       </c>
       <c r="D58" s="11">
@@ -18945,11 +18946,11 @@
       <c r="U58" s="13"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D59" s="11">
@@ -18981,11 +18982,11 @@
       <c r="U59" s="13"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="26" t="s">
         <v>197</v>
       </c>
       <c r="D60" s="11">
@@ -19017,11 +19018,11 @@
       <c r="U60" s="13"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="26" t="s">
         <v>198</v>
       </c>
       <c r="D61" s="11">
@@ -19053,11 +19054,11 @@
       <c r="U61" s="13"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="26" t="s">
         <v>199</v>
       </c>
       <c r="D62" s="11">
@@ -19089,11 +19090,11 @@
       <c r="U62" s="13"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="26" t="s">
         <v>200</v>
       </c>
       <c r="D63" s="11">
@@ -19125,15 +19126,15 @@
       <c r="U63" s="13"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="11">
-        <v>6</v>
-      </c>
-      <c r="C64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="11">
         <v>7</v>
@@ -19142,13 +19143,13 @@
         <v>3</v>
       </c>
       <c r="G64" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" s="11">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="I64" s="11">
-        <v>1.1000000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="13"/>
@@ -19161,11 +19162,11 @@
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="11">
         <v>22</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="26" t="s">
         <v>202</v>
       </c>
       <c r="D65" s="11">
@@ -19197,11 +19198,11 @@
       <c r="U65" s="13"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="26" t="s">
         <v>203</v>
       </c>
       <c r="D66" s="11">
@@ -19233,11 +19234,11 @@
       <c r="U66" s="13"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="26" t="s">
         <v>204</v>
       </c>
       <c r="D67" s="11">
@@ -19269,30 +19270,30 @@
       <c r="U67" s="13"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="11">
         <v>1</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="23">
         <v>17</v>
       </c>
       <c r="E68" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="11">
         <v>10</v>
       </c>
-      <c r="G68" s="25">
-        <v>36</v>
+      <c r="G68" s="24">
+        <v>37</v>
       </c>
       <c r="H68" s="11">
-        <v>6.45</v>
+        <v>6.62</v>
       </c>
       <c r="I68" s="11">
-        <v>6.21</v>
+        <v>6.39</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="13"/>
@@ -19305,11 +19306,11 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D69" s="11">
@@ -19341,11 +19342,11 @@
       <c r="U69" s="13"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D70" s="11">
@@ -19377,11 +19378,11 @@
       <c r="U70" s="13"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="11">
         <v>21</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="26" t="s">
         <v>207</v>
       </c>
       <c r="D71" s="11">
@@ -19413,11 +19414,11 @@
       <c r="U71" s="13"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D72" s="11">
@@ -19449,11 +19450,11 @@
       <c r="U72" s="13"/>
     </row>
     <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="26" t="s">
         <v>209</v>
       </c>
       <c r="D73" s="11">
@@ -19485,11 +19486,11 @@
       <c r="U73" s="13"/>
     </row>
     <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="26" t="s">
         <v>210</v>
       </c>
       <c r="D74" s="11">
@@ -19521,11 +19522,11 @@
       <c r="U74" s="13"/>
     </row>
     <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="26" t="s">
         <v>211</v>
       </c>
       <c r="D75" s="11">
@@ -19557,11 +19558,11 @@
       <c r="U75" s="13"/>
     </row>
     <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="26" t="s">
         <v>212</v>
       </c>
       <c r="D76" s="11">
@@ -19593,11 +19594,11 @@
       <c r="U76" s="13"/>
     </row>
     <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="26" t="s">
         <v>213</v>
       </c>
       <c r="D77" s="11">
@@ -19629,11 +19630,11 @@
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="26" t="s">
         <v>214</v>
       </c>
       <c r="D78" s="11">
@@ -19665,11 +19666,11 @@
       <c r="U78" s="13"/>
     </row>
     <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="26" t="s">
         <v>215</v>
       </c>
       <c r="D79" s="11">
@@ -19701,11 +19702,11 @@
       <c r="U79" s="13"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="11">
         <v>17</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D80" s="11">
@@ -19737,11 +19738,11 @@
       <c r="U80" s="13"/>
     </row>
     <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="26" t="s">
         <v>217</v>
       </c>
       <c r="D81" s="11">
@@ -19773,11 +19774,11 @@
       <c r="U81" s="13"/>
     </row>
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="11">
         <v>15</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="26" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="11">
@@ -19809,11 +19810,11 @@
       <c r="U82" s="13"/>
     </row>
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="11">
         <v>18</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="26" t="s">
         <v>219</v>
       </c>
       <c r="D83" s="11">
@@ -19845,11 +19846,11 @@
       <c r="U83" s="13"/>
     </row>
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="11">
         <v>7</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D84" s="11">
@@ -19881,11 +19882,11 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D85" s="11">
@@ -19917,11 +19918,11 @@
       <c r="U85" s="13"/>
     </row>
     <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="26" t="s">
         <v>220</v>
       </c>
       <c r="D86" s="11">
@@ -19953,11 +19954,11 @@
       <c r="U86" s="13"/>
     </row>
     <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="26" t="s">
         <v>221</v>
       </c>
       <c r="D87" s="11">
@@ -19989,11 +19990,11 @@
       <c r="U87" s="13"/>
     </row>
     <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="26" t="s">
         <v>222</v>
       </c>
       <c r="D88" s="11">
@@ -20025,11 +20026,11 @@
       <c r="U88" s="13"/>
     </row>
     <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="26" t="s">
         <v>223</v>
       </c>
       <c r="D89" s="11">
@@ -20061,11 +20062,11 @@
       <c r="U89" s="13"/>
     </row>
     <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="26" t="s">
         <v>224</v>
       </c>
       <c r="D90" s="11">
@@ -20097,17 +20098,17 @@
       <c r="U90" s="13"/>
     </row>
     <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="11">
         <v>2</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="26" t="s">
         <v>225</v>
       </c>
       <c r="D91" s="11">
         <v>9</v>
       </c>
-      <c r="E91" s="26">
+      <c r="E91" s="25">
         <v>12</v>
       </c>
       <c r="F91" s="11">
@@ -20133,11 +20134,11 @@
       <c r="U91" s="13"/>
     </row>
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="26" t="s">
         <v>226</v>
       </c>
       <c r="D92" s="11">
@@ -20169,11 +20170,11 @@
       <c r="U92" s="13"/>
     </row>
     <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="26" t="s">
         <v>227</v>
       </c>
       <c r="D93" s="11">
@@ -20205,11 +20206,11 @@
       <c r="U93" s="13"/>
     </row>
     <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="26" t="s">
         <v>228</v>
       </c>
       <c r="D94" s="11">

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF5D50-0B03-4B01-8016-8228ECBFFF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B0267-4207-4A0C-8F57-CCBD78C82A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="268">
   <si>
     <t> Albania (2)</t>
   </si>
@@ -12223,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="B2">
         <f>Events!U95</f>
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B3">
         <f>Events!Y95</f>
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="B4">
         <f>Events!AI95</f>
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B5">
         <f>Events!N95</f>
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B6">
         <f>Events!W95</f>
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="B7">
         <f>Events!O95</f>
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="B8">
         <f>Events!AH95</f>
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="B9">
         <f>Events!Q95</f>
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B10">
         <f>Events!S95</f>
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B11">
         <f>Events!R95</f>
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="B12">
         <f>Events!AF95</f>
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B13">
         <f>Events!X95</f>
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B14">
         <f>Events!AE95</f>
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B15">
         <f>Events!AB95</f>
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="B16">
         <f>Events!AD95</f>
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B17">
         <f>Events!AG95</f>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="B18">
         <f>Events!AA95</f>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="B19">
         <f>Events!AC95</f>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B20">
         <f>Events!P95</f>
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B21">
         <f>Events!V95</f>
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B22">
         <f>Events!T95</f>
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B23">
         <f>Events!M95</f>
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B24">
         <f>Events!Z95</f>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -13159,19 +13159,19 @@
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">INDEX('Medal Count'!D:D,Events!$C15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" ref="J15">INDEX('Medal Count'!E:E,Events!$C15)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">INDEX('Medal Count'!F:F,Events!$C15)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <f>SUM((I15*3)+(J15*2)+(K15*1))</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -13256,19 +13256,19 @@
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">INDEX('Medal Count'!D:D,Events!$C17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">INDEX('Medal Count'!E:E,Events!$C17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">INDEX('Medal Count'!F:F,Events!$C17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <f>SUM((I17*3)+(J17*2)+(K17*1))</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -13428,11 +13428,11 @@
       </c>
       <c r="K21" cm="1">
         <f t="array" ref="K21">INDEX('Medal Count'!F:F,Events!$C21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <f>SUM((I21*3)+(J21*2)+(K21*1))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="J22" cm="1">
         <f t="array" ref="J22">INDEX('Medal Count'!E:E,Events!$C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" ref="K22">INDEX('Medal Count'!F:F,Events!$C22)</f>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="L22">
         <f t="shared" ref="L22:L24" si="4">(I22*3*2)+(J22*2*2)+(K22*1*2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="J25" cm="1">
         <f t="array" ref="J25">INDEX('Medal Count'!E:E,Events!$C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" ref="K25">INDEX('Medal Count'!F:F,Events!$C25)</f>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="L25">
         <f t="shared" ref="L25:L27" si="5">SUM((I25*3)+(J25*2)+(K25*1))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -13669,11 +13669,11 @@
       </c>
       <c r="K26" cm="1">
         <f t="array" ref="K26">INDEX('Medal Count'!F:F,Events!$C26)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -13720,11 +13720,11 @@
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">INDEX('Medal Count'!D:D,Events!$C27)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" ref="J27">INDEX('Medal Count'!E:E,Events!$C27)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" ref="K27">INDEX('Medal Count'!F:F,Events!$C27)</f>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -13808,11 +13808,11 @@
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">INDEX('Medal Count'!D:D,Events!$C29)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" ref="J29">INDEX('Medal Count'!E:E,Events!$C29)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" ref="K29">INDEX('Medal Count'!F:F,Events!$C29)</f>
@@ -13820,7 +13820,7 @@
       </c>
       <c r="L29">
         <f t="shared" ref="L29:L30" si="6">SUM((I29*3)+(J29*2)+(K29*1))</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -13866,15 +13866,15 @@
       </c>
       <c r="J30" cm="1">
         <f t="array" ref="J30">INDEX('Medal Count'!E:E,Events!$C30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" ref="K30">INDEX('Medal Count'!F:F,Events!$C30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH30">
         <v>1</v>
@@ -14342,19 +14342,19 @@
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">INDEX('Medal Count'!D:D,Events!$C42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" ref="J42">INDEX('Medal Count'!E:E,Events!$C42)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" ref="K42">INDEX('Medal Count'!F:F,Events!$C42)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L42">
         <f>SUM((I42*3)+(J42*2)+(K42*1))</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">INDEX('Medal Count'!D:D,Events!$C63)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J63" cm="1">
         <f t="array" ref="J63">INDEX('Medal Count'!E:E,Events!$C63)</f>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="L63">
         <f t="shared" ref="L63:L64" si="11">SUM((I63*3)+(J63*2)+(K63*1))</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -15379,19 +15379,19 @@
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">INDEX('Medal Count'!D:D,Events!$C67)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" cm="1">
         <f t="array" ref="J67">INDEX('Medal Count'!E:E,Events!$C67)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K67" cm="1">
         <f t="array" ref="K67">INDEX('Medal Count'!F:F,Events!$C67)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67">
         <f>SUM((I67*3)+(J67*2)+(K67*1))</f>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -15951,11 +15951,11 @@
       </c>
       <c r="I80" cm="1">
         <f t="array" ref="I80">INDEX('Medal Count'!D:D,Events!$C80)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" cm="1">
         <f t="array" ref="J80">INDEX('Medal Count'!E:E,Events!$C80)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K80" cm="1">
         <f t="array" ref="K80">INDEX('Medal Count'!F:F,Events!$C80)</f>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="L80">
         <f t="shared" ref="L80:L83" si="17">SUM((I80*3)+(J80*2)+(K80*1))</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -16018,11 +16018,11 @@
       </c>
       <c r="K81" cm="1">
         <f t="array" ref="K81">INDEX('Medal Count'!F:F,Events!$C81)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I82" cm="1">
         <f t="array" ref="I82">INDEX('Medal Count'!D:D,Events!$C82)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J82" cm="1">
         <f t="array" ref="J82">INDEX('Medal Count'!E:E,Events!$C82)</f>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -16120,15 +16120,15 @@
       </c>
       <c r="J83" cm="1">
         <f t="array" ref="J83">INDEX('Medal Count'!E:E,Events!$C83)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K83" cm="1">
         <f t="array" ref="K83">INDEX('Medal Count'!F:F,Events!$C83)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L83">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="W83">
         <v>1</v>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="I90" cm="1">
         <f t="array" ref="I90">INDEX('Medal Count'!D:D,Events!$C90)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J90" cm="1">
         <f t="array" ref="J90">INDEX('Medal Count'!E:E,Events!$C90)</f>
@@ -16417,11 +16417,11 @@
       </c>
       <c r="K90" cm="1">
         <f t="array" ref="K90">INDEX('Medal Count'!F:F,Events!$C90)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L90">
         <f>SUM((I90*3)+(J90*2)+(K90*1))</f>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -16661,95 +16661,95 @@
       <c r="G95" s="8"/>
       <c r="M95">
         <f t="shared" ref="M95:AI95" si="21">SUMIF(M$2:M$93,1,$L$2:$L$93)</f>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N95">
         <f t="shared" si="21"/>
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="O95">
         <f t="shared" si="21"/>
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="P95">
         <f t="shared" si="21"/>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="Q95">
         <f t="shared" si="21"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R95">
         <f t="shared" si="21"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="S95">
         <f t="shared" si="21"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="T95">
         <f t="shared" si="21"/>
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="U95">
         <f t="shared" si="21"/>
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="V95">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="W95">
         <f t="shared" si="21"/>
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="X95">
         <f t="shared" si="21"/>
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="Y95">
         <f t="shared" si="21"/>
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="Z95">
         <f t="shared" si="21"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AC95">
         <f t="shared" si="21"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AD95">
         <f t="shared" si="21"/>
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AE95">
         <f t="shared" si="21"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AF95">
         <f t="shared" si="21"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AG95">
         <f t="shared" si="21"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AH95">
         <f t="shared" si="21"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="AI95">
         <f t="shared" si="21"/>
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -16855,10 +16855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AJ98"/>
+  <dimension ref="A1:AK98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="M15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16874,7 +16874,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16916,7 +16916,7 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>265</v>
       </c>
@@ -16956,16 +16956,17 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="13"/>
+      <c r="Y3" s="20"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="14"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
-    </row>
-    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="11" t="s">
         <v>265</v>
@@ -17001,7 +17002,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>265</v>
@@ -17037,7 +17038,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="11" t="s">
         <v>265</v>
@@ -17073,10 +17074,10 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>145</v>
@@ -17109,7 +17110,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="11">
         <v>9</v>
@@ -17145,7 +17146,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>265</v>
@@ -17181,10 +17182,10 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>148</v>
@@ -17217,7 +17218,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>265</v>
@@ -17253,7 +17254,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="11" t="s">
         <v>265</v>
@@ -17289,7 +17290,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>265</v>
@@ -17325,7 +17326,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="11">
         <v>19</v>
@@ -17361,10 +17362,10 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>153</v>
@@ -17397,7 +17398,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="11">
         <v>11</v>
@@ -17406,22 +17407,22 @@
         <v>154</v>
       </c>
       <c r="D16" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" s="11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H16" s="11">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="I16" s="11">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13"/>
@@ -17478,22 +17479,22 @@
         <v>156</v>
       </c>
       <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
         <v>4</v>
       </c>
-      <c r="E18" s="11">
-        <v>3</v>
-      </c>
       <c r="F18" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H18" s="11">
         <v>0.01</v>
       </c>
       <c r="I18" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="13"/>
@@ -17664,16 +17665,16 @@
         <v>2</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="11">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="I23" s="11">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="13"/>
@@ -17687,8 +17688,8 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="11" t="s">
-        <v>265</v>
+      <c r="B24" s="11">
+        <v>25</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>162</v>
@@ -17697,19 +17698,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I24" s="11">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="13"/>
@@ -17795,8 +17796,8 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
-      <c r="B27" s="11" t="s">
-        <v>265</v>
+      <c r="B27" s="11">
+        <v>25</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>165</v>
@@ -17805,19 +17806,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="I27" s="11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="13"/>
@@ -17844,16 +17845,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28" s="11">
-        <v>0.89</v>
+        <v>1.07</v>
       </c>
       <c r="I28" s="11">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="13"/>
@@ -17874,22 +17875,22 @@
         <v>167</v>
       </c>
       <c r="D29" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="11">
         <v>6</v>
       </c>
       <c r="G29" s="11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H29" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="I29" s="11">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="13"/>
@@ -17946,22 +17947,22 @@
         <v>169</v>
       </c>
       <c r="D31" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" s="11">
         <v>8</v>
       </c>
       <c r="G31" s="11">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H31" s="11">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I31" s="11">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="13"/>
@@ -17976,7 +17977,7 @@
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>170</v>
@@ -17985,19 +17986,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="11">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I32" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="13"/>
@@ -18372,28 +18373,28 @@
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H43" s="11">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="I43" s="11">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="13"/>
@@ -18455,7 +18456,7 @@
       <c r="E45" s="11">
         <v>7</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="11">
         <v>12</v>
       </c>
       <c r="G45" s="11">
@@ -19128,13 +19129,13 @@
     <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E64" s="11">
         <v>7</v>
@@ -19143,13 +19144,13 @@
         <v>3</v>
       </c>
       <c r="G64" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H64" s="11">
-        <v>0.95</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I64" s="11">
-        <v>1.1599999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="13"/>
@@ -19278,22 +19279,22 @@
         <v>140</v>
       </c>
       <c r="D68" s="23">
-        <v>17</v>
-      </c>
-      <c r="E68" s="11">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E68" s="25">
+        <v>12</v>
       </c>
       <c r="F68" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H68" s="11">
-        <v>6.62</v>
+        <v>7.34</v>
       </c>
       <c r="I68" s="11">
-        <v>6.39</v>
+        <v>7.08</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="13"/>
@@ -19776,28 +19777,28 @@
     <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" s="11">
         <v>3</v>
       </c>
       <c r="G82" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H82" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I82" s="11">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="13"/>
@@ -19824,16 +19825,16 @@
         <v>0</v>
       </c>
       <c r="F83" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" s="11">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I83" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="13"/>
@@ -19854,7 +19855,7 @@
         <v>137</v>
       </c>
       <c r="D84" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E84" s="11">
         <v>6</v>
@@ -19863,13 +19864,13 @@
         <v>4</v>
       </c>
       <c r="G84" s="11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H84" s="11">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="I84" s="11">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="13"/>
@@ -19884,7 +19885,7 @@
     <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>138</v>
@@ -19893,19 +19894,19 @@
         <v>6</v>
       </c>
       <c r="E85" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F85" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G85" s="11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H85" s="11">
-        <v>1.79</v>
+        <v>2.57</v>
       </c>
       <c r="I85" s="11">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="13"/>
@@ -20106,22 +20107,22 @@
         <v>225</v>
       </c>
       <c r="D91" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E91" s="25">
         <v>12</v>
       </c>
       <c r="F91" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G91" s="11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H91" s="11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I91" s="11">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="13"/>

--- a/OlympicTracker.xlsx
+++ b/OlympicTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sstorsrvreg\Shared\Common\Committees\Donations Committee\2026 Donations\TeleMiracle50\Olympics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3B0267-4207-4A0C-8F57-CCBD78C82A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9B5289-1AA6-4308-83DB-AD8BDC7E4996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{455CBBFA-E652-4093-8621-B25A0F446318}"/>
   </bookViews>
   <sheets>
     <sheet name="Display Points" sheetId="12" r:id="rId1"/>
@@ -12223,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73278F82-7A28-4C1E-8460-54FF1E28F9AC}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12242,11 +12242,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B2">
-        <f>Events!U95</f>
-        <v>132</v>
+        <f>Events!N95</f>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12260,182 +12260,182 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <f>Events!W95</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>259</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>Events!AI95</f>
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5">
-        <f>Events!N95</f>
-        <v>155</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B6">
-        <f>Events!W95</f>
-        <v>147</v>
+        <f>Events!U95</f>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7">
+        <f>Events!AH95</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8">
+        <f>Events!AD95</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9">
+        <f>Events!V95</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>260</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <f>Events!O95</f>
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8">
-        <f>Events!AH95</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>251</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <f>Events!Q95</f>
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12">
+        <f>Events!R95</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>261</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <f>Events!S95</f>
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11">
-        <f>Events!R95</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>263</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f>Events!AF95</f>
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>264</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f>Events!X95</f>
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16">
+        <f>Events!P95</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17">
+        <f>Events!AB95</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18">
+        <f>Events!M95</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19">
+        <f>Events!T95</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>244</v>
       </c>
-      <c r="B14">
+      <c r="B20">
         <f>Events!AE95</f>
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15">
-        <f>Events!AB95</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16">
-        <f>Events!AD95</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>258</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <f>Events!AG95</f>
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>246</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <f>Events!AA95</f>
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>247</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <f>Events!AC95</f>
         <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20">
-        <f>Events!P95</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21">
-        <f>Events!V95</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22">
-        <f>Events!T95</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23">
-        <f>Events!M95</f>
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -16855,10 +16855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0188218-E292-4424-B36D-CD70B968B768}">
-  <dimension ref="A1:AK98"/>
+  <dimension ref="A1:AL98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="M15:N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="P16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16874,7 +16874,7 @@
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>229</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16916,7 +16916,7 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>265</v>
       </c>
@@ -16957,16 +16957,17 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="13"/>
+      <c r="Z3" s="20"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="14"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
-    </row>
-    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL3" s="13"/>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="11" t="s">
         <v>265</v>
@@ -17002,7 +17003,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>265</v>
@@ -17038,7 +17039,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="11" t="s">
         <v>265</v>
@@ -17074,7 +17075,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="11">
         <v>14</v>
@@ -17110,7 +17111,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="11">
         <v>9</v>
@@ -17146,7 +17147,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>265</v>
@@ -17182,7 +17183,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="11">
         <v>29</v>
@@ -17218,7 +17219,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>265</v>
@@ -17254,7 +17255,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="11" t="s">
         <v>265</v>
@@ -17290,7 +17291,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
         <v>265</v>
@@ -17326,7 +17327,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="11">
         <v>19</v>
@@ -17362,7 +17363,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="11">
         <v>28</v>
@@ -17398,7 +17399,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="11">
         <v>11</v>
